--- a/COIN.xlsx
+++ b/COIN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uillinoisedu-my.sharepoint.com/personal/jgarza25_illinois_edu/Documents/Stock Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobgarza/repos/Stock_Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1901C065-5EAB-4917-8A94-973121726748}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C26FA34-054E-1C49-A440-217AAE94E278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="38610" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17040" yWindow="500" windowWidth="23400" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Main</t>
   </si>
@@ -133,6 +133,21 @@
   </si>
   <si>
     <t>EPS</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Rev y/y</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
   </si>
 </sst>
 </file>
@@ -177,12 +192,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -202,9 +218,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -242,7 +258,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -348,7 +364,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -490,7 +506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -501,16 +517,16 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -518,35 +534,36 @@
         <v>2</v>
       </c>
       <c r="J1" s="2">
-        <v>186.86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I2" t="s">
         <v>3</v>
       </c>
       <c r="J2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <f>192+47</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="2">
         <f>J1*J2</f>
-        <v>14761.94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="2">
-        <v>5018</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
         <v>6</v>
       </c>
@@ -554,13 +571,13 @@
         <v>3395</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I6" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="2">
         <f>J3-J4+J5</f>
-        <v>13138.94</v>
+        <v>37730</v>
       </c>
     </row>
   </sheetData>
@@ -574,22 +591,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1158549-ACF3-45F2-9BB5-01980EBA453A}">
-  <dimension ref="A1:AB15"/>
+  <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,7 +691,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -682,155 +699,443 @@
         <f>1164.89+1.54</f>
         <v>1166.43</v>
       </c>
+      <c r="I2" s="4">
+        <v>808</v>
+      </c>
+      <c r="J2" s="4">
+        <v>590</v>
+      </c>
       <c r="L2" s="4">
         <f>736.39+36.1</f>
         <v>772.49</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M2" s="4">
+        <v>707</v>
+      </c>
+      <c r="N2" s="4">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="4">
         <v>277.82</v>
       </c>
+      <c r="I3" s="4">
+        <v>167</v>
+      </c>
+      <c r="J3" s="4">
+        <v>101</v>
+      </c>
       <c r="L3" s="4">
         <v>96.36</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M3" s="4">
+        <v>108</v>
+      </c>
+      <c r="N3" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="4">
+        <f>H2-H3</f>
+        <v>888.61000000000013</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:N4" si="1">I2-I3</f>
+        <v>641</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="1"/>
+        <v>489</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4">
+        <f t="shared" si="1"/>
+        <v>676.13</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="1"/>
+        <v>599</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="1"/>
+        <v>584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H5" s="4">
         <v>570.66</v>
       </c>
-      <c r="L4" s="4">
+      <c r="I5" s="4">
+        <v>609</v>
+      </c>
+      <c r="J5" s="4">
+        <v>556</v>
+      </c>
+      <c r="L5" s="4">
         <v>358.03</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="M5" s="4">
+        <v>320</v>
+      </c>
+      <c r="N5" s="4">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H6" s="4">
         <v>200.2</v>
       </c>
-      <c r="L5" s="4">
+      <c r="I6" s="4">
+        <v>140</v>
+      </c>
+      <c r="J6" s="4">
+        <v>75</v>
+      </c>
+      <c r="L6" s="4">
         <v>63.97</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="M6" s="4">
+        <v>83</v>
+      </c>
+      <c r="N6" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H7" s="4">
         <v>413.57799999999997</v>
       </c>
-      <c r="L6" s="4">
+      <c r="I7" s="4">
+        <v>470</v>
+      </c>
+      <c r="J7" s="4">
+        <v>339</v>
+      </c>
+      <c r="L7" s="4">
         <v>248.76</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="M7" s="4">
+        <v>258</v>
+      </c>
+      <c r="N7" s="4">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="4">
-        <f>SUM(H3:H6)</f>
-        <v>1462.258</v>
-      </c>
-      <c r="L7" s="4">
-        <f>SUM(L3:L6)</f>
-        <v>767.12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="H8" s="4">
+        <f>SUM(H3:H7)</f>
+        <v>2350.8680000000004</v>
+      </c>
+      <c r="I8" s="4">
+        <f>SUM(I3:I7)</f>
+        <v>2027</v>
+      </c>
+      <c r="J8" s="4">
+        <f>SUM(J3:J7)</f>
+        <v>1560</v>
+      </c>
+      <c r="L8" s="4">
+        <f>SUM(L3:L7)</f>
+        <v>1443.25</v>
+      </c>
+      <c r="M8" s="4">
+        <f>SUM(M3:M7)</f>
+        <v>1368</v>
+      </c>
+      <c r="N8" s="4">
+        <f>SUM(N3:N7)</f>
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="4">
-        <f>H2-H7</f>
-        <v>-295.82799999999997</v>
-      </c>
-      <c r="L8" s="4">
-        <f>L2-L7</f>
-        <v>5.3700000000000045</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="H9" s="4">
+        <f>H2-H8</f>
+        <v>-1184.4380000000003</v>
+      </c>
+      <c r="I9" s="4">
+        <f>I2-I8</f>
+        <v>-1219</v>
+      </c>
+      <c r="J9" s="4">
+        <f>J2-J8</f>
+        <v>-970</v>
+      </c>
+      <c r="L9" s="4">
+        <f>L2-L8</f>
+        <v>-670.76</v>
+      </c>
+      <c r="M9" s="4">
+        <f>M2-M8</f>
+        <v>-661</v>
+      </c>
+      <c r="N9" s="4">
+        <f>N2-N8</f>
+        <v>-652</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="4">
-        <v>22.13</v>
-      </c>
-      <c r="L9" s="4">
-        <v>21.53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="H10" s="4">
+        <v>20</v>
+      </c>
+      <c r="I10" s="4">
+        <f>23+172</f>
+        <v>195</v>
+      </c>
+      <c r="J10" s="4">
+        <v>21</v>
+      </c>
+      <c r="L10" s="4">
+        <v>21</v>
+      </c>
+      <c r="M10" s="4">
+        <f>21-16</f>
+        <v>5</v>
+      </c>
+      <c r="N10" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="4">
-        <f>H8-H9</f>
-        <v>-317.95799999999997</v>
-      </c>
-      <c r="L10" s="4">
-        <f>L8-L9</f>
-        <v>-16.159999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="H11" s="4">
+        <f>H9-H10</f>
+        <v>-1204.4380000000003</v>
+      </c>
+      <c r="I11" s="4">
+        <f>I9-I10</f>
+        <v>-1414</v>
+      </c>
+      <c r="J11" s="4">
+        <f>J9-J10</f>
+        <v>-991</v>
+      </c>
+      <c r="L11" s="4">
+        <f>L9-L10</f>
+        <v>-691.76</v>
+      </c>
+      <c r="M11" s="4">
+        <f>M9-M10</f>
+        <v>-666</v>
+      </c>
+      <c r="N11" s="4">
+        <f>N9-N10</f>
+        <v>-672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H12" s="4">
         <v>-180</v>
       </c>
-      <c r="L11" s="4">
+      <c r="I12" s="4">
+        <v>-146</v>
+      </c>
+      <c r="J12" s="4">
+        <v>-99</v>
+      </c>
+      <c r="L12" s="4">
         <v>-86.78</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="M12" s="4">
+        <v>18</v>
+      </c>
+      <c r="N12" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="4">
-        <f>H10-H11</f>
-        <v>-137.95799999999997</v>
-      </c>
-      <c r="L12" s="4">
-        <f>L10-L11</f>
-        <v>70.62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="H13" s="4">
+        <f>H11-H12</f>
+        <v>-1024.4380000000003</v>
+      </c>
+      <c r="I13" s="4">
+        <f>I11-I12</f>
+        <v>-1268</v>
+      </c>
+      <c r="J13" s="4">
+        <f>J11-J12</f>
+        <v>-892</v>
+      </c>
+      <c r="L13" s="4">
+        <f>L11-L12</f>
+        <v>-604.98</v>
+      </c>
+      <c r="M13" s="4">
+        <f>M11-M12</f>
+        <v>-684</v>
+      </c>
+      <c r="N13" s="4">
+        <f>N11-N12</f>
+        <v>-708</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H15" s="4">
         <v>231.48</v>
       </c>
-      <c r="L14" s="4">
+      <c r="I15" s="4">
+        <v>221</v>
+      </c>
+      <c r="J15" s="4">
+        <v>223</v>
+      </c>
+      <c r="L15" s="4">
         <v>231.48</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="M15" s="4">
+        <v>234</v>
+      </c>
+      <c r="N15" s="4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="3">
-        <f>H12/H14</f>
-        <v>-0.59598237428719536</v>
-      </c>
-      <c r="L15" s="3">
-        <f>L12/L14</f>
-        <v>0.30508035251425614</v>
+      <c r="H16" s="3">
+        <f>H13/H15</f>
+        <v>-4.4256004838430982</v>
+      </c>
+      <c r="I16" s="3">
+        <f>I13/I15</f>
+        <v>-5.7375565610859729</v>
+      </c>
+      <c r="J16" s="3">
+        <f>J13/J15</f>
+        <v>-4</v>
+      </c>
+      <c r="L16" s="3">
+        <f>L13/L15</f>
+        <v>-2.6135303265940903</v>
+      </c>
+      <c r="M16" s="3">
+        <f>M13/M15</f>
+        <v>-2.9230769230769229</v>
+      </c>
+      <c r="N16" s="3">
+        <f>N13/N15</f>
+        <v>-2.9873417721518987</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="5">
+        <f>H4/H2</f>
+        <v>0.76182025496600747</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" ref="I18:N18" si="2">I4/I2</f>
+        <v>0.79331683168316836</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="2"/>
+        <v>0.82881355932203393</v>
+      </c>
+      <c r="K18" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="2"/>
+        <v>0.87526052117179509</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" si="2"/>
+        <v>0.8472418670438473</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" si="2"/>
+        <v>0.86646884272997038</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="5">
+        <f>H9/H2</f>
+        <v>-1.0154385603936802</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" ref="I19:N19" si="3">I9/I2</f>
+        <v>-1.5086633663366336</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.6440677966101696</v>
+      </c>
+      <c r="K19" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.86830897487346115</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.93493635077793491</v>
+      </c>
+      <c r="N19" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.96735905044510384</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/COIN.xlsx
+++ b/COIN.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobgarza/repos/Stock_Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C26FA34-054E-1C49-A440-217AAE94E278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA1B63C-3C89-6F45-925D-9EFFB51A83C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17040" yWindow="500" windowWidth="23400" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Key Metrics" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,8 +34,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={03271829-BED3-704F-A038-7613BAC59E5A}</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{03271829-BED3-704F-A038-7613BAC59E5A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Excludes Crypto Asset impairment, restructuring, and other operating expense</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>Main</t>
   </si>
@@ -148,13 +167,103 @@
   </si>
   <si>
     <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>Monthly Transacting Users (Millions)</t>
+  </si>
+  <si>
+    <t>Trading Volume (Billions)</t>
+  </si>
+  <si>
+    <t>Institutional Volume</t>
+  </si>
+  <si>
+    <t>Consumer Volume</t>
+  </si>
+  <si>
+    <t>Volume mix (Institutional)</t>
+  </si>
+  <si>
+    <t>Volume mix (Consumer)</t>
+  </si>
+  <si>
+    <t>Transaction Revenue</t>
+  </si>
+  <si>
+    <t>Subs and services</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Other (Income)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>BTC/USD</t>
+  </si>
+  <si>
+    <t>Consumer Revenue</t>
+  </si>
+  <si>
+    <t>Institutional Revenue</t>
+  </si>
+  <si>
+    <t>Stablecoin Rev</t>
+  </si>
+  <si>
+    <t>Blockchain Rev</t>
+  </si>
+  <si>
+    <t>Interest income</t>
+  </si>
+  <si>
+    <t>Custodial fee revenue</t>
+  </si>
+  <si>
+    <t>Other revenue</t>
+  </si>
+  <si>
+    <t>Institutional Volume (Billions)</t>
+  </si>
+  <si>
+    <t>Consumer Volume (Billions)</t>
+  </si>
+  <si>
+    <t>Transaction Rev y/y</t>
+  </si>
+  <si>
+    <t>Subs and services y/y</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>FVE</t>
+  </si>
+  <si>
+    <t>Value?</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>**Not Accurate**</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +278,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,13 +315,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -215,6 +345,1230 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Key Metrics'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trading Volume (Billions)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Key Metrics'!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Key Metrics'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-96C0-184B-92B3-FBFA8F4B9265}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1068940560"/>
+        <c:axId val="1068949728"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Key Metrics'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Monthly Transacting Users (Millions)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Key Metrics'!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Key Metrics'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96C0-184B-92B3-FBFA8F4B9265}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1240823327"/>
+        <c:axId val="1240817647"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1068940560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1068949728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1068949728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1068940560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1240817647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1240823327"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1240823327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1240817647"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6112A1C1-83DB-E5E9-3700-71A53744CBA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="355600" y="955040"/>
+          <a:ext cx="14300200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43B5E98-4635-AA99-D619-EB71677C3C8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="71120"/>
+          <a:ext cx="0" cy="8483600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11571DCF-30AC-0649-8869-F40B2D0F6D4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14325600" y="20320"/>
+          <a:ext cx="0" cy="8483600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C21DC036-DE41-57CD-D080-D0D61A37ACF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Garza, Jacob S" id="{E588B327-89F0-964B-963F-09B59D151706}" userId="S::jgarza25@illinois.edu::9792bea3-4872-461e-a1cc-52c9d9b6c150" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,12 +1866,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B1" dT="2024-02-16T05:16:25.49" personId="{E588B327-89F0-964B-963F-09B59D151706}" id="{03271829-BED3-704F-A038-7613BAC59E5A}">
+    <text>Excludes Crypto Asset impairment, restructuring, and other operating expense</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -534,7 +1896,7 @@
         <v>2</v>
       </c>
       <c r="J1" s="2">
-        <v>165</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -542,8 +1904,8 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <f>192+47</f>
-        <v>239</v>
+        <f>195.5+46.7</f>
+        <v>242.2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -552,7 +1914,7 @@
       </c>
       <c r="J3" s="2">
         <f>J1*J2</f>
-        <v>39435</v>
+        <v>46018</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -577,7 +1939,7 @@
       </c>
       <c r="J6" s="2">
         <f>J3-J4+J5</f>
-        <v>37730</v>
+        <v>44313</v>
       </c>
     </row>
   </sheetData>
@@ -590,26 +1952,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1158549-ACF3-45F2-9BB5-01980EBA453A}">
-  <dimension ref="A1:AB22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1158549-ACF3-45F2-9BB5-01980EBA453A}">
+  <dimension ref="A1:HE42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="O10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomRight" activeCell="AG37" sqref="AG37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
       <c r="C1" t="s">
         <v>8</v>
       </c>
@@ -648,6 +2014,9 @@
       </c>
       <c r="O1" t="s">
         <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>66</v>
       </c>
       <c r="R1">
         <v>2021</v>
@@ -692,450 +2061,2417 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
       <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="2">
+        <v>47733</v>
+      </c>
+      <c r="S2" s="2">
+        <v>16529</v>
+      </c>
+      <c r="T2" s="2">
+        <v>42141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4">
+        <v>74</v>
+      </c>
+      <c r="I4">
+        <v>46</v>
+      </c>
+      <c r="J4">
+        <v>26</v>
+      </c>
+      <c r="L4">
         <v>21</v>
       </c>
-      <c r="H2" s="4">
-        <f>1164.89+1.54</f>
-        <v>1166.43</v>
-      </c>
-      <c r="I2" s="4">
-        <v>808</v>
-      </c>
-      <c r="J2" s="4">
-        <v>590</v>
-      </c>
-      <c r="L2" s="4">
-        <f>736.39+36.1</f>
-        <v>772.49</v>
-      </c>
-      <c r="M2" s="4">
-        <v>707</v>
-      </c>
-      <c r="N2" s="4">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="4">
-        <v>277.82</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="M4">
+        <v>14</v>
+      </c>
+      <c r="N4">
+        <v>11</v>
+      </c>
+      <c r="O4" s="2">
+        <f>T4-N4-M4-L4</f>
+        <v>29</v>
+      </c>
+      <c r="R4" s="2">
+        <v>535</v>
+      </c>
+      <c r="S4" s="2">
         <v>167</v>
       </c>
-      <c r="J3" s="4">
-        <v>101</v>
-      </c>
-      <c r="L3" s="4">
-        <v>96.36</v>
-      </c>
-      <c r="M3" s="4">
-        <v>108</v>
-      </c>
-      <c r="N3" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="4">
-        <f>H2-H3</f>
-        <v>888.61000000000013</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:N4" si="1">I2-I3</f>
-        <v>641</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="1"/>
-        <v>489</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4">
-        <f t="shared" si="1"/>
-        <v>676.13</v>
-      </c>
-      <c r="M4" s="4">
-        <f t="shared" si="1"/>
-        <v>599</v>
-      </c>
-      <c r="N4" s="4">
-        <f t="shared" si="1"/>
-        <v>584</v>
+      <c r="T4" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="4">
-        <v>570.66</v>
-      </c>
-      <c r="I5" s="4">
-        <v>609</v>
-      </c>
-      <c r="J5" s="4">
-        <v>556</v>
-      </c>
-      <c r="L5" s="4">
-        <v>358.03</v>
-      </c>
-      <c r="M5" s="4">
-        <v>320</v>
-      </c>
-      <c r="N5" s="4">
-        <v>322</v>
+        <v>57</v>
+      </c>
+      <c r="H5">
+        <v>235</v>
+      </c>
+      <c r="I5">
+        <v>171</v>
+      </c>
+      <c r="J5">
+        <v>133</v>
+      </c>
+      <c r="L5">
+        <v>124</v>
+      </c>
+      <c r="M5">
+        <v>78</v>
+      </c>
+      <c r="N5">
+        <v>65</v>
+      </c>
+      <c r="O5" s="2">
+        <f>T5-N5-M5-L5</f>
+        <v>126</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1136</v>
+      </c>
+      <c r="S5" s="2">
+        <v>663</v>
+      </c>
+      <c r="T5" s="2">
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>965</v>
+      </c>
+      <c r="I6">
+        <v>616</v>
+      </c>
+      <c r="J6">
+        <v>346</v>
+      </c>
+      <c r="L6">
+        <v>352</v>
+      </c>
+      <c r="M6">
+        <v>310</v>
+      </c>
+      <c r="N6">
+        <v>274.5</v>
+      </c>
+      <c r="O6" s="2">
+        <f>T6-N6-M6-L6</f>
+        <v>492.90000000000009</v>
+      </c>
+      <c r="R6" s="2">
+        <v>6490.9</v>
+      </c>
+      <c r="S6" s="2">
+        <v>2236.9</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1429.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7">
+        <v>47</v>
+      </c>
+      <c r="I7">
+        <v>39</v>
+      </c>
+      <c r="J7">
+        <v>19.7</v>
+      </c>
+      <c r="L7">
+        <v>22</v>
+      </c>
+      <c r="M7">
+        <v>17</v>
+      </c>
+      <c r="N7">
+        <v>14</v>
+      </c>
+      <c r="O7" s="2">
+        <f>T7-N7-M7-L7</f>
+        <v>37.159999999999997</v>
+      </c>
+      <c r="R7" s="2">
+        <v>346.2</v>
+      </c>
+      <c r="S7" s="2">
+        <v>119.3</v>
+      </c>
+      <c r="T7" s="2">
+        <v>90.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9">
+        <v>76.8</v>
+      </c>
+      <c r="N9">
+        <v>172</v>
+      </c>
+      <c r="R9" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="S9" s="2">
+        <v>245.7</v>
+      </c>
+      <c r="T9" s="2">
+        <v>694.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10">
+        <v>81.8</v>
+      </c>
+      <c r="I10">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="J10">
+        <v>62.7</v>
+      </c>
+      <c r="L10">
+        <v>73.7</v>
+      </c>
+      <c r="M10">
+        <v>87.6</v>
+      </c>
+      <c r="N10">
+        <v>74</v>
+      </c>
+      <c r="O10" s="2">
+        <f>T10-N10-M10-L10</f>
+        <v>95.500000000000014</v>
+      </c>
+      <c r="R10" s="2">
+        <v>223</v>
+      </c>
+      <c r="S10" s="2">
+        <v>275.5</v>
+      </c>
+      <c r="T10" s="2">
+        <v>330.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11">
+        <v>10.4</v>
+      </c>
+      <c r="I11">
+        <v>32.5</v>
+      </c>
+      <c r="J11">
+        <v>24.9</v>
+      </c>
+      <c r="L11">
+        <v>240.8</v>
+      </c>
+      <c r="M11">
+        <v>201.36</v>
+      </c>
+      <c r="N11">
+        <v>39</v>
+      </c>
+      <c r="R11" s="2">
+        <v>15.9</v>
+      </c>
+      <c r="S11" s="2">
+        <v>81.2</v>
+      </c>
+      <c r="T11" s="2">
+        <v>173.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12">
+        <v>31.6</v>
+      </c>
+      <c r="I12">
+        <v>22.17</v>
+      </c>
+      <c r="J12">
+        <v>14.5</v>
+      </c>
+      <c r="L12">
+        <v>17</v>
+      </c>
+      <c r="M12">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="N12">
+        <v>15.8</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" ref="O12:O17" si="1">T12-N12-M12-L12</f>
+        <v>19.800000000000004</v>
+      </c>
+      <c r="R12" s="2">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="S12" s="2">
+        <v>79.84</v>
+      </c>
+      <c r="T12" s="2">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13">
+        <v>27.8</v>
+      </c>
+      <c r="I13">
+        <v>24.2</v>
+      </c>
+      <c r="J13">
+        <v>31.4</v>
+      </c>
+      <c r="L13">
+        <v>30</v>
+      </c>
+      <c r="M13">
+        <v>29.4</v>
+      </c>
+      <c r="N13">
+        <v>32</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="1"/>
+        <v>46.930000000000007</v>
+      </c>
+      <c r="R13" s="2">
+        <v>132.30000000000001</v>
+      </c>
+      <c r="S13" s="2">
+        <v>110.2</v>
+      </c>
+      <c r="T13" s="2">
+        <v>138.33000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="2">
+        <f>SUM(H6:H7)</f>
+        <v>1012</v>
+      </c>
+      <c r="I15" s="2">
+        <f>SUM(I6:I7)</f>
+        <v>655</v>
+      </c>
+      <c r="J15" s="2">
+        <f>SUM(J6:J7)</f>
+        <v>365.7</v>
+      </c>
+      <c r="L15" s="2">
+        <f>SUM(L6:L7)</f>
+        <v>374</v>
+      </c>
+      <c r="M15" s="2">
+        <f>SUM(M6:M7)</f>
+        <v>327</v>
+      </c>
+      <c r="N15" s="2">
+        <f>SUM(N6:N7)</f>
+        <v>288.5</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="1"/>
+        <v>530.06000000000017</v>
+      </c>
+      <c r="P15">
+        <v>640</v>
+      </c>
+      <c r="R15" s="2">
+        <f>SUM(R6:R7)</f>
+        <v>6837.0999999999995</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" ref="S15:T15" si="2">SUM(S6:S7)</f>
+        <v>2356.2000000000003</v>
+      </c>
+      <c r="T15" s="2">
+        <f t="shared" si="2"/>
+        <v>1519.5600000000002</v>
+      </c>
+      <c r="U15">
+        <f>T15*0.95</f>
+        <v>1443.5820000000001</v>
+      </c>
+      <c r="V15">
+        <f t="shared" ref="V15:AB15" si="3">U15*0.95</f>
+        <v>1371.4029</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="3"/>
+        <v>1302.8327549999999</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="3"/>
+        <v>1237.6911172499999</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="3"/>
+        <v>1175.8065613874999</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="3"/>
+        <v>1117.0162333181249</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="3"/>
+        <v>1061.1654216522186</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="3"/>
+        <v>1008.1071505696076</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="2">
+        <f>SUM(H9:H13)</f>
+        <v>151.60000000000002</v>
+      </c>
+      <c r="I16" s="2">
+        <f>SUM(I9:I13)</f>
+        <v>147.27000000000001</v>
+      </c>
+      <c r="J16" s="2">
+        <f>SUM(J9:J13)</f>
+        <v>210.3</v>
+      </c>
+      <c r="L16" s="2">
+        <f>SUM(L9:L13)</f>
+        <v>361.5</v>
+      </c>
+      <c r="M16" s="2">
+        <f>SUM(M9:M13)</f>
+        <v>335.26</v>
+      </c>
+      <c r="N16" s="2">
+        <f>SUM(N9:N13)</f>
+        <v>332.8</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="1"/>
+        <v>377.17000000000007</v>
+      </c>
+      <c r="P16">
+        <f>(410+480)/2</f>
+        <v>445</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2">
+        <f>SUM(R9:R13)</f>
+        <v>517.20000000000005</v>
+      </c>
+      <c r="S16" s="2">
+        <f>SUM(S9:S13)</f>
+        <v>792.44000000000017</v>
+      </c>
+      <c r="T16" s="2">
+        <f>SUM(T9:T13)</f>
+        <v>1406.73</v>
+      </c>
+      <c r="U16">
+        <f>T16*1.1</f>
+        <v>1547.4030000000002</v>
+      </c>
+      <c r="V16">
+        <f t="shared" ref="V16:AB16" si="4">U16*1.1</f>
+        <v>1702.1433000000004</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="4"/>
+        <v>1872.3576300000007</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="4"/>
+        <v>2059.593393000001</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="4"/>
+        <v>2265.5527323000015</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="4"/>
+        <v>2492.1080055300017</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="4"/>
+        <v>2741.3188060830021</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="4"/>
+        <v>3015.4506866913025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:213" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17">
+        <v>1.5</v>
+      </c>
+      <c r="I17">
+        <v>5.7</v>
+      </c>
+      <c r="J17">
+        <v>13.9</v>
+      </c>
+      <c r="L17" s="2">
+        <v>36</v>
+      </c>
+      <c r="M17" s="2">
+        <v>45.4</v>
+      </c>
+      <c r="N17" s="2">
+        <v>51</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="1"/>
+        <v>49.400000000000006</v>
+      </c>
+      <c r="R17" s="2">
+        <v>484.69</v>
+      </c>
+      <c r="S17" s="2">
+        <v>45.39</v>
+      </c>
+      <c r="T17" s="2">
+        <v>181.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:213" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="1:213" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" ref="D19:N19" si="5">SUM(D15:D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="shared" si="5"/>
+        <v>1165.0999999999999</v>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="5"/>
+        <v>807.97</v>
+      </c>
+      <c r="J19" s="10">
+        <f t="shared" si="5"/>
+        <v>589.9</v>
+      </c>
+      <c r="K19" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="10">
+        <f t="shared" si="5"/>
+        <v>771.5</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="5"/>
+        <v>707.66</v>
+      </c>
+      <c r="N19" s="10">
+        <f>SUM(N15:N17)</f>
+        <v>672.3</v>
+      </c>
+      <c r="O19" s="10">
+        <f>SUM(O15:O17)</f>
+        <v>956.63000000000022</v>
+      </c>
+      <c r="P19" s="10">
+        <f>P15+P16</f>
+        <v>1085</v>
+      </c>
+      <c r="R19" s="10">
+        <f>SUM(R15:R17)</f>
+        <v>7838.9899999999989</v>
+      </c>
+      <c r="S19" s="10">
+        <f>SUM(S15:S17)</f>
+        <v>3194.03</v>
+      </c>
+      <c r="T19" s="10">
+        <f>SUM(T15:T17)</f>
+        <v>3108.09</v>
+      </c>
+      <c r="U19" s="10">
+        <f t="shared" ref="U19:AB19" si="6">SUM(U15:U17)</f>
+        <v>2990.9850000000006</v>
+      </c>
+      <c r="V19" s="10">
+        <f t="shared" si="6"/>
+        <v>3073.5462000000007</v>
+      </c>
+      <c r="W19" s="10">
+        <f t="shared" si="6"/>
+        <v>3175.1903850000008</v>
+      </c>
+      <c r="X19" s="10">
+        <f t="shared" si="6"/>
+        <v>3297.2845102500009</v>
+      </c>
+      <c r="Y19" s="10">
+        <f t="shared" si="6"/>
+        <v>3441.3592936875011</v>
+      </c>
+      <c r="Z19" s="10">
+        <f t="shared" si="6"/>
+        <v>3609.1242388481269</v>
+      </c>
+      <c r="AA19" s="10">
+        <f t="shared" si="6"/>
+        <v>3802.4842277352209</v>
+      </c>
+      <c r="AB19" s="10">
+        <f t="shared" si="6"/>
+        <v>4023.5578372609102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:213" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="4">
+        <v>277.82</v>
+      </c>
+      <c r="I20" s="4">
+        <v>167</v>
+      </c>
+      <c r="J20" s="4">
+        <v>101</v>
+      </c>
+      <c r="L20" s="4">
+        <v>96.36</v>
+      </c>
+      <c r="M20" s="4">
+        <v>108</v>
+      </c>
+      <c r="N20" s="2">
+        <v>90.5</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" ref="O20:O24" si="7">T20-N20-M20-L20</f>
+        <v>125.83999999999999</v>
+      </c>
+      <c r="P20">
+        <f>P19*0.14</f>
+        <v>151.9</v>
+      </c>
+      <c r="R20" s="2">
+        <v>1267.9000000000001</v>
+      </c>
+      <c r="S20" s="2">
+        <v>629.79999999999995</v>
+      </c>
+      <c r="T20" s="2">
+        <v>420.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:213" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="8">
+        <f>H19-H20</f>
+        <v>887.28</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" ref="I21:M21" si="8">I19-I20</f>
+        <v>640.97</v>
+      </c>
+      <c r="J21" s="8">
+        <f t="shared" si="8"/>
+        <v>488.9</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8">
+        <f t="shared" si="8"/>
+        <v>675.14</v>
+      </c>
+      <c r="M21" s="8">
+        <f t="shared" si="8"/>
+        <v>599.66</v>
+      </c>
+      <c r="N21" s="11">
+        <f>N19-N20</f>
+        <v>581.79999999999995</v>
+      </c>
+      <c r="O21" s="11">
+        <f>O19-O20</f>
+        <v>830.79000000000019</v>
+      </c>
+      <c r="P21" s="11">
+        <f>P19-P20</f>
+        <v>933.1</v>
+      </c>
+      <c r="R21" s="11">
+        <f>R19-R20</f>
+        <v>6571.0899999999983</v>
+      </c>
+      <c r="S21" s="11">
+        <f>S19-S20</f>
+        <v>2564.2300000000005</v>
+      </c>
+      <c r="T21" s="11">
+        <f>T19-T20</f>
+        <v>2687.3900000000003</v>
+      </c>
+      <c r="U21" s="7">
+        <f>U19*0.85</f>
+        <v>2542.3372500000005</v>
+      </c>
+      <c r="V21" s="7">
+        <f t="shared" ref="V21:AB21" si="9">V19*0.85</f>
+        <v>2612.5142700000006</v>
+      </c>
+      <c r="W21" s="7">
+        <f t="shared" si="9"/>
+        <v>2698.9118272500004</v>
+      </c>
+      <c r="X21" s="7">
+        <f t="shared" si="9"/>
+        <v>2802.6918337125007</v>
+      </c>
+      <c r="Y21" s="7">
+        <f t="shared" si="9"/>
+        <v>2925.155399634376</v>
+      </c>
+      <c r="Z21" s="7">
+        <f t="shared" si="9"/>
+        <v>3067.755603020908</v>
+      </c>
+      <c r="AA21" s="7">
+        <f t="shared" si="9"/>
+        <v>3232.1115935749376</v>
+      </c>
+      <c r="AB21" s="7">
+        <f t="shared" si="9"/>
+        <v>3420.0241616717735</v>
+      </c>
+    </row>
+    <row r="22" spans="1:213" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="4">
+        <v>570.66</v>
+      </c>
+      <c r="I22" s="4">
+        <v>609</v>
+      </c>
+      <c r="J22" s="4">
+        <v>556</v>
+      </c>
+      <c r="L22" s="4">
+        <v>358.03</v>
+      </c>
+      <c r="M22" s="4">
+        <v>320</v>
+      </c>
+      <c r="N22" s="2">
+        <v>322.7</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="7"/>
+        <v>323.77</v>
+      </c>
+      <c r="P22">
+        <f>625-255</f>
+        <v>370</v>
+      </c>
+      <c r="R22" s="2">
+        <v>1291</v>
+      </c>
+      <c r="S22" s="2">
+        <v>2326.35</v>
+      </c>
+      <c r="T22" s="2">
+        <v>1324.5</v>
+      </c>
+      <c r="U22" s="2">
+        <v>1324.5</v>
+      </c>
+      <c r="V22" s="2">
+        <v>1324.5</v>
+      </c>
+      <c r="W22" s="2">
+        <v>1324.5</v>
+      </c>
+      <c r="X22" s="2">
+        <v>1324.5</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>1324.5</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>1324.5</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>1324.5</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>1324.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:213" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H23" s="4">
         <v>200.2</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I23" s="4">
         <v>140</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J23" s="4">
         <v>75</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L23" s="4">
         <v>63.97</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M23" s="4">
         <v>83</v>
       </c>
-      <c r="N6" s="4">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="N23" s="2">
+        <v>78.17</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="7"/>
+        <v>107.16</v>
+      </c>
+      <c r="P23">
+        <v>90</v>
+      </c>
+      <c r="R23" s="2">
+        <v>663</v>
+      </c>
+      <c r="S23" s="2">
+        <v>510</v>
+      </c>
+      <c r="T23" s="2">
+        <v>332.3</v>
+      </c>
+      <c r="U23" s="2">
+        <v>332.3</v>
+      </c>
+      <c r="V23" s="2">
+        <v>332.3</v>
+      </c>
+      <c r="W23" s="2">
+        <v>332.3</v>
+      </c>
+      <c r="X23" s="2">
+        <v>332.3</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>332.3</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>332.3</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>332.3</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>332.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:213" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H24" s="4">
         <v>413.57799999999997</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I24" s="4">
         <v>470</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J24" s="4">
         <v>339</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L24" s="4">
         <v>248.76</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M24" s="4">
         <v>258</v>
       </c>
-      <c r="N7" s="4">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="N24" s="2">
+        <v>252.63</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="7"/>
+        <v>281.90999999999997</v>
+      </c>
+      <c r="P24">
+        <v>255</v>
+      </c>
+      <c r="R24" s="2">
+        <v>909</v>
+      </c>
+      <c r="S24" s="2">
+        <v>1600.6</v>
+      </c>
+      <c r="T24" s="2">
+        <v>1041.3</v>
+      </c>
+      <c r="U24" s="2">
+        <v>1041.3</v>
+      </c>
+      <c r="V24" s="2">
+        <v>1041.3</v>
+      </c>
+      <c r="W24" s="2">
+        <v>1041.3</v>
+      </c>
+      <c r="X24" s="2">
+        <v>1041.3</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>1041.3</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>1041.3</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>1041.3</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>1041.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:213" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="4">
-        <f>SUM(H3:H7)</f>
-        <v>2350.8680000000004</v>
-      </c>
-      <c r="I8" s="4">
-        <f>SUM(I3:I7)</f>
-        <v>2027</v>
-      </c>
-      <c r="J8" s="4">
-        <f>SUM(J3:J7)</f>
-        <v>1560</v>
-      </c>
-      <c r="L8" s="4">
-        <f>SUM(L3:L7)</f>
-        <v>1443.25</v>
-      </c>
-      <c r="M8" s="4">
-        <f>SUM(M3:M7)</f>
-        <v>1368</v>
-      </c>
-      <c r="N8" s="4">
-        <f>SUM(N3:N7)</f>
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="H25" s="4">
+        <f>SUM(H20:H24)</f>
+        <v>2349.5379999999996</v>
+      </c>
+      <c r="I25" s="4">
+        <f>SUM(I20:I24)</f>
+        <v>2026.97</v>
+      </c>
+      <c r="J25" s="4">
+        <f>SUM(J20:J24)</f>
+        <v>1559.9</v>
+      </c>
+      <c r="L25" s="4">
+        <f>SUM(L20:L24)</f>
+        <v>1442.26</v>
+      </c>
+      <c r="M25" s="4">
+        <f>SUM(M20:M24)</f>
+        <v>1368.6599999999999</v>
+      </c>
+      <c r="N25" s="2">
+        <f>SUM(N22:N24)</f>
+        <v>653.5</v>
+      </c>
+      <c r="O25" s="2">
+        <f>SUM(O22:O24)</f>
+        <v>712.83999999999992</v>
+      </c>
+      <c r="P25" s="2">
+        <f>SUM(P22:P24)</f>
+        <v>715</v>
+      </c>
+      <c r="R25" s="2">
+        <f>SUM(R22:R24)</f>
+        <v>2863</v>
+      </c>
+      <c r="S25" s="2">
+        <f>SUM(S22:S24)</f>
+        <v>4436.95</v>
+      </c>
+      <c r="T25" s="2">
+        <f>SUM(T22:T24)</f>
+        <v>2698.1</v>
+      </c>
+      <c r="U25" s="2">
+        <f t="shared" ref="U25:AB25" si="10">SUM(U22:U24)</f>
+        <v>2698.1</v>
+      </c>
+      <c r="V25" s="2">
+        <f t="shared" si="10"/>
+        <v>2698.1</v>
+      </c>
+      <c r="W25" s="2">
+        <f t="shared" si="10"/>
+        <v>2698.1</v>
+      </c>
+      <c r="X25" s="2">
+        <f t="shared" si="10"/>
+        <v>2698.1</v>
+      </c>
+      <c r="Y25" s="2">
+        <f t="shared" si="10"/>
+        <v>2698.1</v>
+      </c>
+      <c r="Z25" s="2">
+        <f t="shared" si="10"/>
+        <v>2698.1</v>
+      </c>
+      <c r="AA25" s="2">
+        <f t="shared" si="10"/>
+        <v>2698.1</v>
+      </c>
+      <c r="AB25" s="2">
+        <f t="shared" si="10"/>
+        <v>2698.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:213" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="4">
-        <f>H2-H8</f>
-        <v>-1184.4380000000003</v>
-      </c>
-      <c r="I9" s="4">
-        <f>I2-I8</f>
+      <c r="H26" s="9">
+        <f>H19-H25</f>
+        <v>-1184.4379999999996</v>
+      </c>
+      <c r="I26" s="9">
+        <f>I19-I25</f>
         <v>-1219</v>
       </c>
-      <c r="J9" s="4">
-        <f>J2-J8</f>
-        <v>-970</v>
-      </c>
-      <c r="L9" s="4">
-        <f>L2-L8</f>
+      <c r="J26" s="9">
+        <f>J19-J25</f>
+        <v>-970.00000000000011</v>
+      </c>
+      <c r="L26" s="9">
+        <f>L19-L25</f>
         <v>-670.76</v>
       </c>
-      <c r="M9" s="4">
-        <f>M2-M8</f>
-        <v>-661</v>
-      </c>
-      <c r="N9" s="4">
-        <f>N2-N8</f>
-        <v>-652</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="M26" s="9">
+        <f>M19-M25</f>
+        <v>-660.99999999999989</v>
+      </c>
+      <c r="N26" s="10">
+        <f>N21-N25</f>
+        <v>-71.700000000000045</v>
+      </c>
+      <c r="O26" s="10">
+        <f>O21-O25</f>
+        <v>117.95000000000027</v>
+      </c>
+      <c r="P26" s="10">
+        <f>P21-P25</f>
+        <v>218.10000000000002</v>
+      </c>
+      <c r="R26" s="10">
+        <f>R21-R25</f>
+        <v>3708.0899999999983</v>
+      </c>
+      <c r="S26" s="10">
+        <f>S21-S25</f>
+        <v>-1872.7199999999993</v>
+      </c>
+      <c r="T26" s="10">
+        <f>T21-T25</f>
+        <v>-10.709999999999582</v>
+      </c>
+      <c r="U26" s="10">
+        <f>U21*0.2</f>
+        <v>508.4674500000001</v>
+      </c>
+      <c r="V26" s="10">
+        <f t="shared" ref="V26:AB26" si="11">V21*0.2</f>
+        <v>522.50285400000018</v>
+      </c>
+      <c r="W26" s="10">
+        <f t="shared" si="11"/>
+        <v>539.78236545000016</v>
+      </c>
+      <c r="X26" s="10">
+        <f t="shared" si="11"/>
+        <v>560.53836674250022</v>
+      </c>
+      <c r="Y26" s="10">
+        <f t="shared" si="11"/>
+        <v>585.03107992687524</v>
+      </c>
+      <c r="Z26" s="10">
+        <f t="shared" si="11"/>
+        <v>613.55112060418162</v>
+      </c>
+      <c r="AA26" s="10">
+        <f t="shared" si="11"/>
+        <v>646.42231871498757</v>
+      </c>
+      <c r="AB26" s="10">
+        <f t="shared" si="11"/>
+        <v>684.00483233435477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:213" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="4">
-        <v>20</v>
-      </c>
-      <c r="I10" s="4">
-        <f>23+172</f>
-        <v>195</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="H27" s="4">
+        <v>22</v>
+      </c>
+      <c r="I27" s="4">
+        <v>23.6</v>
+      </c>
+      <c r="J27" s="4">
         <v>21</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L27" s="4">
         <v>21</v>
       </c>
-      <c r="M10" s="4">
-        <f>21-16</f>
-        <v>5</v>
-      </c>
-      <c r="N10" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="M27" s="4">
+        <v>21.6</v>
+      </c>
+      <c r="N27" s="10">
+        <v>20.8</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" ref="O27:O30" si="12">T27-N27-M27-L27</f>
+        <v>19.300000000000004</v>
+      </c>
+      <c r="R27" s="10">
+        <v>29.1</v>
+      </c>
+      <c r="S27" s="10">
+        <v>88.9</v>
+      </c>
+      <c r="T27" s="10">
+        <v>82.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:213" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="4">
+        <v>-32</v>
+      </c>
+      <c r="I28" s="4">
+        <v>-172</v>
+      </c>
+      <c r="J28" s="4">
+        <v>-65.599999999999994</v>
+      </c>
+      <c r="L28" s="4">
+        <v>-20</v>
+      </c>
+      <c r="M28" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="N28" s="10">
+        <v>135</v>
+      </c>
+      <c r="O28" s="2">
+        <f t="shared" si="12"/>
+        <v>36</v>
+      </c>
+      <c r="R28" s="10">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="S28" s="10">
+        <v>-265.39999999999998</v>
+      </c>
+      <c r="T28" s="10">
+        <v>167.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:213" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="4">
-        <f>H9-H10</f>
-        <v>-1204.4380000000003</v>
-      </c>
-      <c r="I11" s="4">
-        <f>I9-I10</f>
-        <v>-1414</v>
-      </c>
-      <c r="J11" s="4">
-        <f>J9-J10</f>
-        <v>-991</v>
-      </c>
-      <c r="L11" s="4">
-        <f>L9-L10</f>
-        <v>-691.76</v>
-      </c>
-      <c r="M11" s="4">
-        <f>M9-M10</f>
-        <v>-666</v>
-      </c>
-      <c r="N11" s="4">
-        <f>N9-N10</f>
-        <v>-672</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="D29" s="2">
+        <f t="shared" ref="D29:M29" si="13">D26-D27+D28</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="13"/>
+        <v>-1238.4379999999996</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="13"/>
+        <v>-1414.6</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="13"/>
+        <v>-1056.6000000000001</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="13"/>
+        <v>-711.76</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="13"/>
+        <v>-666.09999999999991</v>
+      </c>
+      <c r="N29" s="2">
+        <f>N26-N27+N28</f>
+        <v>42.499999999999957</v>
+      </c>
+      <c r="O29" s="2">
+        <f>O26-O27+O28</f>
+        <v>134.65000000000026</v>
+      </c>
+      <c r="R29" s="2">
+        <f>R26-R27+R28</f>
+        <v>3658.5899999999983</v>
+      </c>
+      <c r="S29" s="2">
+        <f>S26-S27+S28</f>
+        <v>-2227.0199999999995</v>
+      </c>
+      <c r="T29" s="2">
+        <f>T26-T27+T28</f>
+        <v>74.090000000000416</v>
+      </c>
+      <c r="U29" s="2">
+        <f t="shared" ref="U29:AB29" si="14">U26-U27+U28</f>
+        <v>508.4674500000001</v>
+      </c>
+      <c r="V29" s="2">
+        <f t="shared" si="14"/>
+        <v>522.50285400000018</v>
+      </c>
+      <c r="W29" s="2">
+        <f t="shared" si="14"/>
+        <v>539.78236545000016</v>
+      </c>
+      <c r="X29" s="2">
+        <f t="shared" si="14"/>
+        <v>560.53836674250022</v>
+      </c>
+      <c r="Y29" s="2">
+        <f t="shared" si="14"/>
+        <v>585.03107992687524</v>
+      </c>
+      <c r="Z29" s="2">
+        <f t="shared" si="14"/>
+        <v>613.55112060418162</v>
+      </c>
+      <c r="AA29" s="2">
+        <f t="shared" si="14"/>
+        <v>646.42231871498757</v>
+      </c>
+      <c r="AB29" s="2">
+        <f t="shared" si="14"/>
+        <v>684.00483233435477</v>
+      </c>
+    </row>
+    <row r="30" spans="1:213" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H30" s="4">
         <v>-180</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I30" s="4">
         <v>-146</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J30" s="4">
         <v>-99</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L30" s="4">
         <v>-86.78</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M30" s="4">
         <v>18</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N30" s="2">
+        <v>36.9</v>
+      </c>
+      <c r="O30" s="2">
+        <f t="shared" si="12"/>
+        <v>-139.82</v>
+      </c>
+      <c r="R30" s="2">
+        <v>-597</v>
+      </c>
+      <c r="S30" s="2">
+        <v>-439.6</v>
+      </c>
+      <c r="T30" s="2">
+        <v>-171.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:213" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="8">
+        <f>H29-H30</f>
+        <v>-1058.4379999999996</v>
+      </c>
+      <c r="I31" s="8">
+        <f>I29-I30</f>
+        <v>-1268.5999999999999</v>
+      </c>
+      <c r="J31" s="8">
+        <f>J29-J30</f>
+        <v>-957.60000000000014</v>
+      </c>
+      <c r="L31" s="8">
+        <f>L29-L30</f>
+        <v>-624.98</v>
+      </c>
+      <c r="M31" s="8">
+        <f>M29-M30</f>
+        <v>-684.09999999999991</v>
+      </c>
+      <c r="N31" s="11">
+        <f>N29-N30</f>
+        <v>5.5999999999999588</v>
+      </c>
+      <c r="O31" s="11">
+        <f>O29-O30</f>
+        <v>274.47000000000025</v>
+      </c>
+      <c r="R31" s="11">
+        <f>R29-R30</f>
+        <v>4255.5899999999983</v>
+      </c>
+      <c r="S31" s="11">
+        <f>S29-S30</f>
+        <v>-1787.4199999999996</v>
+      </c>
+      <c r="T31" s="11">
+        <f>T29-T30</f>
+        <v>245.79000000000042</v>
+      </c>
+      <c r="U31" s="11">
+        <f t="shared" ref="U31:AB31" si="15">U29-U30</f>
+        <v>508.4674500000001</v>
+      </c>
+      <c r="V31" s="11">
+        <f t="shared" si="15"/>
+        <v>522.50285400000018</v>
+      </c>
+      <c r="W31" s="11">
+        <f t="shared" si="15"/>
+        <v>539.78236545000016</v>
+      </c>
+      <c r="X31" s="11">
+        <f t="shared" si="15"/>
+        <v>560.53836674250022</v>
+      </c>
+      <c r="Y31" s="11">
+        <f t="shared" si="15"/>
+        <v>585.03107992687524</v>
+      </c>
+      <c r="Z31" s="11">
+        <f t="shared" si="15"/>
+        <v>613.55112060418162</v>
+      </c>
+      <c r="AA31" s="11">
+        <f t="shared" si="15"/>
+        <v>646.42231871498757</v>
+      </c>
+      <c r="AB31" s="11">
+        <f t="shared" si="15"/>
+        <v>684.00483233435477</v>
+      </c>
+      <c r="AC31" s="7">
+        <f>AB31*(1+$AE$35)</f>
+        <v>677.16478401101119</v>
+      </c>
+      <c r="AD31" s="7">
+        <f>AC31*(1+$AE$35)</f>
+        <v>670.39313617090113</v>
+      </c>
+      <c r="AE31" s="7">
+        <f t="shared" ref="AE31:CP31" si="16">AD31*(1+$AE$35)</f>
+        <v>663.68920480919212</v>
+      </c>
+      <c r="AF31" s="7">
+        <f t="shared" si="16"/>
+        <v>657.05231276110021</v>
+      </c>
+      <c r="AG31" s="7">
+        <f t="shared" si="16"/>
+        <v>650.48178963348926</v>
+      </c>
+      <c r="AH31" s="7">
+        <f t="shared" si="16"/>
+        <v>643.97697173715437</v>
+      </c>
+      <c r="AI31" s="7">
+        <f t="shared" si="16"/>
+        <v>637.53720201978285</v>
+      </c>
+      <c r="AJ31" s="7">
+        <f t="shared" si="16"/>
+        <v>631.16182999958505</v>
+      </c>
+      <c r="AK31" s="7">
+        <f t="shared" si="16"/>
+        <v>624.85021169958918</v>
+      </c>
+      <c r="AL31" s="7">
+        <f t="shared" si="16"/>
+        <v>618.60170958259323</v>
+      </c>
+      <c r="AM31" s="7">
+        <f t="shared" si="16"/>
+        <v>612.41569248676728</v>
+      </c>
+      <c r="AN31" s="7">
+        <f t="shared" si="16"/>
+        <v>606.29153556189965</v>
+      </c>
+      <c r="AO31" s="7">
+        <f t="shared" si="16"/>
+        <v>600.22862020628065</v>
+      </c>
+      <c r="AP31" s="7">
+        <f t="shared" si="16"/>
+        <v>594.22633400421785</v>
+      </c>
+      <c r="AQ31" s="7">
+        <f t="shared" si="16"/>
+        <v>588.28407066417572</v>
+      </c>
+      <c r="AR31" s="7">
+        <f t="shared" si="16"/>
+        <v>582.40122995753393</v>
+      </c>
+      <c r="AS31" s="7">
+        <f t="shared" si="16"/>
+        <v>576.57721765795861</v>
+      </c>
+      <c r="AT31" s="7">
+        <f t="shared" si="16"/>
+        <v>570.811445481379</v>
+      </c>
+      <c r="AU31" s="7">
+        <f t="shared" si="16"/>
+        <v>565.10333102656523</v>
+      </c>
+      <c r="AV31" s="7">
+        <f t="shared" si="16"/>
+        <v>559.45229771629954</v>
+      </c>
+      <c r="AW31" s="7">
+        <f t="shared" si="16"/>
+        <v>553.85777473913652</v>
+      </c>
+      <c r="AX31" s="7">
+        <f t="shared" si="16"/>
+        <v>548.31919699174512</v>
+      </c>
+      <c r="AY31" s="7">
+        <f t="shared" si="16"/>
+        <v>542.83600502182765</v>
+      </c>
+      <c r="AZ31" s="7">
+        <f t="shared" si="16"/>
+        <v>537.40764497160933</v>
+      </c>
+      <c r="BA31" s="7">
+        <f t="shared" si="16"/>
+        <v>532.03356852189324</v>
+      </c>
+      <c r="BB31" s="7">
+        <f t="shared" si="16"/>
+        <v>526.71323283667425</v>
+      </c>
+      <c r="BC31" s="7">
+        <f t="shared" si="16"/>
+        <v>521.4461005083075</v>
+      </c>
+      <c r="BD31" s="7">
+        <f t="shared" si="16"/>
+        <v>516.23163950322441</v>
+      </c>
+      <c r="BE31" s="7">
+        <f t="shared" si="16"/>
+        <v>511.06932310819218</v>
+      </c>
+      <c r="BF31" s="7">
+        <f t="shared" si="16"/>
+        <v>505.95862987711024</v>
+      </c>
+      <c r="BG31" s="7">
+        <f t="shared" si="16"/>
+        <v>500.89904357833916</v>
+      </c>
+      <c r="BH31" s="7">
+        <f t="shared" si="16"/>
+        <v>495.89005314255576</v>
+      </c>
+      <c r="BI31" s="7">
+        <f t="shared" si="16"/>
+        <v>490.93115261113019</v>
+      </c>
+      <c r="BJ31" s="7">
+        <f t="shared" si="16"/>
+        <v>486.02184108501888</v>
+      </c>
+      <c r="BK31" s="7">
+        <f t="shared" si="16"/>
+        <v>481.16162267416871</v>
+      </c>
+      <c r="BL31" s="7">
+        <f t="shared" si="16"/>
+        <v>476.35000644742701</v>
+      </c>
+      <c r="BM31" s="7">
+        <f t="shared" si="16"/>
+        <v>471.58650638295273</v>
+      </c>
+      <c r="BN31" s="7">
+        <f t="shared" si="16"/>
+        <v>466.87064131912319</v>
+      </c>
+      <c r="BO31" s="7">
+        <f t="shared" si="16"/>
+        <v>462.20193490593198</v>
+      </c>
+      <c r="BP31" s="7">
+        <f t="shared" si="16"/>
+        <v>457.57991555687266</v>
+      </c>
+      <c r="BQ31" s="7">
+        <f t="shared" si="16"/>
+        <v>453.00411640130392</v>
+      </c>
+      <c r="BR31" s="7">
+        <f t="shared" si="16"/>
+        <v>448.47407523729089</v>
+      </c>
+      <c r="BS31" s="7">
+        <f t="shared" si="16"/>
+        <v>443.989334484918</v>
+      </c>
+      <c r="BT31" s="7">
+        <f t="shared" si="16"/>
+        <v>439.54944114006884</v>
+      </c>
+      <c r="BU31" s="7">
+        <f t="shared" si="16"/>
+        <v>435.15394672866813</v>
+      </c>
+      <c r="BV31" s="7">
+        <f t="shared" si="16"/>
+        <v>430.80240726138146</v>
+      </c>
+      <c r="BW31" s="7">
+        <f t="shared" si="16"/>
+        <v>426.49438318876764</v>
+      </c>
+      <c r="BX31" s="7">
+        <f t="shared" si="16"/>
+        <v>422.22943935687994</v>
+      </c>
+      <c r="BY31" s="7">
+        <f t="shared" si="16"/>
+        <v>418.00714496331113</v>
+      </c>
+      <c r="BZ31" s="7">
+        <f t="shared" si="16"/>
+        <v>413.82707351367804</v>
+      </c>
+      <c r="CA31" s="7">
+        <f t="shared" si="16"/>
+        <v>409.68880277854129</v>
+      </c>
+      <c r="CB31" s="7">
+        <f t="shared" si="16"/>
+        <v>405.59191475075585</v>
+      </c>
+      <c r="CC31" s="7">
+        <f t="shared" si="16"/>
+        <v>401.5359956032483</v>
+      </c>
+      <c r="CD31" s="7">
+        <f t="shared" si="16"/>
+        <v>397.52063564721578</v>
+      </c>
+      <c r="CE31" s="7">
+        <f t="shared" si="16"/>
+        <v>393.54542929074364</v>
+      </c>
+      <c r="CF31" s="7">
+        <f t="shared" si="16"/>
+        <v>389.60997499783622</v>
+      </c>
+      <c r="CG31" s="7">
+        <f t="shared" si="16"/>
+        <v>385.71387524785786</v>
+      </c>
+      <c r="CH31" s="7">
+        <f t="shared" si="16"/>
+        <v>381.85673649537927</v>
+      </c>
+      <c r="CI31" s="7">
+        <f t="shared" si="16"/>
+        <v>378.03816913042544</v>
+      </c>
+      <c r="CJ31" s="7">
+        <f t="shared" si="16"/>
+        <v>374.25778743912116</v>
+      </c>
+      <c r="CK31" s="7">
+        <f t="shared" si="16"/>
+        <v>370.51520956472996</v>
+      </c>
+      <c r="CL31" s="7">
+        <f t="shared" si="16"/>
+        <v>366.81005746908266</v>
+      </c>
+      <c r="CM31" s="7">
+        <f t="shared" si="16"/>
+        <v>363.14195689439185</v>
+      </c>
+      <c r="CN31" s="7">
+        <f t="shared" si="16"/>
+        <v>359.51053732544796</v>
+      </c>
+      <c r="CO31" s="7">
+        <f t="shared" si="16"/>
+        <v>355.9154319521935</v>
+      </c>
+      <c r="CP31" s="7">
+        <f t="shared" si="16"/>
+        <v>352.35627763267155</v>
+      </c>
+      <c r="CQ31" s="7">
+        <f t="shared" ref="CQ31:FB31" si="17">CP31*(1+$AE$35)</f>
+        <v>348.83271485634481</v>
+      </c>
+      <c r="CR31" s="7">
+        <f t="shared" si="17"/>
+        <v>345.34438770778138</v>
+      </c>
+      <c r="CS31" s="7">
+        <f t="shared" si="17"/>
+        <v>341.89094383070358</v>
+      </c>
+      <c r="CT31" s="7">
+        <f t="shared" si="17"/>
+        <v>338.47203439239655</v>
+      </c>
+      <c r="CU31" s="7">
+        <f t="shared" si="17"/>
+        <v>335.08731404847259</v>
+      </c>
+      <c r="CV31" s="7">
+        <f t="shared" si="17"/>
+        <v>331.73644090798786</v>
+      </c>
+      <c r="CW31" s="7">
+        <f t="shared" si="17"/>
+        <v>328.419076498908</v>
+      </c>
+      <c r="CX31" s="7">
+        <f t="shared" si="17"/>
+        <v>325.13488573391891</v>
+      </c>
+      <c r="CY31" s="7">
+        <f t="shared" si="17"/>
+        <v>321.88353687657974</v>
+      </c>
+      <c r="CZ31" s="7">
+        <f t="shared" si="17"/>
+        <v>318.66470150781396</v>
+      </c>
+      <c r="DA31" s="7">
+        <f t="shared" si="17"/>
+        <v>315.47805449273579</v>
+      </c>
+      <c r="DB31" s="7">
+        <f t="shared" si="17"/>
+        <v>312.32327394780845</v>
+      </c>
+      <c r="DC31" s="7">
+        <f t="shared" si="17"/>
+        <v>309.20004120833033</v>
+      </c>
+      <c r="DD31" s="7">
+        <f t="shared" si="17"/>
+        <v>306.10804079624705</v>
+      </c>
+      <c r="DE31" s="7">
+        <f t="shared" si="17"/>
+        <v>303.04696038828456</v>
+      </c>
+      <c r="DF31" s="7">
+        <f t="shared" si="17"/>
+        <v>300.0164907844017</v>
+      </c>
+      <c r="DG31" s="7">
+        <f t="shared" si="17"/>
+        <v>297.01632587655769</v>
+      </c>
+      <c r="DH31" s="7">
+        <f t="shared" si="17"/>
+        <v>294.04616261779211</v>
+      </c>
+      <c r="DI31" s="7">
+        <f t="shared" si="17"/>
+        <v>291.10570099161419</v>
+      </c>
+      <c r="DJ31" s="7">
+        <f t="shared" si="17"/>
+        <v>288.19464398169805</v>
+      </c>
+      <c r="DK31" s="7">
+        <f t="shared" si="17"/>
+        <v>285.31269754188105</v>
+      </c>
+      <c r="DL31" s="7">
+        <f t="shared" si="17"/>
+        <v>282.45957056646222</v>
+      </c>
+      <c r="DM31" s="7">
+        <f t="shared" si="17"/>
+        <v>279.63497486079757</v>
+      </c>
+      <c r="DN31" s="7">
+        <f t="shared" si="17"/>
+        <v>276.83862511218962</v>
+      </c>
+      <c r="DO31" s="7">
+        <f t="shared" si="17"/>
+        <v>274.07023886106771</v>
+      </c>
+      <c r="DP31" s="7">
+        <f t="shared" si="17"/>
+        <v>271.32953647245705</v>
+      </c>
+      <c r="DQ31" s="7">
+        <f t="shared" si="17"/>
+        <v>268.61624110773249</v>
+      </c>
+      <c r="DR31" s="7">
+        <f t="shared" si="17"/>
+        <v>265.93007869665519</v>
+      </c>
+      <c r="DS31" s="7">
+        <f t="shared" si="17"/>
+        <v>263.2707779096886</v>
+      </c>
+      <c r="DT31" s="7">
+        <f t="shared" si="17"/>
+        <v>260.6380701305917</v>
+      </c>
+      <c r="DU31" s="7">
+        <f t="shared" si="17"/>
+        <v>258.03168942928579</v>
+      </c>
+      <c r="DV31" s="7">
+        <f t="shared" si="17"/>
+        <v>255.45137253499294</v>
+      </c>
+      <c r="DW31" s="7">
+        <f t="shared" si="17"/>
+        <v>252.89685880964302</v>
+      </c>
+      <c r="DX31" s="7">
+        <f t="shared" si="17"/>
+        <v>250.36789022154659</v>
+      </c>
+      <c r="DY31" s="7">
+        <f t="shared" si="17"/>
+        <v>247.86421131933113</v>
+      </c>
+      <c r="DZ31" s="7">
+        <f t="shared" si="17"/>
+        <v>245.38556920613783</v>
+      </c>
+      <c r="EA31" s="7">
+        <f t="shared" si="17"/>
+        <v>242.93171351407645</v>
+      </c>
+      <c r="EB31" s="7">
+        <f t="shared" si="17"/>
+        <v>240.50239637893569</v>
+      </c>
+      <c r="EC31" s="7">
+        <f t="shared" si="17"/>
+        <v>238.09737241514634</v>
+      </c>
+      <c r="ED31" s="7">
+        <f t="shared" si="17"/>
+        <v>235.71639869099488</v>
+      </c>
+      <c r="EE31" s="7">
+        <f t="shared" si="17"/>
+        <v>233.35923470408494</v>
+      </c>
+      <c r="EF31" s="7">
+        <f t="shared" si="17"/>
+        <v>231.02564235704409</v>
+      </c>
+      <c r="EG31" s="7">
+        <f t="shared" si="17"/>
+        <v>228.71538593347364</v>
+      </c>
+      <c r="EH31" s="7">
+        <f t="shared" si="17"/>
+        <v>226.42823207413889</v>
+      </c>
+      <c r="EI31" s="7">
+        <f t="shared" si="17"/>
+        <v>224.1639497533975</v>
+      </c>
+      <c r="EJ31" s="7">
+        <f t="shared" si="17"/>
+        <v>221.92231025586352</v>
+      </c>
+      <c r="EK31" s="7">
+        <f t="shared" si="17"/>
+        <v>219.70308715330489</v>
+      </c>
+      <c r="EL31" s="7">
+        <f t="shared" si="17"/>
+        <v>217.50605628177183</v>
+      </c>
+      <c r="EM31" s="7">
+        <f t="shared" si="17"/>
+        <v>215.33099571895411</v>
+      </c>
+      <c r="EN31" s="7">
+        <f t="shared" si="17"/>
+        <v>213.17768576176456</v>
+      </c>
+      <c r="EO31" s="7">
+        <f t="shared" si="17"/>
+        <v>211.04590890414693</v>
+      </c>
+      <c r="EP31" s="7">
+        <f t="shared" si="17"/>
+        <v>208.93544981510544</v>
+      </c>
+      <c r="EQ31" s="7">
+        <f t="shared" si="17"/>
+        <v>206.84609531695438</v>
+      </c>
+      <c r="ER31" s="7">
+        <f t="shared" si="17"/>
+        <v>204.77763436378484</v>
+      </c>
+      <c r="ES31" s="7">
+        <f t="shared" si="17"/>
+        <v>202.72985802014699</v>
+      </c>
+      <c r="ET31" s="7">
+        <f t="shared" si="17"/>
+        <v>200.70255943994553</v>
+      </c>
+      <c r="EU31" s="7">
+        <f t="shared" si="17"/>
+        <v>198.69553384554607</v>
+      </c>
+      <c r="EV31" s="7">
+        <f t="shared" si="17"/>
+        <v>196.70857850709061</v>
+      </c>
+      <c r="EW31" s="7">
+        <f t="shared" si="17"/>
+        <v>194.7414927220197</v>
+      </c>
+      <c r="EX31" s="7">
+        <f t="shared" si="17"/>
+        <v>192.79407779479951</v>
+      </c>
+      <c r="EY31" s="7">
+        <f t="shared" si="17"/>
+        <v>190.8661370168515</v>
+      </c>
+      <c r="EZ31" s="7">
+        <f t="shared" si="17"/>
+        <v>188.95747564668298</v>
+      </c>
+      <c r="FA31" s="7">
+        <f t="shared" si="17"/>
+        <v>187.06790089021615</v>
+      </c>
+      <c r="FB31" s="7">
+        <f t="shared" si="17"/>
+        <v>185.19722188131399</v>
+      </c>
+      <c r="FC31" s="7">
+        <f t="shared" ref="FC31:HE31" si="18">FB31*(1+$AE$35)</f>
+        <v>183.34524966250086</v>
+      </c>
+      <c r="FD31" s="7">
+        <f t="shared" si="18"/>
+        <v>181.51179716587586</v>
+      </c>
+      <c r="FE31" s="7">
+        <f t="shared" si="18"/>
+        <v>179.6966791942171</v>
+      </c>
+      <c r="FF31" s="7">
+        <f t="shared" si="18"/>
+        <v>177.89971240227493</v>
+      </c>
+      <c r="FG31" s="7">
+        <f t="shared" si="18"/>
+        <v>176.12071527825219</v>
+      </c>
+      <c r="FH31" s="7">
+        <f t="shared" si="18"/>
+        <v>174.35950812546966</v>
+      </c>
+      <c r="FI31" s="7">
+        <f t="shared" si="18"/>
+        <v>172.61591304421495</v>
+      </c>
+      <c r="FJ31" s="7">
+        <f t="shared" si="18"/>
+        <v>170.88975391377281</v>
+      </c>
+      <c r="FK31" s="7">
+        <f t="shared" si="18"/>
+        <v>169.18085637463508</v>
+      </c>
+      <c r="FL31" s="7">
+        <f t="shared" si="18"/>
+        <v>167.48904781088874</v>
+      </c>
+      <c r="FM31" s="7">
+        <f t="shared" si="18"/>
+        <v>165.81415733277984</v>
+      </c>
+      <c r="FN31" s="7">
+        <f t="shared" si="18"/>
+        <v>164.15601575945203</v>
+      </c>
+      <c r="FO31" s="7">
+        <f t="shared" si="18"/>
+        <v>162.51445560185752</v>
+      </c>
+      <c r="FP31" s="7">
+        <f t="shared" si="18"/>
+        <v>160.88931104583895</v>
+      </c>
+      <c r="FQ31" s="7">
+        <f t="shared" si="18"/>
+        <v>159.28041793538057</v>
+      </c>
+      <c r="FR31" s="7">
+        <f t="shared" si="18"/>
+        <v>157.68761375602676</v>
+      </c>
+      <c r="FS31" s="7">
+        <f t="shared" si="18"/>
+        <v>156.11073761846649</v>
+      </c>
+      <c r="FT31" s="7">
+        <f t="shared" si="18"/>
+        <v>154.54963024228181</v>
+      </c>
+      <c r="FU31" s="7">
+        <f t="shared" si="18"/>
+        <v>153.00413393985897</v>
+      </c>
+      <c r="FV31" s="7">
+        <f t="shared" si="18"/>
+        <v>151.47409260046038</v>
+      </c>
+      <c r="FW31" s="7">
+        <f t="shared" si="18"/>
+        <v>149.95935167445577</v>
+      </c>
+      <c r="FX31" s="7">
+        <f t="shared" si="18"/>
+        <v>148.45975815771121</v>
+      </c>
+      <c r="FY31" s="7">
+        <f t="shared" si="18"/>
+        <v>146.9751605761341</v>
+      </c>
+      <c r="FZ31" s="7">
+        <f t="shared" si="18"/>
+        <v>145.50540897037277</v>
+      </c>
+      <c r="GA31" s="7">
+        <f t="shared" si="18"/>
+        <v>144.05035488066903</v>
+      </c>
+      <c r="GB31" s="7">
+        <f t="shared" si="18"/>
+        <v>142.60985133186233</v>
+      </c>
+      <c r="GC31" s="7">
+        <f t="shared" si="18"/>
+        <v>141.1837528185437</v>
+      </c>
+      <c r="GD31" s="7">
+        <f t="shared" si="18"/>
+        <v>139.77191529035827</v>
+      </c>
+      <c r="GE31" s="7">
+        <f t="shared" si="18"/>
+        <v>138.37419613745467</v>
+      </c>
+      <c r="GF31" s="7">
+        <f t="shared" si="18"/>
+        <v>136.99045417608014</v>
+      </c>
+      <c r="GG31" s="7">
+        <f t="shared" si="18"/>
+        <v>135.62054963431933</v>
+      </c>
+      <c r="GH31" s="7">
+        <f t="shared" si="18"/>
+        <v>134.26434413797614</v>
+      </c>
+      <c r="GI31" s="7">
+        <f t="shared" si="18"/>
+        <v>132.92170069659639</v>
+      </c>
+      <c r="GJ31" s="7">
+        <f t="shared" si="18"/>
+        <v>131.59248368963043</v>
+      </c>
+      <c r="GK31" s="7">
+        <f t="shared" si="18"/>
+        <v>130.27655885273413</v>
+      </c>
+      <c r="GL31" s="7">
+        <f t="shared" si="18"/>
+        <v>128.97379326420679</v>
+      </c>
+      <c r="GM31" s="7">
+        <f t="shared" si="18"/>
+        <v>127.68405533156472</v>
+      </c>
+      <c r="GN31" s="7">
+        <f t="shared" si="18"/>
+        <v>126.40721477824907</v>
+      </c>
+      <c r="GO31" s="7">
+        <f t="shared" si="18"/>
+        <v>125.14314263046658</v>
+      </c>
+      <c r="GP31" s="7">
+        <f t="shared" si="18"/>
+        <v>123.89171120416192</v>
+      </c>
+      <c r="GQ31" s="7">
+        <f t="shared" si="18"/>
+        <v>122.6527940921203</v>
+      </c>
+      <c r="GR31" s="7">
+        <f t="shared" si="18"/>
+        <v>121.4262661511991</v>
+      </c>
+      <c r="GS31" s="7">
+        <f t="shared" si="18"/>
+        <v>120.21200348968711</v>
+      </c>
+      <c r="GT31" s="7">
+        <f t="shared" si="18"/>
+        <v>119.00988345479023</v>
+      </c>
+      <c r="GU31" s="7">
+        <f t="shared" si="18"/>
+        <v>117.81978462024233</v>
+      </c>
+      <c r="GV31" s="7">
+        <f t="shared" si="18"/>
+        <v>116.64158677403991</v>
+      </c>
+      <c r="GW31" s="7">
+        <f t="shared" si="18"/>
+        <v>115.47517090629951</v>
+      </c>
+      <c r="GX31" s="7">
+        <f t="shared" si="18"/>
+        <v>114.32041919723652</v>
+      </c>
+      <c r="GY31" s="7">
+        <f t="shared" si="18"/>
+        <v>113.17721500526415</v>
+      </c>
+      <c r="GZ31" s="7">
+        <f t="shared" si="18"/>
+        <v>112.0454428552115</v>
+      </c>
+      <c r="HA31" s="7">
+        <f t="shared" si="18"/>
+        <v>110.92498842665938</v>
+      </c>
+      <c r="HB31" s="7">
+        <f t="shared" si="18"/>
+        <v>109.81573854239279</v>
+      </c>
+      <c r="HC31" s="7">
+        <f t="shared" si="18"/>
+        <v>108.71758115696886</v>
+      </c>
+      <c r="HD31" s="7">
+        <f t="shared" si="18"/>
+        <v>107.63040534539917</v>
+      </c>
+      <c r="HE31" s="7">
+        <f t="shared" si="18"/>
+        <v>106.55410129194517</v>
+      </c>
+    </row>
+    <row r="32" spans="1:213" x14ac:dyDescent="0.2">
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="4">
+        <v>231.48</v>
+      </c>
+      <c r="I33" s="4">
+        <v>221</v>
+      </c>
+      <c r="J33" s="4">
+        <v>223</v>
+      </c>
+      <c r="L33" s="4">
+        <v>231.48</v>
+      </c>
+      <c r="M33" s="4">
+        <v>234</v>
+      </c>
+      <c r="N33" s="4">
+        <v>237</v>
+      </c>
+      <c r="O33" s="4">
+        <v>242.2</v>
+      </c>
+      <c r="R33">
+        <v>242.2</v>
+      </c>
+      <c r="S33">
+        <v>242.2</v>
+      </c>
+      <c r="T33">
+        <v>242.2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="3">
+        <f>H31/H33</f>
+        <v>-4.5724814238811113</v>
+      </c>
+      <c r="I34" s="3">
+        <f>I31/I33</f>
+        <v>-5.7402714932126688</v>
+      </c>
+      <c r="J34" s="3">
+        <f>J31/J33</f>
+        <v>-4.2941704035874446</v>
+      </c>
+      <c r="L34" s="3">
+        <f>L31/L33</f>
+        <v>-2.6999308795576296</v>
+      </c>
+      <c r="M34" s="3">
+        <f>M31/M33</f>
+        <v>-2.9235042735042733</v>
+      </c>
+      <c r="N34" s="3">
+        <f>N31/N33</f>
+        <v>2.3628691983122188E-2</v>
+      </c>
+      <c r="O34" s="3">
+        <f>O31/O33</f>
+        <v>1.1332369942196543</v>
+      </c>
+      <c r="R34" s="3">
+        <f>R31/R33</f>
+        <v>17.570561519405445</v>
+      </c>
+      <c r="S34" s="3">
+        <f>S31/S33</f>
+        <v>-7.3799339388934753</v>
+      </c>
+      <c r="T34" s="3">
+        <f>T31/T33</f>
+        <v>1.0148224607762197</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE34" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AD35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE35" s="5">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="5">
+        <f>H21/H19</f>
+        <v>0.7615483649472149</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" ref="I36:O36" si="19">I21/I19</f>
+        <v>0.79330915751822473</v>
+      </c>
+      <c r="J36" s="5">
+        <f t="shared" si="19"/>
+        <v>0.82878453975250044</v>
+      </c>
+      <c r="K36" s="5" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L36" s="5">
+        <f t="shared" si="19"/>
+        <v>0.87510045366169797</v>
+      </c>
+      <c r="M36" s="5">
+        <f t="shared" si="19"/>
+        <v>0.847384337111042</v>
+      </c>
+      <c r="N36" s="5">
+        <f t="shared" si="19"/>
+        <v>0.86538747582924291</v>
+      </c>
+      <c r="O36" s="5">
+        <f t="shared" si="19"/>
+        <v>0.86845488851489083</v>
+      </c>
+      <c r="R36" s="5">
+        <f t="shared" ref="R36:T36" si="20">R21/R19</f>
+        <v>0.83825722446386575</v>
+      </c>
+      <c r="S36" s="5">
+        <f t="shared" si="20"/>
+        <v>0.80281963538226009</v>
+      </c>
+      <c r="T36" s="5">
+        <f>T21/T19</f>
+        <v>0.86464355922769298</v>
+      </c>
+      <c r="U36" s="5">
+        <f t="shared" ref="U36" si="21">U21/U19</f>
+        <v>0.85</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE36" s="12">
+        <f>NPV(AE34,U31:HE31)</f>
+        <v>5378.1260581526622</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="5">
+        <f>H26/H19</f>
+        <v>-1.0165977169341684</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" ref="I37:P37" si="22">I26/I19</f>
+        <v>-1.5087193831454138</v>
+      </c>
+      <c r="J37" s="5">
+        <f t="shared" si="22"/>
+        <v>-1.6443464994066794</v>
+      </c>
+      <c r="K37" s="5" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" s="5">
+        <f t="shared" si="22"/>
+        <v>-0.86942320155541153</v>
+      </c>
+      <c r="M37" s="5">
+        <f t="shared" si="22"/>
+        <v>-0.93406438120001123</v>
+      </c>
+      <c r="N37" s="5">
+        <f t="shared" si="22"/>
+        <v>-0.10664881749219106</v>
+      </c>
+      <c r="O37" s="5">
+        <f t="shared" si="22"/>
+        <v>0.12329740861148014</v>
+      </c>
+      <c r="P37" s="5">
+        <f t="shared" si="22"/>
+        <v>0.20101382488479264</v>
+      </c>
+      <c r="T37" s="5">
+        <f>T26/T19</f>
+        <v>-3.44584616275577E-3</v>
+      </c>
+      <c r="U37" s="5">
+        <f t="shared" ref="U37" si="23">U26/U19</f>
+        <v>0.17</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE37" s="3">
+        <f>AE36/Main!J2</f>
+        <v>22.205309901538655</v>
+      </c>
+    </row>
+    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE38" s="5">
+        <f>AE37/Main!J1-1</f>
+        <v>-0.88312994788663868</v>
+      </c>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="4">
-        <f>H11-H12</f>
-        <v>-1024.4380000000003</v>
-      </c>
-      <c r="I13" s="4">
-        <f>I11-I12</f>
-        <v>-1268</v>
-      </c>
-      <c r="J13" s="4">
-        <f>J11-J12</f>
-        <v>-892</v>
-      </c>
-      <c r="L13" s="4">
-        <f>L11-L12</f>
-        <v>-604.98</v>
-      </c>
-      <c r="M13" s="4">
-        <f>M11-M12</f>
-        <v>-684</v>
-      </c>
-      <c r="N13" s="4">
-        <f>N11-N12</f>
-        <v>-708</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="4">
-        <v>231.48</v>
-      </c>
-      <c r="I15" s="4">
-        <v>221</v>
-      </c>
-      <c r="J15" s="4">
-        <v>223</v>
-      </c>
-      <c r="L15" s="4">
-        <v>231.48</v>
-      </c>
-      <c r="M15" s="4">
-        <v>234</v>
-      </c>
-      <c r="N15" s="4">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="3">
-        <f>H13/H15</f>
-        <v>-4.4256004838430982</v>
-      </c>
-      <c r="I16" s="3">
-        <f>I13/I15</f>
-        <v>-5.7375565610859729</v>
-      </c>
-      <c r="J16" s="3">
-        <f>J13/J15</f>
-        <v>-4</v>
-      </c>
-      <c r="L16" s="3">
-        <f>L13/L15</f>
-        <v>-2.6135303265940903</v>
-      </c>
-      <c r="M16" s="3">
-        <f>M13/M15</f>
-        <v>-2.9230769230769229</v>
-      </c>
-      <c r="N16" s="3">
-        <f>N13/N15</f>
-        <v>-2.9873417721518987</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="5">
-        <f>H4/H2</f>
-        <v>0.76182025496600747</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" ref="I18:N18" si="2">I4/I2</f>
-        <v>0.79331683168316836</v>
-      </c>
-      <c r="J18" s="5">
-        <f t="shared" si="2"/>
-        <v>0.82881355932203393</v>
-      </c>
-      <c r="K18" s="5" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" s="5">
-        <f t="shared" si="2"/>
-        <v>0.87526052117179509</v>
-      </c>
-      <c r="M18" s="5">
-        <f t="shared" si="2"/>
-        <v>0.8472418670438473</v>
-      </c>
-      <c r="N18" s="5">
-        <f t="shared" si="2"/>
-        <v>0.86646884272997038</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="5">
-        <f>H9/H2</f>
-        <v>-1.0154385603936802</v>
-      </c>
-      <c r="I19" s="5">
-        <f t="shared" ref="I19:N19" si="3">I9/I2</f>
-        <v>-1.5086633663366336</v>
-      </c>
-      <c r="J19" s="5">
-        <f t="shared" si="3"/>
-        <v>-1.6440677966101696</v>
-      </c>
-      <c r="K19" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L19" s="5">
-        <f t="shared" si="3"/>
-        <v>-0.86830897487346115</v>
-      </c>
-      <c r="M19" s="5">
-        <f t="shared" si="3"/>
-        <v>-0.93493635077793491</v>
-      </c>
-      <c r="N19" s="5">
-        <f t="shared" si="3"/>
-        <v>-0.96735905044510384</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>36</v>
+      <c r="S40" s="5">
+        <f>S19/R19-1</f>
+        <v>-0.5925457233648721</v>
+      </c>
+      <c r="T40" s="5">
+        <f>T19/S19-1</f>
+        <v>-2.6906447340820261E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="S41" s="5">
+        <f>S15/R15-1</f>
+        <v>-0.65538020505769978</v>
+      </c>
+      <c r="T41" s="5">
+        <f>T15/S15-1</f>
+        <v>-0.35508021390374334</v>
+      </c>
+    </row>
+    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="S42" s="5">
+        <f>S16/R16-1</f>
+        <v>0.53217324052590897</v>
+      </c>
+      <c r="T42" s="5">
+        <f>T16/S16-1</f>
+        <v>0.77518802685376786</v>
       </c>
     </row>
   </sheetData>
@@ -1143,5 +4479,127 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{8B9102C8-9E8F-4C74-A5EE-F35151A03FDC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44A0F2F-DA8C-4E4A-B331-D13F4FE9D4BD}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>2021</v>
+      </c>
+      <c r="C1">
+        <v>2022</v>
+      </c>
+      <c r="D1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>11.2</v>
+      </c>
+      <c r="C2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>1671</v>
+      </c>
+      <c r="C3">
+        <v>830</v>
+      </c>
+      <c r="D3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>535</v>
+      </c>
+      <c r="C5">
+        <v>167</v>
+      </c>
+      <c r="D5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>1136</v>
+      </c>
+      <c r="C6">
+        <v>663</v>
+      </c>
+      <c r="D6">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="5">
+        <f>B5/B3</f>
+        <v>0.32016756433273491</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" ref="C12:D12" si="0">C5/C3</f>
+        <v>0.20120481927710843</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.16025641025641027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B6/B3</f>
+        <v>0.67983243566726514</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" ref="C13:D13" si="1">C6/C3</f>
+        <v>0.79879518072289157</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.83974358974358976</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/COIN.xlsx
+++ b/COIN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobgarza/repos/Stock_Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA1B63C-3C89-6F45-925D-9EFFB51A83C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980B78AB-777B-614E-8A46-C80029488F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18460" yWindow="500" windowWidth="17380" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,12 +287,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -315,18 +309,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -725,6 +716,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1240817647"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1379,7 +1371,7 @@
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
@@ -1473,13 +1465,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>20320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>10160</xdr:rowOff>
@@ -1953,23 +1945,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1158549-ACF3-45F2-9BB5-01980EBA453A}">
-  <dimension ref="A1:HE42"/>
+  <dimension ref="A1:HH42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG37" sqref="AG37"/>
+      <selection pane="bottomRight" activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2018,70 +2010,76 @@
       <c r="P1" t="s">
         <v>66</v>
       </c>
-      <c r="R1">
+      <c r="S1">
+        <v>2019</v>
+      </c>
+      <c r="T1">
+        <v>2020</v>
+      </c>
+      <c r="U1">
         <v>2021</v>
       </c>
-      <c r="S1">
+      <c r="V1">
         <v>2022</v>
       </c>
-      <c r="T1">
+      <c r="W1">
         <v>2023</v>
       </c>
-      <c r="U1">
-        <f>T1+1</f>
+      <c r="X1">
+        <f>W1+1</f>
         <v>2024</v>
       </c>
-      <c r="V1">
-        <f t="shared" ref="V1:AB1" si="0">U1+1</f>
+      <c r="Y1">
+        <f t="shared" ref="Y1:AE1" si="0">X1+1</f>
         <v>2025</v>
       </c>
-      <c r="W1">
+      <c r="Z1">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="X1">
+      <c r="AA1">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="Y1">
+      <c r="AB1">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="Z1">
+      <c r="AC1">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AA1">
+      <c r="AD1">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AB1">
+      <c r="AE1">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="2">
+      <c r="U2" s="2">
         <v>47733</v>
       </c>
-      <c r="S2" s="2">
+      <c r="V2" s="2">
         <v>16529</v>
       </c>
-      <c r="T2" s="2">
+      <c r="W2" s="2">
         <v>42141</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>58</v>
@@ -2095,6 +2093,10 @@
       <c r="J4">
         <v>26</v>
       </c>
+      <c r="K4" s="2">
+        <f>V4-J4-I4-H4</f>
+        <v>21</v>
+      </c>
       <c r="L4">
         <v>21</v>
       </c>
@@ -2105,20 +2107,26 @@
         <v>11</v>
       </c>
       <c r="O4" s="2">
-        <f>T4-N4-M4-L4</f>
+        <f>W4-N4-M4-L4</f>
         <v>29</v>
       </c>
-      <c r="R4" s="2">
+      <c r="S4">
+        <v>35</v>
+      </c>
+      <c r="T4">
+        <v>73</v>
+      </c>
+      <c r="U4" s="2">
         <v>535</v>
       </c>
-      <c r="S4" s="2">
+      <c r="V4" s="2">
         <v>167</v>
       </c>
-      <c r="T4" s="2">
+      <c r="W4" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>57</v>
       </c>
@@ -2131,6 +2139,10 @@
       <c r="J5">
         <v>133</v>
       </c>
+      <c r="K5" s="2">
+        <f>V5-J5-I5-H5</f>
+        <v>124</v>
+      </c>
       <c r="L5">
         <v>124</v>
       </c>
@@ -2141,20 +2153,26 @@
         <v>65</v>
       </c>
       <c r="O5" s="2">
-        <f>T5-N5-M5-L5</f>
+        <f>W5-N5-M5-L5</f>
         <v>126</v>
       </c>
-      <c r="R5" s="2">
+      <c r="S5">
+        <v>45</v>
+      </c>
+      <c r="T5">
+        <v>120</v>
+      </c>
+      <c r="U5" s="2">
         <v>1136</v>
       </c>
-      <c r="S5" s="2">
+      <c r="V5" s="2">
         <v>663</v>
       </c>
-      <c r="T5" s="2">
+      <c r="W5" s="2">
         <v>393</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>50</v>
       </c>
@@ -2167,6 +2185,10 @@
       <c r="J6">
         <v>346</v>
       </c>
+      <c r="K6" s="2">
+        <f>V6-J6-I6-H6</f>
+        <v>309.90000000000009</v>
+      </c>
       <c r="L6">
         <v>352</v>
       </c>
@@ -2177,20 +2199,26 @@
         <v>274.5</v>
       </c>
       <c r="O6" s="2">
-        <f>T6-N6-M6-L6</f>
+        <f>W6-N6-M6-L6</f>
         <v>492.90000000000009</v>
       </c>
-      <c r="R6" s="2">
+      <c r="S6" s="2">
+        <v>432.9</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1040</v>
+      </c>
+      <c r="U6" s="2">
         <v>6490.9</v>
       </c>
-      <c r="S6" s="2">
+      <c r="V6" s="2">
         <v>2236.9</v>
       </c>
-      <c r="T6" s="2">
+      <c r="W6" s="2">
         <v>1429.4</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>51</v>
@@ -2204,6 +2232,10 @@
       <c r="J7">
         <v>19.7</v>
       </c>
+      <c r="K7" s="2">
+        <f>V7-J7-I7-H7</f>
+        <v>13.599999999999994</v>
+      </c>
       <c r="L7">
         <v>22</v>
       </c>
@@ -2214,23 +2246,29 @@
         <v>14</v>
       </c>
       <c r="O7" s="2">
-        <f>T7-N7-M7-L7</f>
+        <f>W7-N7-M7-L7</f>
         <v>37.159999999999997</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
+        <v>30</v>
+      </c>
+      <c r="T7" s="2">
+        <v>55.9</v>
+      </c>
+      <c r="U7" s="2">
         <v>346.2</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>119.3</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>90.16</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>52</v>
@@ -2241,17 +2279,17 @@
       <c r="N9">
         <v>172</v>
       </c>
-      <c r="R9" s="2">
+      <c r="U9" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="S9" s="2">
+      <c r="V9" s="2">
         <v>245.7</v>
       </c>
-      <c r="T9" s="2">
+      <c r="W9" s="2">
         <v>694.2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>53</v>
@@ -2265,6 +2303,10 @@
       <c r="J10">
         <v>62.7</v>
       </c>
+      <c r="K10" s="2">
+        <f>V10-J10-I10-H10</f>
+        <v>62.600000000000009</v>
+      </c>
       <c r="L10">
         <v>73.7</v>
       </c>
@@ -2275,20 +2317,20 @@
         <v>74</v>
       </c>
       <c r="O10" s="2">
-        <f>T10-N10-M10-L10</f>
+        <f>W10-N10-M10-L10</f>
         <v>95.500000000000014</v>
       </c>
-      <c r="R10" s="2">
+      <c r="U10" s="2">
         <v>223</v>
       </c>
-      <c r="S10" s="2">
+      <c r="V10" s="2">
         <v>275.5</v>
       </c>
-      <c r="T10" s="2">
+      <c r="W10" s="2">
         <v>330.8</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>54</v>
@@ -2302,6 +2344,10 @@
       <c r="J11">
         <v>24.9</v>
       </c>
+      <c r="K11" s="2">
+        <f>V11-J11-I11-H11</f>
+        <v>13.400000000000004</v>
+      </c>
       <c r="L11">
         <v>240.8</v>
       </c>
@@ -2311,17 +2357,17 @@
       <c r="N11">
         <v>39</v>
       </c>
-      <c r="R11" s="2">
+      <c r="U11" s="2">
         <v>15.9</v>
       </c>
-      <c r="S11" s="2">
+      <c r="V11" s="2">
         <v>81.2</v>
       </c>
-      <c r="T11" s="2">
+      <c r="W11" s="2">
         <v>173.9</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
         <v>55</v>
@@ -2335,6 +2381,10 @@
       <c r="J12">
         <v>14.5</v>
       </c>
+      <c r="K12" s="2">
+        <f>V12-J12-I12-H12</f>
+        <v>11.57</v>
+      </c>
       <c r="L12">
         <v>17</v>
       </c>
@@ -2345,20 +2395,20 @@
         <v>15.8</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" ref="O12:O17" si="1">T12-N12-M12-L12</f>
+        <f t="shared" ref="O12:O17" si="1">W12-N12-M12-L12</f>
         <v>19.800000000000004</v>
       </c>
-      <c r="R12" s="2">
+      <c r="U12" s="2">
         <v>136.19999999999999</v>
       </c>
-      <c r="S12" s="2">
+      <c r="V12" s="2">
         <v>79.84</v>
       </c>
-      <c r="T12" s="2">
+      <c r="W12" s="2">
         <v>69.5</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>56</v>
@@ -2372,6 +2422,10 @@
       <c r="J13">
         <v>31.4</v>
       </c>
+      <c r="K13" s="2">
+        <f>V13-J13-I13-H13</f>
+        <v>26.800000000000008</v>
+      </c>
       <c r="L13">
         <v>30</v>
       </c>
@@ -2385,20 +2439,20 @@
         <f t="shared" si="1"/>
         <v>46.930000000000007</v>
       </c>
-      <c r="R13" s="2">
+      <c r="U13" s="2">
         <v>132.30000000000001</v>
       </c>
-      <c r="S13" s="2">
+      <c r="V13" s="2">
         <v>110.2</v>
       </c>
-      <c r="T13" s="2">
+      <c r="W13" s="2">
         <v>138.33000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>44</v>
@@ -2415,6 +2469,10 @@
         <f>SUM(J6:J7)</f>
         <v>365.7</v>
       </c>
+      <c r="K15" s="2">
+        <f t="shared" ref="K15:K17" si="2">V15-J15-I15-H15</f>
+        <v>323.50000000000023</v>
+      </c>
       <c r="L15" s="2">
         <f>SUM(L6:L7)</f>
         <v>374</v>
@@ -2434,52 +2492,60 @@
       <c r="P15">
         <v>640</v>
       </c>
-      <c r="R15" s="2">
-        <f>SUM(R6:R7)</f>
+      <c r="S15" s="2">
+        <f t="shared" ref="S15:U15" si="3">SUM(S6:S7)</f>
+        <v>462.9</v>
+      </c>
+      <c r="T15" s="2">
+        <f t="shared" si="3"/>
+        <v>1095.9000000000001</v>
+      </c>
+      <c r="U15" s="2">
+        <f>SUM(U6:U7)</f>
         <v>6837.0999999999995</v>
       </c>
-      <c r="S15" s="2">
-        <f t="shared" ref="S15:T15" si="2">SUM(S6:S7)</f>
+      <c r="V15" s="2">
+        <f t="shared" ref="V15:W15" si="4">SUM(V6:V7)</f>
         <v>2356.2000000000003</v>
       </c>
-      <c r="T15" s="2">
-        <f t="shared" si="2"/>
+      <c r="W15" s="2">
+        <f t="shared" si="4"/>
         <v>1519.5600000000002</v>
       </c>
-      <c r="U15">
-        <f>T15*0.95</f>
+      <c r="X15">
+        <f>W15*0.95</f>
         <v>1443.5820000000001</v>
       </c>
-      <c r="V15">
-        <f t="shared" ref="V15:AB15" si="3">U15*0.95</f>
+      <c r="Y15">
+        <f t="shared" ref="Y15:AE15" si="5">X15*0.95</f>
         <v>1371.4029</v>
       </c>
-      <c r="W15">
-        <f t="shared" si="3"/>
+      <c r="Z15">
+        <f t="shared" si="5"/>
         <v>1302.8327549999999</v>
       </c>
-      <c r="X15">
-        <f t="shared" si="3"/>
+      <c r="AA15">
+        <f t="shared" si="5"/>
         <v>1237.6911172499999</v>
       </c>
-      <c r="Y15">
-        <f t="shared" si="3"/>
+      <c r="AB15">
+        <f t="shared" si="5"/>
         <v>1175.8065613874999</v>
       </c>
-      <c r="Z15">
-        <f t="shared" si="3"/>
+      <c r="AC15">
+        <f t="shared" si="5"/>
         <v>1117.0162333181249</v>
       </c>
-      <c r="AA15">
-        <f t="shared" si="3"/>
+      <c r="AD15">
+        <f t="shared" si="5"/>
         <v>1061.1654216522186</v>
       </c>
-      <c r="AB15">
-        <f t="shared" si="3"/>
+      <c r="AE15">
+        <f t="shared" si="5"/>
         <v>1008.1071505696076</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
         <v>45</v>
@@ -2496,6 +2562,10 @@
         <f>SUM(J9:J13)</f>
         <v>210.3</v>
       </c>
+      <c r="K16" s="2">
+        <f t="shared" si="2"/>
+        <v>283.2700000000001</v>
+      </c>
       <c r="L16" s="2">
         <f>SUM(L9:L13)</f>
         <v>361.5</v>
@@ -2516,53 +2586,58 @@
         <f>(410+480)/2</f>
         <v>445</v>
       </c>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2">
-        <f>SUM(R9:R13)</f>
+      <c r="S16" s="2">
+        <v>20</v>
+      </c>
+      <c r="T16" s="2">
+        <v>45</v>
+      </c>
+      <c r="U16" s="2">
+        <f>SUM(U9:U13)</f>
         <v>517.20000000000005</v>
       </c>
-      <c r="S16" s="2">
-        <f>SUM(S9:S13)</f>
+      <c r="V16" s="2">
+        <f>SUM(V9:V13)</f>
         <v>792.44000000000017</v>
       </c>
-      <c r="T16" s="2">
-        <f>SUM(T9:T13)</f>
+      <c r="W16" s="2">
+        <f>SUM(W9:W13)</f>
         <v>1406.73</v>
       </c>
-      <c r="U16">
-        <f>T16*1.1</f>
+      <c r="X16">
+        <f>W16*1.1</f>
         <v>1547.4030000000002</v>
       </c>
-      <c r="V16">
-        <f t="shared" ref="V16:AB16" si="4">U16*1.1</f>
+      <c r="Y16">
+        <f t="shared" ref="Y16:AE16" si="6">X16*1.1</f>
         <v>1702.1433000000004</v>
       </c>
-      <c r="W16">
-        <f t="shared" si="4"/>
+      <c r="Z16">
+        <f t="shared" si="6"/>
         <v>1872.3576300000007</v>
       </c>
-      <c r="X16">
-        <f t="shared" si="4"/>
+      <c r="AA16">
+        <f t="shared" si="6"/>
         <v>2059.593393000001</v>
       </c>
-      <c r="Y16">
-        <f t="shared" si="4"/>
+      <c r="AB16">
+        <f t="shared" si="6"/>
         <v>2265.5527323000015</v>
       </c>
-      <c r="Z16">
-        <f t="shared" si="4"/>
+      <c r="AC16">
+        <f t="shared" si="6"/>
         <v>2492.1080055300017</v>
       </c>
-      <c r="AA16">
-        <f t="shared" si="4"/>
+      <c r="AD16">
+        <f t="shared" si="6"/>
         <v>2741.3188060830021</v>
       </c>
-      <c r="AB16">
-        <f t="shared" si="4"/>
+      <c r="AE16">
+        <f t="shared" si="6"/>
         <v>3015.4506866913025</v>
       </c>
     </row>
-    <row r="17" spans="1:213" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:216" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
         <v>46</v>
@@ -2576,6 +2651,10 @@
       <c r="J17">
         <v>13.9</v>
       </c>
+      <c r="K17" s="2">
+        <f t="shared" si="2"/>
+        <v>24.290000000000003</v>
+      </c>
       <c r="L17" s="2">
         <v>36</v>
       </c>
@@ -2589,124 +2668,140 @@
         <f t="shared" si="1"/>
         <v>49.400000000000006</v>
       </c>
-      <c r="R17" s="2">
+      <c r="S17" s="4">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="T17">
+        <v>133</v>
+      </c>
+      <c r="U17" s="2">
         <v>484.69</v>
       </c>
-      <c r="S17" s="2">
+      <c r="V17" s="2">
         <v>45.39</v>
       </c>
-      <c r="T17" s="2">
+      <c r="W17" s="2">
         <v>181.8</v>
       </c>
     </row>
-    <row r="18" spans="1:213" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:216" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-    </row>
-    <row r="19" spans="1:213" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="6" t="s">
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+    </row>
+    <row r="19" spans="1:216" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="10">
-        <f t="shared" ref="D19:N19" si="5">SUM(D15:D17)</f>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:M19" si="7">SUM(D15:D17)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="10">
-        <f t="shared" si="5"/>
+      <c r="E19" s="2">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F19" s="10">
-        <f t="shared" si="5"/>
+      <c r="F19" s="2">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G19" s="10">
-        <f t="shared" si="5"/>
+      <c r="G19" s="2">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H19" s="10">
-        <f t="shared" si="5"/>
+      <c r="H19" s="2">
+        <f t="shared" si="7"/>
         <v>1165.0999999999999</v>
       </c>
-      <c r="I19" s="10">
-        <f t="shared" si="5"/>
+      <c r="I19" s="2">
+        <f t="shared" si="7"/>
         <v>807.97</v>
       </c>
-      <c r="J19" s="10">
-        <f t="shared" si="5"/>
+      <c r="J19" s="2">
+        <f t="shared" si="7"/>
         <v>589.9</v>
       </c>
-      <c r="K19" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="10">
-        <f t="shared" si="5"/>
+      <c r="K19" s="2">
+        <f t="shared" si="7"/>
+        <v>631.06000000000029</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="7"/>
         <v>771.5</v>
       </c>
-      <c r="M19" s="10">
-        <f t="shared" si="5"/>
+      <c r="M19" s="2">
+        <f t="shared" si="7"/>
         <v>707.66</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="2">
         <f>SUM(N15:N17)</f>
         <v>672.3</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="2">
         <f>SUM(O15:O17)</f>
         <v>956.63000000000022</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="2">
         <f>P15+P16</f>
         <v>1085</v>
       </c>
-      <c r="R19" s="10">
-        <f>SUM(R15:R17)</f>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2">
+        <f t="shared" ref="S19:U19" si="8">SUM(S15:S17)</f>
+        <v>522.69999999999993</v>
+      </c>
+      <c r="T19" s="2">
+        <f t="shared" si="8"/>
+        <v>1273.9000000000001</v>
+      </c>
+      <c r="U19" s="2">
+        <f>SUM(U15:U17)</f>
         <v>7838.9899999999989</v>
       </c>
-      <c r="S19" s="10">
-        <f>SUM(S15:S17)</f>
+      <c r="V19" s="2">
+        <f>SUM(V15:V17)</f>
         <v>3194.03</v>
       </c>
-      <c r="T19" s="10">
-        <f>SUM(T15:T17)</f>
+      <c r="W19" s="2">
+        <f>SUM(W15:W17)</f>
         <v>3108.09</v>
       </c>
-      <c r="U19" s="10">
-        <f t="shared" ref="U19:AB19" si="6">SUM(U15:U17)</f>
+      <c r="X19" s="2">
+        <f t="shared" ref="X19:AE19" si="9">SUM(X15:X17)</f>
         <v>2990.9850000000006</v>
       </c>
-      <c r="V19" s="10">
-        <f t="shared" si="6"/>
+      <c r="Y19" s="2">
+        <f t="shared" si="9"/>
         <v>3073.5462000000007</v>
       </c>
-      <c r="W19" s="10">
-        <f t="shared" si="6"/>
+      <c r="Z19" s="2">
+        <f t="shared" si="9"/>
         <v>3175.1903850000008</v>
       </c>
-      <c r="X19" s="10">
-        <f t="shared" si="6"/>
+      <c r="AA19" s="2">
+        <f t="shared" si="9"/>
         <v>3297.2845102500009</v>
       </c>
-      <c r="Y19" s="10">
-        <f t="shared" si="6"/>
+      <c r="AB19" s="2">
+        <f t="shared" si="9"/>
         <v>3441.3592936875011</v>
       </c>
-      <c r="Z19" s="10">
-        <f t="shared" si="6"/>
+      <c r="AC19" s="2">
+        <f t="shared" si="9"/>
         <v>3609.1242388481269</v>
       </c>
-      <c r="AA19" s="10">
-        <f t="shared" si="6"/>
+      <c r="AD19" s="2">
+        <f t="shared" si="9"/>
         <v>3802.4842277352209</v>
       </c>
-      <c r="AB19" s="10">
-        <f t="shared" si="6"/>
+      <c r="AE19" s="2">
+        <f t="shared" si="9"/>
         <v>4023.5578372609102</v>
       </c>
     </row>
-    <row r="20" spans="1:213" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:216" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -2719,6 +2814,10 @@
       <c r="J20" s="4">
         <v>101</v>
       </c>
+      <c r="K20" s="2">
+        <f t="shared" ref="K20:K24" si="10">V20-J20-I20-H20</f>
+        <v>83.979999999999961</v>
+      </c>
       <c r="L20" s="4">
         <v>96.36</v>
       </c>
@@ -2729,106 +2828,125 @@
         <v>90.5</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" ref="O20:O24" si="7">T20-N20-M20-L20</f>
+        <f t="shared" ref="O20:O24" si="11">W20-N20-M20-L20</f>
         <v>125.83999999999999</v>
       </c>
       <c r="P20">
         <f>P19*0.14</f>
         <v>151.9</v>
       </c>
-      <c r="R20" s="2">
+      <c r="S20">
+        <v>82</v>
+      </c>
+      <c r="T20">
+        <v>135</v>
+      </c>
+      <c r="U20" s="2">
         <v>1267.9000000000001</v>
       </c>
-      <c r="S20" s="2">
+      <c r="V20" s="2">
         <v>629.79999999999995</v>
       </c>
-      <c r="T20" s="2">
+      <c r="W20" s="2">
         <v>420.7</v>
       </c>
     </row>
-    <row r="21" spans="1:213" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="1:216" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <f>H19-H20</f>
         <v>887.28</v>
       </c>
-      <c r="I21" s="8">
-        <f t="shared" ref="I21:M21" si="8">I19-I20</f>
+      <c r="I21" s="7">
+        <f t="shared" ref="I21:M21" si="12">I19-I20</f>
         <v>640.97</v>
       </c>
-      <c r="J21" s="8">
-        <f t="shared" si="8"/>
+      <c r="J21" s="7">
+        <f t="shared" si="12"/>
         <v>488.9</v>
       </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8">
-        <f t="shared" si="8"/>
+      <c r="K21" s="7">
+        <f t="shared" si="12"/>
+        <v>547.08000000000038</v>
+      </c>
+      <c r="L21" s="7">
+        <f t="shared" si="12"/>
         <v>675.14</v>
       </c>
-      <c r="M21" s="8">
-        <f t="shared" si="8"/>
+      <c r="M21" s="7">
+        <f t="shared" si="12"/>
         <v>599.66</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="8">
         <f>N19-N20</f>
         <v>581.79999999999995</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O21" s="8">
         <f>O19-O20</f>
         <v>830.79000000000019</v>
       </c>
-      <c r="P21" s="11">
+      <c r="P21" s="8">
         <f>P19-P20</f>
         <v>933.1</v>
       </c>
-      <c r="R21" s="11">
-        <f>R19-R20</f>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8">
+        <f t="shared" ref="S21:T21" si="13">S19-S20</f>
+        <v>440.69999999999993</v>
+      </c>
+      <c r="T21" s="8">
+        <f t="shared" si="13"/>
+        <v>1138.9000000000001</v>
+      </c>
+      <c r="U21" s="8">
+        <f>U19-U20</f>
         <v>6571.0899999999983</v>
       </c>
-      <c r="S21" s="11">
-        <f>S19-S20</f>
+      <c r="V21" s="8">
+        <f>V19-V20</f>
         <v>2564.2300000000005</v>
       </c>
-      <c r="T21" s="11">
-        <f>T19-T20</f>
+      <c r="W21" s="8">
+        <f>W19-W20</f>
         <v>2687.3900000000003</v>
       </c>
-      <c r="U21" s="7">
-        <f>U19*0.85</f>
+      <c r="X21" s="6">
+        <f>X19*0.85</f>
         <v>2542.3372500000005</v>
       </c>
-      <c r="V21" s="7">
-        <f t="shared" ref="V21:AB21" si="9">V19*0.85</f>
+      <c r="Y21" s="6">
+        <f t="shared" ref="Y21:AE21" si="14">Y19*0.85</f>
         <v>2612.5142700000006</v>
       </c>
-      <c r="W21" s="7">
-        <f t="shared" si="9"/>
+      <c r="Z21" s="6">
+        <f t="shared" si="14"/>
         <v>2698.9118272500004</v>
       </c>
-      <c r="X21" s="7">
-        <f t="shared" si="9"/>
+      <c r="AA21" s="6">
+        <f t="shared" si="14"/>
         <v>2802.6918337125007</v>
       </c>
-      <c r="Y21" s="7">
-        <f t="shared" si="9"/>
+      <c r="AB21" s="6">
+        <f t="shared" si="14"/>
         <v>2925.155399634376</v>
       </c>
-      <c r="Z21" s="7">
-        <f t="shared" si="9"/>
+      <c r="AC21" s="6">
+        <f t="shared" si="14"/>
         <v>3067.755603020908</v>
       </c>
-      <c r="AA21" s="7">
-        <f t="shared" si="9"/>
+      <c r="AD21" s="6">
+        <f t="shared" si="14"/>
         <v>3232.1115935749376</v>
       </c>
-      <c r="AB21" s="7">
-        <f t="shared" si="9"/>
+      <c r="AE21" s="6">
+        <f t="shared" si="14"/>
         <v>3420.0241616717735</v>
       </c>
     </row>
-    <row r="22" spans="1:213" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:216" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>23</v>
       </c>
@@ -2841,6 +2959,10 @@
       <c r="J22" s="4">
         <v>556</v>
       </c>
+      <c r="K22" s="2">
+        <f t="shared" si="10"/>
+        <v>590.68999999999994</v>
+      </c>
       <c r="L22" s="4">
         <v>358.03</v>
       </c>
@@ -2851,27 +2973,24 @@
         <v>322.7</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>323.77</v>
       </c>
       <c r="P22">
         <f>625-255</f>
         <v>370</v>
       </c>
-      <c r="R22" s="2">
+      <c r="S22">
+        <v>185</v>
+      </c>
+      <c r="T22">
+        <v>271</v>
+      </c>
+      <c r="U22" s="2">
         <v>1291</v>
       </c>
-      <c r="S22" s="2">
+      <c r="V22" s="2">
         <v>2326.35</v>
-      </c>
-      <c r="T22" s="2">
-        <v>1324.5</v>
-      </c>
-      <c r="U22" s="2">
-        <v>1324.5</v>
-      </c>
-      <c r="V22" s="2">
-        <v>1324.5</v>
       </c>
       <c r="W22" s="2">
         <v>1324.5</v>
@@ -2891,8 +3010,17 @@
       <c r="AB22" s="2">
         <v>1324.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:213" x14ac:dyDescent="0.2">
+      <c r="AC22" s="2">
+        <v>1324.5</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>1324.5</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>1324.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:216" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>24</v>
       </c>
@@ -2905,6 +3033,10 @@
       <c r="J23" s="4">
         <v>75</v>
       </c>
+      <c r="K23" s="2">
+        <f t="shared" si="10"/>
+        <v>94.800000000000011</v>
+      </c>
       <c r="L23" s="4">
         <v>63.97</v>
       </c>
@@ -2915,26 +3047,23 @@
         <v>78.17</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>107.16</v>
       </c>
       <c r="P23">
         <v>90</v>
       </c>
-      <c r="R23" s="2">
+      <c r="S23">
+        <v>24</v>
+      </c>
+      <c r="T23">
+        <v>57</v>
+      </c>
+      <c r="U23" s="2">
         <v>663</v>
       </c>
-      <c r="S23" s="2">
+      <c r="V23" s="2">
         <v>510</v>
-      </c>
-      <c r="T23" s="2">
-        <v>332.3</v>
-      </c>
-      <c r="U23" s="2">
-        <v>332.3</v>
-      </c>
-      <c r="V23" s="2">
-        <v>332.3</v>
       </c>
       <c r="W23" s="2">
         <v>332.3</v>
@@ -2954,8 +3083,17 @@
       <c r="AB23" s="2">
         <v>332.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:213" x14ac:dyDescent="0.2">
+      <c r="AC23" s="2">
+        <v>332.3</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>332.3</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>332.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:216" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>25</v>
       </c>
@@ -2968,6 +3106,10 @@
       <c r="J24" s="4">
         <v>339</v>
       </c>
+      <c r="K24" s="2">
+        <f t="shared" si="10"/>
+        <v>378.02199999999993</v>
+      </c>
       <c r="L24" s="4">
         <v>248.76</v>
       </c>
@@ -2978,26 +3120,23 @@
         <v>252.63</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>281.90999999999997</v>
       </c>
       <c r="P24">
         <v>255</v>
       </c>
-      <c r="R24" s="2">
+      <c r="S24">
+        <v>232</v>
+      </c>
+      <c r="T24">
+        <v>280</v>
+      </c>
+      <c r="U24" s="2">
         <v>909</v>
       </c>
-      <c r="S24" s="2">
+      <c r="V24" s="2">
         <v>1600.6</v>
-      </c>
-      <c r="T24" s="2">
-        <v>1041.3</v>
-      </c>
-      <c r="U24" s="2">
-        <v>1041.3</v>
-      </c>
-      <c r="V24" s="2">
-        <v>1041.3</v>
       </c>
       <c r="W24" s="2">
         <v>1041.3</v>
@@ -3017,8 +3156,17 @@
       <c r="AB24" s="2">
         <v>1041.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:213" x14ac:dyDescent="0.2">
+      <c r="AC24" s="2">
+        <v>1041.3</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>1041.3</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>1041.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:216" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>26</v>
       </c>
@@ -3034,6 +3182,10 @@
         <f>SUM(J20:J24)</f>
         <v>1559.9</v>
       </c>
+      <c r="K25" s="4">
+        <f>SUM(K20:K24)</f>
+        <v>1694.5720000000003</v>
+      </c>
       <c r="L25" s="4">
         <f>SUM(L20:L24)</f>
         <v>1442.26</v>
@@ -3054,133 +3206,157 @@
         <f>SUM(P22:P24)</f>
         <v>715</v>
       </c>
-      <c r="R25" s="2">
-        <f>SUM(R22:R24)</f>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2">
+        <f t="shared" ref="S25:T25" si="15">SUM(S22:S24)</f>
+        <v>441</v>
+      </c>
+      <c r="T25" s="2">
+        <f t="shared" si="15"/>
+        <v>608</v>
+      </c>
+      <c r="U25" s="2">
+        <f>SUM(U22:U24)</f>
         <v>2863</v>
       </c>
-      <c r="S25" s="2">
-        <f>SUM(S22:S24)</f>
+      <c r="V25" s="2">
+        <f>SUM(V22:V24)</f>
         <v>4436.95</v>
       </c>
-      <c r="T25" s="2">
-        <f>SUM(T22:T24)</f>
+      <c r="W25" s="2">
+        <f>SUM(W22:W24)</f>
         <v>2698.1</v>
       </c>
-      <c r="U25" s="2">
-        <f t="shared" ref="U25:AB25" si="10">SUM(U22:U24)</f>
+      <c r="X25" s="2">
+        <f t="shared" ref="X25:AE25" si="16">SUM(X22:X24)</f>
         <v>2698.1</v>
       </c>
-      <c r="V25" s="2">
-        <f t="shared" si="10"/>
+      <c r="Y25" s="2">
+        <f t="shared" si="16"/>
         <v>2698.1</v>
       </c>
-      <c r="W25" s="2">
-        <f t="shared" si="10"/>
+      <c r="Z25" s="2">
+        <f t="shared" si="16"/>
         <v>2698.1</v>
       </c>
-      <c r="X25" s="2">
-        <f t="shared" si="10"/>
+      <c r="AA25" s="2">
+        <f t="shared" si="16"/>
         <v>2698.1</v>
       </c>
-      <c r="Y25" s="2">
-        <f t="shared" si="10"/>
+      <c r="AB25" s="2">
+        <f t="shared" si="16"/>
         <v>2698.1</v>
       </c>
-      <c r="Z25" s="2">
-        <f t="shared" si="10"/>
+      <c r="AC25" s="2">
+        <f t="shared" si="16"/>
         <v>2698.1</v>
       </c>
-      <c r="AA25" s="2">
-        <f t="shared" si="10"/>
+      <c r="AD25" s="2">
+        <f t="shared" si="16"/>
         <v>2698.1</v>
       </c>
-      <c r="AB25" s="2">
-        <f t="shared" si="10"/>
+      <c r="AE25" s="2">
+        <f t="shared" si="16"/>
         <v>2698.1</v>
       </c>
     </row>
-    <row r="26" spans="1:213" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="6" t="s">
+    <row r="26" spans="1:216" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="4">
         <f>H19-H25</f>
         <v>-1184.4379999999996</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="4">
         <f>I19-I25</f>
         <v>-1219</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="4">
         <f>J19-J25</f>
         <v>-970.00000000000011</v>
       </c>
-      <c r="L26" s="9">
+      <c r="K26" s="4">
+        <f>K19-K25</f>
+        <v>-1063.5120000000002</v>
+      </c>
+      <c r="L26" s="4">
         <f>L19-L25</f>
         <v>-670.76</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="4">
         <f>M19-M25</f>
         <v>-660.99999999999989</v>
       </c>
-      <c r="N26" s="10">
+      <c r="N26" s="2">
         <f>N21-N25</f>
         <v>-71.700000000000045</v>
       </c>
-      <c r="O26" s="10">
+      <c r="O26" s="2">
         <f>O21-O25</f>
         <v>117.95000000000027</v>
       </c>
-      <c r="P26" s="10">
+      <c r="P26" s="2">
         <f>P21-P25</f>
         <v>218.10000000000002</v>
       </c>
-      <c r="R26" s="10">
-        <f>R21-R25</f>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2">
+        <f>S21-S25</f>
+        <v>-0.30000000000006821</v>
+      </c>
+      <c r="T26" s="2">
+        <f t="shared" ref="S26:T26" si="17">T21-T25</f>
+        <v>530.90000000000009</v>
+      </c>
+      <c r="U26" s="2">
+        <f>U21-U25</f>
         <v>3708.0899999999983</v>
       </c>
-      <c r="S26" s="10">
-        <f>S21-S25</f>
+      <c r="V26" s="2">
+        <f>V21-V25</f>
         <v>-1872.7199999999993</v>
       </c>
-      <c r="T26" s="10">
-        <f>T21-T25</f>
+      <c r="W26" s="2">
+        <f>W21-W25</f>
         <v>-10.709999999999582</v>
       </c>
-      <c r="U26" s="10">
-        <f>U21*0.2</f>
+      <c r="X26" s="2">
+        <f>X21*0.2</f>
         <v>508.4674500000001</v>
       </c>
-      <c r="V26" s="10">
-        <f t="shared" ref="V26:AB26" si="11">V21*0.2</f>
+      <c r="Y26" s="2">
+        <f t="shared" ref="Y26:AE26" si="18">Y21*0.2</f>
         <v>522.50285400000018</v>
       </c>
-      <c r="W26" s="10">
-        <f t="shared" si="11"/>
+      <c r="Z26" s="2">
+        <f t="shared" si="18"/>
         <v>539.78236545000016</v>
       </c>
-      <c r="X26" s="10">
-        <f t="shared" si="11"/>
+      <c r="AA26" s="2">
+        <f t="shared" si="18"/>
         <v>560.53836674250022</v>
       </c>
-      <c r="Y26" s="10">
-        <f t="shared" si="11"/>
+      <c r="AB26" s="2">
+        <f t="shared" si="18"/>
         <v>585.03107992687524</v>
       </c>
-      <c r="Z26" s="10">
-        <f t="shared" si="11"/>
+      <c r="AC26" s="2">
+        <f t="shared" si="18"/>
         <v>613.55112060418162</v>
       </c>
-      <c r="AA26" s="10">
-        <f t="shared" si="11"/>
+      <c r="AD26" s="2">
+        <f t="shared" si="18"/>
         <v>646.42231871498757</v>
       </c>
-      <c r="AB26" s="10">
-        <f t="shared" si="11"/>
+      <c r="AE26" s="2">
+        <f t="shared" si="18"/>
         <v>684.00483233435477</v>
       </c>
     </row>
-    <row r="27" spans="1:213" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:216" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>31</v>
       </c>
@@ -3193,30 +3369,34 @@
       <c r="J27" s="4">
         <v>21</v>
       </c>
+      <c r="K27" s="2">
+        <f t="shared" ref="K27:K30" si="19">V27-J27-I27-H27</f>
+        <v>22.300000000000004</v>
+      </c>
       <c r="L27" s="4">
         <v>21</v>
       </c>
       <c r="M27" s="4">
         <v>21.6</v>
       </c>
-      <c r="N27" s="10">
+      <c r="N27" s="2">
         <v>20.8</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" ref="O27:O30" si="12">T27-N27-M27-L27</f>
+        <f t="shared" ref="O27:O30" si="20">W27-N27-M27-L27</f>
         <v>19.300000000000004</v>
       </c>
-      <c r="R27" s="10">
+      <c r="U27" s="2">
         <v>29.1</v>
       </c>
-      <c r="S27" s="10">
+      <c r="V27" s="2">
         <v>88.9</v>
       </c>
-      <c r="T27" s="10">
+      <c r="W27" s="2">
         <v>82.7</v>
       </c>
     </row>
-    <row r="28" spans="1:213" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:216" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>47</v>
       </c>
@@ -3229,71 +3409,75 @@
       <c r="J28" s="4">
         <v>-65.599999999999994</v>
       </c>
+      <c r="K28" s="2">
+        <f t="shared" si="19"/>
+        <v>4.2000000000000171</v>
+      </c>
       <c r="L28" s="4">
         <v>-20</v>
       </c>
       <c r="M28" s="4">
         <v>16.5</v>
       </c>
-      <c r="N28" s="10">
+      <c r="N28" s="2">
         <v>135</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>36</v>
       </c>
-      <c r="R28" s="10">
+      <c r="U28" s="2">
         <v>-20.399999999999999</v>
       </c>
-      <c r="S28" s="10">
+      <c r="V28" s="2">
         <v>-265.39999999999998</v>
       </c>
-      <c r="T28" s="10">
+      <c r="W28" s="2">
         <v>167.5</v>
       </c>
     </row>
-    <row r="29" spans="1:213" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:216" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" ref="D29:M29" si="13">D26-D27+D28</f>
+        <f t="shared" ref="D29:M29" si="21">D26-D27+D28</f>
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>-1238.4379999999996</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>-1414.6</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>-1056.6000000000001</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>-1081.6120000000001</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>-711.76</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>-666.09999999999991</v>
       </c>
       <c r="N29" s="2">
@@ -3304,52 +3488,52 @@
         <f>O26-O27+O28</f>
         <v>134.65000000000026</v>
       </c>
-      <c r="R29" s="2">
-        <f>R26-R27+R28</f>
+      <c r="U29" s="2">
+        <f>U26-U27+U28</f>
         <v>3658.5899999999983</v>
       </c>
-      <c r="S29" s="2">
-        <f>S26-S27+S28</f>
+      <c r="V29" s="2">
+        <f>V26-V27+V28</f>
         <v>-2227.0199999999995</v>
       </c>
-      <c r="T29" s="2">
-        <f>T26-T27+T28</f>
+      <c r="W29" s="2">
+        <f>W26-W27+W28</f>
         <v>74.090000000000416</v>
       </c>
-      <c r="U29" s="2">
-        <f t="shared" ref="U29:AB29" si="14">U26-U27+U28</f>
+      <c r="X29" s="2">
+        <f t="shared" ref="X29:AE29" si="22">X26-X27+X28</f>
         <v>508.4674500000001</v>
       </c>
-      <c r="V29" s="2">
-        <f t="shared" si="14"/>
+      <c r="Y29" s="2">
+        <f t="shared" si="22"/>
         <v>522.50285400000018</v>
       </c>
-      <c r="W29" s="2">
-        <f t="shared" si="14"/>
+      <c r="Z29" s="2">
+        <f t="shared" si="22"/>
         <v>539.78236545000016</v>
       </c>
-      <c r="X29" s="2">
-        <f t="shared" si="14"/>
+      <c r="AA29" s="2">
+        <f t="shared" si="22"/>
         <v>560.53836674250022</v>
       </c>
-      <c r="Y29" s="2">
-        <f t="shared" si="14"/>
+      <c r="AB29" s="2">
+        <f t="shared" si="22"/>
         <v>585.03107992687524</v>
       </c>
-      <c r="Z29" s="2">
-        <f t="shared" si="14"/>
+      <c r="AC29" s="2">
+        <f t="shared" si="22"/>
         <v>613.55112060418162</v>
       </c>
-      <c r="AA29" s="2">
-        <f t="shared" si="14"/>
+      <c r="AD29" s="2">
+        <f t="shared" si="22"/>
         <v>646.42231871498757</v>
       </c>
-      <c r="AB29" s="2">
-        <f t="shared" si="14"/>
+      <c r="AE29" s="2">
+        <f t="shared" si="22"/>
         <v>684.00483233435477</v>
       </c>
     </row>
-    <row r="30" spans="1:213" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:216" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -3362,6 +3546,10 @@
       <c r="J30" s="4">
         <v>-99</v>
       </c>
+      <c r="K30" s="2">
+        <f t="shared" si="19"/>
+        <v>-14.600000000000023</v>
+      </c>
       <c r="L30" s="4">
         <v>-86.78</v>
       </c>
@@ -3372,837 +3560,841 @@
         <v>36.9</v>
       </c>
       <c r="O30" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>-139.82</v>
       </c>
-      <c r="R30" s="2">
+      <c r="U30" s="2">
         <v>-597</v>
       </c>
-      <c r="S30" s="2">
+      <c r="V30" s="2">
         <v>-439.6</v>
       </c>
-      <c r="T30" s="2">
+      <c r="W30" s="2">
         <v>-171.7</v>
       </c>
     </row>
-    <row r="31" spans="1:213" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="7" t="s">
+    <row r="31" spans="1:216" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="7">
         <f>H29-H30</f>
         <v>-1058.4379999999996</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="7">
         <f>I29-I30</f>
         <v>-1268.5999999999999</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="7">
         <f>J29-J30</f>
         <v>-957.60000000000014</v>
       </c>
-      <c r="L31" s="8">
+      <c r="K31" s="7">
+        <f>K29-K30</f>
+        <v>-1067.0120000000002</v>
+      </c>
+      <c r="L31" s="7">
         <f>L29-L30</f>
         <v>-624.98</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="7">
         <f>M29-M30</f>
         <v>-684.09999999999991</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N31" s="8">
         <f>N29-N30</f>
         <v>5.5999999999999588</v>
       </c>
-      <c r="O31" s="11">
+      <c r="O31" s="8">
         <f>O29-O30</f>
         <v>274.47000000000025</v>
       </c>
-      <c r="R31" s="11">
-        <f>R29-R30</f>
+      <c r="U31" s="8">
+        <f>U29-U30</f>
         <v>4255.5899999999983</v>
       </c>
-      <c r="S31" s="11">
-        <f>S29-S30</f>
+      <c r="V31" s="8">
+        <f>V29-V30</f>
         <v>-1787.4199999999996</v>
       </c>
-      <c r="T31" s="11">
-        <f>T29-T30</f>
+      <c r="W31" s="8">
+        <f>W29-W30</f>
         <v>245.79000000000042</v>
       </c>
-      <c r="U31" s="11">
-        <f t="shared" ref="U31:AB31" si="15">U29-U30</f>
+      <c r="X31" s="8">
+        <f t="shared" ref="X31:AE31" si="23">X29-X30</f>
         <v>508.4674500000001</v>
       </c>
-      <c r="V31" s="11">
-        <f t="shared" si="15"/>
+      <c r="Y31" s="8">
+        <f t="shared" si="23"/>
         <v>522.50285400000018</v>
       </c>
-      <c r="W31" s="11">
-        <f t="shared" si="15"/>
+      <c r="Z31" s="8">
+        <f t="shared" si="23"/>
         <v>539.78236545000016</v>
       </c>
-      <c r="X31" s="11">
-        <f t="shared" si="15"/>
+      <c r="AA31" s="8">
+        <f t="shared" si="23"/>
         <v>560.53836674250022</v>
       </c>
-      <c r="Y31" s="11">
-        <f t="shared" si="15"/>
+      <c r="AB31" s="8">
+        <f t="shared" si="23"/>
         <v>585.03107992687524</v>
       </c>
-      <c r="Z31" s="11">
-        <f t="shared" si="15"/>
+      <c r="AC31" s="8">
+        <f t="shared" si="23"/>
         <v>613.55112060418162</v>
       </c>
-      <c r="AA31" s="11">
-        <f t="shared" si="15"/>
+      <c r="AD31" s="8">
+        <f t="shared" si="23"/>
         <v>646.42231871498757</v>
       </c>
-      <c r="AB31" s="11">
-        <f t="shared" si="15"/>
+      <c r="AE31" s="8">
+        <f t="shared" si="23"/>
         <v>684.00483233435477</v>
       </c>
-      <c r="AC31" s="7">
-        <f>AB31*(1+$AE$35)</f>
+      <c r="AF31" s="6">
+        <f>AE31*(1+$AH$35)</f>
         <v>677.16478401101119</v>
       </c>
-      <c r="AD31" s="7">
-        <f>AC31*(1+$AE$35)</f>
+      <c r="AG31" s="6">
+        <f>AF31*(1+$AH$35)</f>
         <v>670.39313617090113</v>
       </c>
-      <c r="AE31" s="7">
-        <f t="shared" ref="AE31:CP31" si="16">AD31*(1+$AE$35)</f>
+      <c r="AH31" s="6">
+        <f t="shared" ref="AH31:CS31" si="24">AG31*(1+$AH$35)</f>
         <v>663.68920480919212</v>
       </c>
-      <c r="AF31" s="7">
-        <f t="shared" si="16"/>
+      <c r="AI31" s="6">
+        <f t="shared" si="24"/>
         <v>657.05231276110021</v>
       </c>
-      <c r="AG31" s="7">
-        <f t="shared" si="16"/>
+      <c r="AJ31" s="6">
+        <f t="shared" si="24"/>
         <v>650.48178963348926</v>
       </c>
-      <c r="AH31" s="7">
-        <f t="shared" si="16"/>
+      <c r="AK31" s="6">
+        <f t="shared" si="24"/>
         <v>643.97697173715437</v>
       </c>
-      <c r="AI31" s="7">
-        <f t="shared" si="16"/>
+      <c r="AL31" s="6">
+        <f t="shared" si="24"/>
         <v>637.53720201978285</v>
       </c>
-      <c r="AJ31" s="7">
-        <f t="shared" si="16"/>
+      <c r="AM31" s="6">
+        <f t="shared" si="24"/>
         <v>631.16182999958505</v>
       </c>
-      <c r="AK31" s="7">
-        <f t="shared" si="16"/>
+      <c r="AN31" s="6">
+        <f t="shared" si="24"/>
         <v>624.85021169958918</v>
       </c>
-      <c r="AL31" s="7">
-        <f t="shared" si="16"/>
+      <c r="AO31" s="6">
+        <f t="shared" si="24"/>
         <v>618.60170958259323</v>
       </c>
-      <c r="AM31" s="7">
-        <f t="shared" si="16"/>
+      <c r="AP31" s="6">
+        <f t="shared" si="24"/>
         <v>612.41569248676728</v>
       </c>
-      <c r="AN31" s="7">
-        <f t="shared" si="16"/>
+      <c r="AQ31" s="6">
+        <f t="shared" si="24"/>
         <v>606.29153556189965</v>
       </c>
-      <c r="AO31" s="7">
-        <f t="shared" si="16"/>
+      <c r="AR31" s="6">
+        <f t="shared" si="24"/>
         <v>600.22862020628065</v>
       </c>
-      <c r="AP31" s="7">
-        <f t="shared" si="16"/>
+      <c r="AS31" s="6">
+        <f t="shared" si="24"/>
         <v>594.22633400421785</v>
       </c>
-      <c r="AQ31" s="7">
-        <f t="shared" si="16"/>
+      <c r="AT31" s="6">
+        <f t="shared" si="24"/>
         <v>588.28407066417572</v>
       </c>
-      <c r="AR31" s="7">
-        <f t="shared" si="16"/>
+      <c r="AU31" s="6">
+        <f t="shared" si="24"/>
         <v>582.40122995753393</v>
       </c>
-      <c r="AS31" s="7">
-        <f t="shared" si="16"/>
+      <c r="AV31" s="6">
+        <f t="shared" si="24"/>
         <v>576.57721765795861</v>
       </c>
-      <c r="AT31" s="7">
-        <f t="shared" si="16"/>
+      <c r="AW31" s="6">
+        <f t="shared" si="24"/>
         <v>570.811445481379</v>
       </c>
-      <c r="AU31" s="7">
-        <f t="shared" si="16"/>
+      <c r="AX31" s="6">
+        <f t="shared" si="24"/>
         <v>565.10333102656523</v>
       </c>
-      <c r="AV31" s="7">
-        <f t="shared" si="16"/>
+      <c r="AY31" s="6">
+        <f t="shared" si="24"/>
         <v>559.45229771629954</v>
       </c>
-      <c r="AW31" s="7">
-        <f t="shared" si="16"/>
+      <c r="AZ31" s="6">
+        <f t="shared" si="24"/>
         <v>553.85777473913652</v>
       </c>
-      <c r="AX31" s="7">
-        <f t="shared" si="16"/>
+      <c r="BA31" s="6">
+        <f t="shared" si="24"/>
         <v>548.31919699174512</v>
       </c>
-      <c r="AY31" s="7">
-        <f t="shared" si="16"/>
+      <c r="BB31" s="6">
+        <f t="shared" si="24"/>
         <v>542.83600502182765</v>
       </c>
-      <c r="AZ31" s="7">
-        <f t="shared" si="16"/>
+      <c r="BC31" s="6">
+        <f t="shared" si="24"/>
         <v>537.40764497160933</v>
       </c>
-      <c r="BA31" s="7">
-        <f t="shared" si="16"/>
+      <c r="BD31" s="6">
+        <f t="shared" si="24"/>
         <v>532.03356852189324</v>
       </c>
-      <c r="BB31" s="7">
-        <f t="shared" si="16"/>
+      <c r="BE31" s="6">
+        <f t="shared" si="24"/>
         <v>526.71323283667425</v>
       </c>
-      <c r="BC31" s="7">
-        <f t="shared" si="16"/>
+      <c r="BF31" s="6">
+        <f t="shared" si="24"/>
         <v>521.4461005083075</v>
       </c>
-      <c r="BD31" s="7">
-        <f t="shared" si="16"/>
+      <c r="BG31" s="6">
+        <f t="shared" si="24"/>
         <v>516.23163950322441</v>
       </c>
-      <c r="BE31" s="7">
-        <f t="shared" si="16"/>
+      <c r="BH31" s="6">
+        <f t="shared" si="24"/>
         <v>511.06932310819218</v>
       </c>
-      <c r="BF31" s="7">
-        <f t="shared" si="16"/>
+      <c r="BI31" s="6">
+        <f t="shared" si="24"/>
         <v>505.95862987711024</v>
       </c>
-      <c r="BG31" s="7">
-        <f t="shared" si="16"/>
+      <c r="BJ31" s="6">
+        <f t="shared" si="24"/>
         <v>500.89904357833916</v>
       </c>
-      <c r="BH31" s="7">
-        <f t="shared" si="16"/>
+      <c r="BK31" s="6">
+        <f t="shared" si="24"/>
         <v>495.89005314255576</v>
       </c>
-      <c r="BI31" s="7">
-        <f t="shared" si="16"/>
+      <c r="BL31" s="6">
+        <f t="shared" si="24"/>
         <v>490.93115261113019</v>
       </c>
-      <c r="BJ31" s="7">
-        <f t="shared" si="16"/>
+      <c r="BM31" s="6">
+        <f t="shared" si="24"/>
         <v>486.02184108501888</v>
       </c>
-      <c r="BK31" s="7">
-        <f t="shared" si="16"/>
+      <c r="BN31" s="6">
+        <f t="shared" si="24"/>
         <v>481.16162267416871</v>
       </c>
-      <c r="BL31" s="7">
-        <f t="shared" si="16"/>
+      <c r="BO31" s="6">
+        <f t="shared" si="24"/>
         <v>476.35000644742701</v>
       </c>
-      <c r="BM31" s="7">
-        <f t="shared" si="16"/>
+      <c r="BP31" s="6">
+        <f t="shared" si="24"/>
         <v>471.58650638295273</v>
       </c>
-      <c r="BN31" s="7">
-        <f t="shared" si="16"/>
+      <c r="BQ31" s="6">
+        <f t="shared" si="24"/>
         <v>466.87064131912319</v>
       </c>
-      <c r="BO31" s="7">
-        <f t="shared" si="16"/>
+      <c r="BR31" s="6">
+        <f t="shared" si="24"/>
         <v>462.20193490593198</v>
       </c>
-      <c r="BP31" s="7">
-        <f t="shared" si="16"/>
+      <c r="BS31" s="6">
+        <f t="shared" si="24"/>
         <v>457.57991555687266</v>
       </c>
-      <c r="BQ31" s="7">
-        <f t="shared" si="16"/>
+      <c r="BT31" s="6">
+        <f t="shared" si="24"/>
         <v>453.00411640130392</v>
       </c>
-      <c r="BR31" s="7">
-        <f t="shared" si="16"/>
+      <c r="BU31" s="6">
+        <f t="shared" si="24"/>
         <v>448.47407523729089</v>
       </c>
-      <c r="BS31" s="7">
-        <f t="shared" si="16"/>
+      <c r="BV31" s="6">
+        <f t="shared" si="24"/>
         <v>443.989334484918</v>
       </c>
-      <c r="BT31" s="7">
-        <f t="shared" si="16"/>
+      <c r="BW31" s="6">
+        <f t="shared" si="24"/>
         <v>439.54944114006884</v>
       </c>
-      <c r="BU31" s="7">
-        <f t="shared" si="16"/>
+      <c r="BX31" s="6">
+        <f t="shared" si="24"/>
         <v>435.15394672866813</v>
       </c>
-      <c r="BV31" s="7">
-        <f t="shared" si="16"/>
+      <c r="BY31" s="6">
+        <f t="shared" si="24"/>
         <v>430.80240726138146</v>
       </c>
-      <c r="BW31" s="7">
-        <f t="shared" si="16"/>
+      <c r="BZ31" s="6">
+        <f t="shared" si="24"/>
         <v>426.49438318876764</v>
       </c>
-      <c r="BX31" s="7">
-        <f t="shared" si="16"/>
+      <c r="CA31" s="6">
+        <f t="shared" si="24"/>
         <v>422.22943935687994</v>
       </c>
-      <c r="BY31" s="7">
-        <f t="shared" si="16"/>
+      <c r="CB31" s="6">
+        <f t="shared" si="24"/>
         <v>418.00714496331113</v>
       </c>
-      <c r="BZ31" s="7">
-        <f t="shared" si="16"/>
+      <c r="CC31" s="6">
+        <f t="shared" si="24"/>
         <v>413.82707351367804</v>
       </c>
-      <c r="CA31" s="7">
-        <f t="shared" si="16"/>
+      <c r="CD31" s="6">
+        <f t="shared" si="24"/>
         <v>409.68880277854129</v>
       </c>
-      <c r="CB31" s="7">
-        <f t="shared" si="16"/>
+      <c r="CE31" s="6">
+        <f t="shared" si="24"/>
         <v>405.59191475075585</v>
       </c>
-      <c r="CC31" s="7">
-        <f t="shared" si="16"/>
+      <c r="CF31" s="6">
+        <f t="shared" si="24"/>
         <v>401.5359956032483</v>
       </c>
-      <c r="CD31" s="7">
-        <f t="shared" si="16"/>
+      <c r="CG31" s="6">
+        <f t="shared" si="24"/>
         <v>397.52063564721578</v>
       </c>
-      <c r="CE31" s="7">
-        <f t="shared" si="16"/>
+      <c r="CH31" s="6">
+        <f t="shared" si="24"/>
         <v>393.54542929074364</v>
       </c>
-      <c r="CF31" s="7">
-        <f t="shared" si="16"/>
+      <c r="CI31" s="6">
+        <f t="shared" si="24"/>
         <v>389.60997499783622</v>
       </c>
-      <c r="CG31" s="7">
-        <f t="shared" si="16"/>
+      <c r="CJ31" s="6">
+        <f t="shared" si="24"/>
         <v>385.71387524785786</v>
       </c>
-      <c r="CH31" s="7">
-        <f t="shared" si="16"/>
+      <c r="CK31" s="6">
+        <f t="shared" si="24"/>
         <v>381.85673649537927</v>
       </c>
-      <c r="CI31" s="7">
-        <f t="shared" si="16"/>
+      <c r="CL31" s="6">
+        <f t="shared" si="24"/>
         <v>378.03816913042544</v>
       </c>
-      <c r="CJ31" s="7">
-        <f t="shared" si="16"/>
+      <c r="CM31" s="6">
+        <f t="shared" si="24"/>
         <v>374.25778743912116</v>
       </c>
-      <c r="CK31" s="7">
-        <f t="shared" si="16"/>
+      <c r="CN31" s="6">
+        <f t="shared" si="24"/>
         <v>370.51520956472996</v>
       </c>
-      <c r="CL31" s="7">
-        <f t="shared" si="16"/>
+      <c r="CO31" s="6">
+        <f t="shared" si="24"/>
         <v>366.81005746908266</v>
       </c>
-      <c r="CM31" s="7">
-        <f t="shared" si="16"/>
+      <c r="CP31" s="6">
+        <f t="shared" si="24"/>
         <v>363.14195689439185</v>
       </c>
-      <c r="CN31" s="7">
-        <f t="shared" si="16"/>
+      <c r="CQ31" s="6">
+        <f t="shared" si="24"/>
         <v>359.51053732544796</v>
       </c>
-      <c r="CO31" s="7">
-        <f t="shared" si="16"/>
+      <c r="CR31" s="6">
+        <f t="shared" si="24"/>
         <v>355.9154319521935</v>
       </c>
-      <c r="CP31" s="7">
-        <f t="shared" si="16"/>
+      <c r="CS31" s="6">
+        <f t="shared" si="24"/>
         <v>352.35627763267155</v>
       </c>
-      <c r="CQ31" s="7">
-        <f t="shared" ref="CQ31:FB31" si="17">CP31*(1+$AE$35)</f>
+      <c r="CT31" s="6">
+        <f t="shared" ref="CT31:FE31" si="25">CS31*(1+$AH$35)</f>
         <v>348.83271485634481</v>
       </c>
-      <c r="CR31" s="7">
-        <f t="shared" si="17"/>
+      <c r="CU31" s="6">
+        <f t="shared" si="25"/>
         <v>345.34438770778138</v>
       </c>
-      <c r="CS31" s="7">
-        <f t="shared" si="17"/>
+      <c r="CV31" s="6">
+        <f t="shared" si="25"/>
         <v>341.89094383070358</v>
       </c>
-      <c r="CT31" s="7">
-        <f t="shared" si="17"/>
+      <c r="CW31" s="6">
+        <f t="shared" si="25"/>
         <v>338.47203439239655</v>
       </c>
-      <c r="CU31" s="7">
-        <f t="shared" si="17"/>
+      <c r="CX31" s="6">
+        <f t="shared" si="25"/>
         <v>335.08731404847259</v>
       </c>
-      <c r="CV31" s="7">
-        <f t="shared" si="17"/>
+      <c r="CY31" s="6">
+        <f t="shared" si="25"/>
         <v>331.73644090798786</v>
       </c>
-      <c r="CW31" s="7">
-        <f t="shared" si="17"/>
+      <c r="CZ31" s="6">
+        <f t="shared" si="25"/>
         <v>328.419076498908</v>
       </c>
-      <c r="CX31" s="7">
-        <f t="shared" si="17"/>
+      <c r="DA31" s="6">
+        <f t="shared" si="25"/>
         <v>325.13488573391891</v>
       </c>
-      <c r="CY31" s="7">
-        <f t="shared" si="17"/>
+      <c r="DB31" s="6">
+        <f t="shared" si="25"/>
         <v>321.88353687657974</v>
       </c>
-      <c r="CZ31" s="7">
-        <f t="shared" si="17"/>
+      <c r="DC31" s="6">
+        <f t="shared" si="25"/>
         <v>318.66470150781396</v>
       </c>
-      <c r="DA31" s="7">
-        <f t="shared" si="17"/>
+      <c r="DD31" s="6">
+        <f t="shared" si="25"/>
         <v>315.47805449273579</v>
       </c>
-      <c r="DB31" s="7">
-        <f t="shared" si="17"/>
+      <c r="DE31" s="6">
+        <f t="shared" si="25"/>
         <v>312.32327394780845</v>
       </c>
-      <c r="DC31" s="7">
-        <f t="shared" si="17"/>
+      <c r="DF31" s="6">
+        <f t="shared" si="25"/>
         <v>309.20004120833033</v>
       </c>
-      <c r="DD31" s="7">
-        <f t="shared" si="17"/>
+      <c r="DG31" s="6">
+        <f t="shared" si="25"/>
         <v>306.10804079624705</v>
       </c>
-      <c r="DE31" s="7">
-        <f t="shared" si="17"/>
+      <c r="DH31" s="6">
+        <f t="shared" si="25"/>
         <v>303.04696038828456</v>
       </c>
-      <c r="DF31" s="7">
-        <f t="shared" si="17"/>
+      <c r="DI31" s="6">
+        <f t="shared" si="25"/>
         <v>300.0164907844017</v>
       </c>
-      <c r="DG31" s="7">
-        <f t="shared" si="17"/>
+      <c r="DJ31" s="6">
+        <f t="shared" si="25"/>
         <v>297.01632587655769</v>
       </c>
-      <c r="DH31" s="7">
-        <f t="shared" si="17"/>
+      <c r="DK31" s="6">
+        <f t="shared" si="25"/>
         <v>294.04616261779211</v>
       </c>
-      <c r="DI31" s="7">
-        <f t="shared" si="17"/>
+      <c r="DL31" s="6">
+        <f t="shared" si="25"/>
         <v>291.10570099161419</v>
       </c>
-      <c r="DJ31" s="7">
-        <f t="shared" si="17"/>
+      <c r="DM31" s="6">
+        <f t="shared" si="25"/>
         <v>288.19464398169805</v>
       </c>
-      <c r="DK31" s="7">
-        <f t="shared" si="17"/>
+      <c r="DN31" s="6">
+        <f t="shared" si="25"/>
         <v>285.31269754188105</v>
       </c>
-      <c r="DL31" s="7">
-        <f t="shared" si="17"/>
+      <c r="DO31" s="6">
+        <f t="shared" si="25"/>
         <v>282.45957056646222</v>
       </c>
-      <c r="DM31" s="7">
-        <f t="shared" si="17"/>
+      <c r="DP31" s="6">
+        <f t="shared" si="25"/>
         <v>279.63497486079757</v>
       </c>
-      <c r="DN31" s="7">
-        <f t="shared" si="17"/>
+      <c r="DQ31" s="6">
+        <f t="shared" si="25"/>
         <v>276.83862511218962</v>
       </c>
-      <c r="DO31" s="7">
-        <f t="shared" si="17"/>
+      <c r="DR31" s="6">
+        <f t="shared" si="25"/>
         <v>274.07023886106771</v>
       </c>
-      <c r="DP31" s="7">
-        <f t="shared" si="17"/>
+      <c r="DS31" s="6">
+        <f t="shared" si="25"/>
         <v>271.32953647245705</v>
       </c>
-      <c r="DQ31" s="7">
-        <f t="shared" si="17"/>
+      <c r="DT31" s="6">
+        <f t="shared" si="25"/>
         <v>268.61624110773249</v>
       </c>
-      <c r="DR31" s="7">
-        <f t="shared" si="17"/>
+      <c r="DU31" s="6">
+        <f t="shared" si="25"/>
         <v>265.93007869665519</v>
       </c>
-      <c r="DS31" s="7">
-        <f t="shared" si="17"/>
+      <c r="DV31" s="6">
+        <f t="shared" si="25"/>
         <v>263.2707779096886</v>
       </c>
-      <c r="DT31" s="7">
-        <f t="shared" si="17"/>
+      <c r="DW31" s="6">
+        <f t="shared" si="25"/>
         <v>260.6380701305917</v>
       </c>
-      <c r="DU31" s="7">
-        <f t="shared" si="17"/>
+      <c r="DX31" s="6">
+        <f t="shared" si="25"/>
         <v>258.03168942928579</v>
       </c>
-      <c r="DV31" s="7">
-        <f t="shared" si="17"/>
+      <c r="DY31" s="6">
+        <f t="shared" si="25"/>
         <v>255.45137253499294</v>
       </c>
-      <c r="DW31" s="7">
-        <f t="shared" si="17"/>
+      <c r="DZ31" s="6">
+        <f t="shared" si="25"/>
         <v>252.89685880964302</v>
       </c>
-      <c r="DX31" s="7">
-        <f t="shared" si="17"/>
+      <c r="EA31" s="6">
+        <f t="shared" si="25"/>
         <v>250.36789022154659</v>
       </c>
-      <c r="DY31" s="7">
-        <f t="shared" si="17"/>
+      <c r="EB31" s="6">
+        <f t="shared" si="25"/>
         <v>247.86421131933113</v>
       </c>
-      <c r="DZ31" s="7">
-        <f t="shared" si="17"/>
+      <c r="EC31" s="6">
+        <f t="shared" si="25"/>
         <v>245.38556920613783</v>
       </c>
-      <c r="EA31" s="7">
-        <f t="shared" si="17"/>
+      <c r="ED31" s="6">
+        <f t="shared" si="25"/>
         <v>242.93171351407645</v>
       </c>
-      <c r="EB31" s="7">
-        <f t="shared" si="17"/>
+      <c r="EE31" s="6">
+        <f t="shared" si="25"/>
         <v>240.50239637893569</v>
       </c>
-      <c r="EC31" s="7">
-        <f t="shared" si="17"/>
+      <c r="EF31" s="6">
+        <f t="shared" si="25"/>
         <v>238.09737241514634</v>
       </c>
-      <c r="ED31" s="7">
-        <f t="shared" si="17"/>
+      <c r="EG31" s="6">
+        <f t="shared" si="25"/>
         <v>235.71639869099488</v>
       </c>
-      <c r="EE31" s="7">
-        <f t="shared" si="17"/>
+      <c r="EH31" s="6">
+        <f t="shared" si="25"/>
         <v>233.35923470408494</v>
       </c>
-      <c r="EF31" s="7">
-        <f t="shared" si="17"/>
+      <c r="EI31" s="6">
+        <f t="shared" si="25"/>
         <v>231.02564235704409</v>
       </c>
-      <c r="EG31" s="7">
-        <f t="shared" si="17"/>
+      <c r="EJ31" s="6">
+        <f t="shared" si="25"/>
         <v>228.71538593347364</v>
       </c>
-      <c r="EH31" s="7">
-        <f t="shared" si="17"/>
+      <c r="EK31" s="6">
+        <f t="shared" si="25"/>
         <v>226.42823207413889</v>
       </c>
-      <c r="EI31" s="7">
-        <f t="shared" si="17"/>
+      <c r="EL31" s="6">
+        <f t="shared" si="25"/>
         <v>224.1639497533975</v>
       </c>
-      <c r="EJ31" s="7">
-        <f t="shared" si="17"/>
+      <c r="EM31" s="6">
+        <f t="shared" si="25"/>
         <v>221.92231025586352</v>
       </c>
-      <c r="EK31" s="7">
-        <f t="shared" si="17"/>
+      <c r="EN31" s="6">
+        <f t="shared" si="25"/>
         <v>219.70308715330489</v>
       </c>
-      <c r="EL31" s="7">
-        <f t="shared" si="17"/>
+      <c r="EO31" s="6">
+        <f t="shared" si="25"/>
         <v>217.50605628177183</v>
       </c>
-      <c r="EM31" s="7">
-        <f t="shared" si="17"/>
+      <c r="EP31" s="6">
+        <f t="shared" si="25"/>
         <v>215.33099571895411</v>
       </c>
-      <c r="EN31" s="7">
-        <f t="shared" si="17"/>
+      <c r="EQ31" s="6">
+        <f t="shared" si="25"/>
         <v>213.17768576176456</v>
       </c>
-      <c r="EO31" s="7">
-        <f t="shared" si="17"/>
+      <c r="ER31" s="6">
+        <f t="shared" si="25"/>
         <v>211.04590890414693</v>
       </c>
-      <c r="EP31" s="7">
-        <f t="shared" si="17"/>
+      <c r="ES31" s="6">
+        <f t="shared" si="25"/>
         <v>208.93544981510544</v>
       </c>
-      <c r="EQ31" s="7">
-        <f t="shared" si="17"/>
+      <c r="ET31" s="6">
+        <f t="shared" si="25"/>
         <v>206.84609531695438</v>
       </c>
-      <c r="ER31" s="7">
-        <f t="shared" si="17"/>
+      <c r="EU31" s="6">
+        <f t="shared" si="25"/>
         <v>204.77763436378484</v>
       </c>
-      <c r="ES31" s="7">
-        <f t="shared" si="17"/>
+      <c r="EV31" s="6">
+        <f t="shared" si="25"/>
         <v>202.72985802014699</v>
       </c>
-      <c r="ET31" s="7">
-        <f t="shared" si="17"/>
+      <c r="EW31" s="6">
+        <f t="shared" si="25"/>
         <v>200.70255943994553</v>
       </c>
-      <c r="EU31" s="7">
-        <f t="shared" si="17"/>
+      <c r="EX31" s="6">
+        <f t="shared" si="25"/>
         <v>198.69553384554607</v>
       </c>
-      <c r="EV31" s="7">
-        <f t="shared" si="17"/>
+      <c r="EY31" s="6">
+        <f t="shared" si="25"/>
         <v>196.70857850709061</v>
       </c>
-      <c r="EW31" s="7">
-        <f t="shared" si="17"/>
+      <c r="EZ31" s="6">
+        <f t="shared" si="25"/>
         <v>194.7414927220197</v>
       </c>
-      <c r="EX31" s="7">
-        <f t="shared" si="17"/>
+      <c r="FA31" s="6">
+        <f t="shared" si="25"/>
         <v>192.79407779479951</v>
       </c>
-      <c r="EY31" s="7">
-        <f t="shared" si="17"/>
+      <c r="FB31" s="6">
+        <f t="shared" si="25"/>
         <v>190.8661370168515</v>
       </c>
-      <c r="EZ31" s="7">
-        <f t="shared" si="17"/>
+      <c r="FC31" s="6">
+        <f t="shared" si="25"/>
         <v>188.95747564668298</v>
       </c>
-      <c r="FA31" s="7">
-        <f t="shared" si="17"/>
+      <c r="FD31" s="6">
+        <f t="shared" si="25"/>
         <v>187.06790089021615</v>
       </c>
-      <c r="FB31" s="7">
-        <f t="shared" si="17"/>
+      <c r="FE31" s="6">
+        <f t="shared" si="25"/>
         <v>185.19722188131399</v>
       </c>
-      <c r="FC31" s="7">
-        <f t="shared" ref="FC31:HE31" si="18">FB31*(1+$AE$35)</f>
+      <c r="FF31" s="6">
+        <f t="shared" ref="FF31:HH31" si="26">FE31*(1+$AH$35)</f>
         <v>183.34524966250086</v>
       </c>
-      <c r="FD31" s="7">
-        <f t="shared" si="18"/>
+      <c r="FG31" s="6">
+        <f t="shared" si="26"/>
         <v>181.51179716587586</v>
       </c>
-      <c r="FE31" s="7">
-        <f t="shared" si="18"/>
+      <c r="FH31" s="6">
+        <f t="shared" si="26"/>
         <v>179.6966791942171</v>
       </c>
-      <c r="FF31" s="7">
-        <f t="shared" si="18"/>
+      <c r="FI31" s="6">
+        <f t="shared" si="26"/>
         <v>177.89971240227493</v>
       </c>
-      <c r="FG31" s="7">
-        <f t="shared" si="18"/>
+      <c r="FJ31" s="6">
+        <f t="shared" si="26"/>
         <v>176.12071527825219</v>
       </c>
-      <c r="FH31" s="7">
-        <f t="shared" si="18"/>
+      <c r="FK31" s="6">
+        <f t="shared" si="26"/>
         <v>174.35950812546966</v>
       </c>
-      <c r="FI31" s="7">
-        <f t="shared" si="18"/>
+      <c r="FL31" s="6">
+        <f t="shared" si="26"/>
         <v>172.61591304421495</v>
       </c>
-      <c r="FJ31" s="7">
-        <f t="shared" si="18"/>
+      <c r="FM31" s="6">
+        <f t="shared" si="26"/>
         <v>170.88975391377281</v>
       </c>
-      <c r="FK31" s="7">
-        <f t="shared" si="18"/>
+      <c r="FN31" s="6">
+        <f t="shared" si="26"/>
         <v>169.18085637463508</v>
       </c>
-      <c r="FL31" s="7">
-        <f t="shared" si="18"/>
+      <c r="FO31" s="6">
+        <f t="shared" si="26"/>
         <v>167.48904781088874</v>
       </c>
-      <c r="FM31" s="7">
-        <f t="shared" si="18"/>
+      <c r="FP31" s="6">
+        <f t="shared" si="26"/>
         <v>165.81415733277984</v>
       </c>
-      <c r="FN31" s="7">
-        <f t="shared" si="18"/>
+      <c r="FQ31" s="6">
+        <f t="shared" si="26"/>
         <v>164.15601575945203</v>
       </c>
-      <c r="FO31" s="7">
-        <f t="shared" si="18"/>
+      <c r="FR31" s="6">
+        <f t="shared" si="26"/>
         <v>162.51445560185752</v>
       </c>
-      <c r="FP31" s="7">
-        <f t="shared" si="18"/>
+      <c r="FS31" s="6">
+        <f t="shared" si="26"/>
         <v>160.88931104583895</v>
       </c>
-      <c r="FQ31" s="7">
-        <f t="shared" si="18"/>
+      <c r="FT31" s="6">
+        <f t="shared" si="26"/>
         <v>159.28041793538057</v>
       </c>
-      <c r="FR31" s="7">
-        <f t="shared" si="18"/>
+      <c r="FU31" s="6">
+        <f t="shared" si="26"/>
         <v>157.68761375602676</v>
       </c>
-      <c r="FS31" s="7">
-        <f t="shared" si="18"/>
+      <c r="FV31" s="6">
+        <f t="shared" si="26"/>
         <v>156.11073761846649</v>
       </c>
-      <c r="FT31" s="7">
-        <f t="shared" si="18"/>
+      <c r="FW31" s="6">
+        <f t="shared" si="26"/>
         <v>154.54963024228181</v>
       </c>
-      <c r="FU31" s="7">
-        <f t="shared" si="18"/>
+      <c r="FX31" s="6">
+        <f t="shared" si="26"/>
         <v>153.00413393985897</v>
       </c>
-      <c r="FV31" s="7">
-        <f t="shared" si="18"/>
+      <c r="FY31" s="6">
+        <f t="shared" si="26"/>
         <v>151.47409260046038</v>
       </c>
-      <c r="FW31" s="7">
-        <f t="shared" si="18"/>
+      <c r="FZ31" s="6">
+        <f t="shared" si="26"/>
         <v>149.95935167445577</v>
       </c>
-      <c r="FX31" s="7">
-        <f t="shared" si="18"/>
+      <c r="GA31" s="6">
+        <f t="shared" si="26"/>
         <v>148.45975815771121</v>
       </c>
-      <c r="FY31" s="7">
-        <f t="shared" si="18"/>
+      <c r="GB31" s="6">
+        <f t="shared" si="26"/>
         <v>146.9751605761341</v>
       </c>
-      <c r="FZ31" s="7">
-        <f t="shared" si="18"/>
+      <c r="GC31" s="6">
+        <f t="shared" si="26"/>
         <v>145.50540897037277</v>
       </c>
-      <c r="GA31" s="7">
-        <f t="shared" si="18"/>
+      <c r="GD31" s="6">
+        <f t="shared" si="26"/>
         <v>144.05035488066903</v>
       </c>
-      <c r="GB31" s="7">
-        <f t="shared" si="18"/>
+      <c r="GE31" s="6">
+        <f t="shared" si="26"/>
         <v>142.60985133186233</v>
       </c>
-      <c r="GC31" s="7">
-        <f t="shared" si="18"/>
+      <c r="GF31" s="6">
+        <f t="shared" si="26"/>
         <v>141.1837528185437</v>
       </c>
-      <c r="GD31" s="7">
-        <f t="shared" si="18"/>
+      <c r="GG31" s="6">
+        <f t="shared" si="26"/>
         <v>139.77191529035827</v>
       </c>
-      <c r="GE31" s="7">
-        <f t="shared" si="18"/>
+      <c r="GH31" s="6">
+        <f t="shared" si="26"/>
         <v>138.37419613745467</v>
       </c>
-      <c r="GF31" s="7">
-        <f t="shared" si="18"/>
+      <c r="GI31" s="6">
+        <f t="shared" si="26"/>
         <v>136.99045417608014</v>
       </c>
-      <c r="GG31" s="7">
-        <f t="shared" si="18"/>
+      <c r="GJ31" s="6">
+        <f t="shared" si="26"/>
         <v>135.62054963431933</v>
       </c>
-      <c r="GH31" s="7">
-        <f t="shared" si="18"/>
+      <c r="GK31" s="6">
+        <f t="shared" si="26"/>
         <v>134.26434413797614</v>
       </c>
-      <c r="GI31" s="7">
-        <f t="shared" si="18"/>
+      <c r="GL31" s="6">
+        <f t="shared" si="26"/>
         <v>132.92170069659639</v>
       </c>
-      <c r="GJ31" s="7">
-        <f t="shared" si="18"/>
+      <c r="GM31" s="6">
+        <f t="shared" si="26"/>
         <v>131.59248368963043</v>
       </c>
-      <c r="GK31" s="7">
-        <f t="shared" si="18"/>
+      <c r="GN31" s="6">
+        <f t="shared" si="26"/>
         <v>130.27655885273413</v>
       </c>
-      <c r="GL31" s="7">
-        <f t="shared" si="18"/>
+      <c r="GO31" s="6">
+        <f t="shared" si="26"/>
         <v>128.97379326420679</v>
       </c>
-      <c r="GM31" s="7">
-        <f t="shared" si="18"/>
+      <c r="GP31" s="6">
+        <f t="shared" si="26"/>
         <v>127.68405533156472</v>
       </c>
-      <c r="GN31" s="7">
-        <f t="shared" si="18"/>
+      <c r="GQ31" s="6">
+        <f t="shared" si="26"/>
         <v>126.40721477824907</v>
       </c>
-      <c r="GO31" s="7">
-        <f t="shared" si="18"/>
+      <c r="GR31" s="6">
+        <f t="shared" si="26"/>
         <v>125.14314263046658</v>
       </c>
-      <c r="GP31" s="7">
-        <f t="shared" si="18"/>
+      <c r="GS31" s="6">
+        <f t="shared" si="26"/>
         <v>123.89171120416192</v>
       </c>
-      <c r="GQ31" s="7">
-        <f t="shared" si="18"/>
+      <c r="GT31" s="6">
+        <f t="shared" si="26"/>
         <v>122.6527940921203</v>
       </c>
-      <c r="GR31" s="7">
-        <f t="shared" si="18"/>
+      <c r="GU31" s="6">
+        <f t="shared" si="26"/>
         <v>121.4262661511991</v>
       </c>
-      <c r="GS31" s="7">
-        <f t="shared" si="18"/>
+      <c r="GV31" s="6">
+        <f t="shared" si="26"/>
         <v>120.21200348968711</v>
       </c>
-      <c r="GT31" s="7">
-        <f t="shared" si="18"/>
+      <c r="GW31" s="6">
+        <f t="shared" si="26"/>
         <v>119.00988345479023</v>
       </c>
-      <c r="GU31" s="7">
-        <f t="shared" si="18"/>
+      <c r="GX31" s="6">
+        <f t="shared" si="26"/>
         <v>117.81978462024233</v>
       </c>
-      <c r="GV31" s="7">
-        <f t="shared" si="18"/>
+      <c r="GY31" s="6">
+        <f t="shared" si="26"/>
         <v>116.64158677403991</v>
       </c>
-      <c r="GW31" s="7">
-        <f t="shared" si="18"/>
+      <c r="GZ31" s="6">
+        <f t="shared" si="26"/>
         <v>115.47517090629951</v>
       </c>
-      <c r="GX31" s="7">
-        <f t="shared" si="18"/>
+      <c r="HA31" s="6">
+        <f t="shared" si="26"/>
         <v>114.32041919723652</v>
       </c>
-      <c r="GY31" s="7">
-        <f t="shared" si="18"/>
+      <c r="HB31" s="6">
+        <f t="shared" si="26"/>
         <v>113.17721500526415</v>
       </c>
-      <c r="GZ31" s="7">
-        <f t="shared" si="18"/>
+      <c r="HC31" s="6">
+        <f t="shared" si="26"/>
         <v>112.0454428552115</v>
       </c>
-      <c r="HA31" s="7">
-        <f t="shared" si="18"/>
+      <c r="HD31" s="6">
+        <f t="shared" si="26"/>
         <v>110.92498842665938</v>
       </c>
-      <c r="HB31" s="7">
-        <f t="shared" si="18"/>
+      <c r="HE31" s="6">
+        <f t="shared" si="26"/>
         <v>109.81573854239279</v>
       </c>
-      <c r="HC31" s="7">
-        <f t="shared" si="18"/>
+      <c r="HF31" s="6">
+        <f t="shared" si="26"/>
         <v>108.71758115696886</v>
       </c>
-      <c r="HD31" s="7">
-        <f t="shared" si="18"/>
+      <c r="HG31" s="6">
+        <f t="shared" si="26"/>
         <v>107.63040534539917</v>
       </c>
-      <c r="HE31" s="7">
-        <f t="shared" si="18"/>
+      <c r="HH31" s="6">
+        <f t="shared" si="26"/>
         <v>106.55410129194517</v>
       </c>
     </row>
-    <row r="32" spans="1:213" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:216" x14ac:dyDescent="0.2">
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -4210,7 +4402,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>3</v>
       </c>
@@ -4223,6 +4415,9 @@
       <c r="J33" s="4">
         <v>223</v>
       </c>
+      <c r="K33" s="4">
+        <v>226</v>
+      </c>
       <c r="L33" s="4">
         <v>231.48</v>
       </c>
@@ -4235,17 +4430,17 @@
       <c r="O33" s="4">
         <v>242.2</v>
       </c>
-      <c r="R33">
+      <c r="U33">
         <v>242.2</v>
       </c>
-      <c r="S33">
+      <c r="V33">
+        <v>226</v>
+      </c>
+      <c r="W33">
         <v>242.2</v>
       </c>
-      <c r="T33">
-        <v>242.2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>32</v>
       </c>
@@ -4261,6 +4456,10 @@
         <f>J31/J33</f>
         <v>-4.2941704035874446</v>
       </c>
+      <c r="K34" s="3">
+        <f>K31/K33</f>
+        <v>-4.7212920353982311</v>
+      </c>
       <c r="L34" s="3">
         <f>L31/L33</f>
         <v>-2.6999308795576296</v>
@@ -4277,34 +4476,34 @@
         <f>O31/O33</f>
         <v>1.1332369942196543</v>
       </c>
-      <c r="R34" s="3">
-        <f>R31/R33</f>
+      <c r="U34" s="3">
+        <f>U31/U33</f>
         <v>17.570561519405445</v>
       </c>
-      <c r="S34" s="3">
-        <f>S31/S33</f>
-        <v>-7.3799339388934753</v>
-      </c>
-      <c r="T34" s="3">
-        <f>T31/T33</f>
+      <c r="V34" s="3">
+        <f>V31/V33</f>
+        <v>-7.9089380530973434</v>
+      </c>
+      <c r="W34" s="3">
+        <f>W31/W33</f>
         <v>1.0148224607762197</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AG34" t="s">
         <v>61</v>
       </c>
-      <c r="AE34" s="5">
+      <c r="AH34" s="5">
         <v>0.11</v>
       </c>
     </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="AD35" t="s">
+    <row r="35" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AG35" t="s">
         <v>62</v>
       </c>
-      <c r="AE35" s="5">
+      <c r="AH35" s="5">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -4313,61 +4512,96 @@
         <v>0.7615483649472149</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" ref="I36:O36" si="19">I21/I19</f>
+        <f t="shared" ref="I36:P36" si="27">I21/I19</f>
         <v>0.79330915751822473</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.82878453975250044</v>
       </c>
-      <c r="K36" s="5" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
+      <c r="K36" s="5">
+        <f t="shared" si="27"/>
+        <v>0.86692232117389811</v>
       </c>
       <c r="L36" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.87510045366169797</v>
       </c>
       <c r="M36" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.847384337111042</v>
       </c>
       <c r="N36" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.86538747582924291</v>
       </c>
       <c r="O36" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.86845488851489083</v>
       </c>
-      <c r="R36" s="5">
-        <f t="shared" ref="R36:T36" si="20">R21/R19</f>
+      <c r="P36" s="5">
+        <f t="shared" si="27"/>
+        <v>0.86</v>
+      </c>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="U36" s="5">
+        <f t="shared" ref="U36:V36" si="28">U21/U19</f>
         <v>0.83825722446386575</v>
       </c>
-      <c r="S36" s="5">
-        <f t="shared" si="20"/>
+      <c r="V36" s="5">
+        <f t="shared" si="28"/>
         <v>0.80281963538226009</v>
       </c>
-      <c r="T36" s="5">
-        <f>T21/T19</f>
+      <c r="W36" s="5">
+        <f>W21/W19</f>
         <v>0.86464355922769298</v>
       </c>
-      <c r="U36" s="5">
-        <f t="shared" ref="U36" si="21">U21/U19</f>
+      <c r="X36" s="5">
+        <f t="shared" ref="X36:AE36" si="29">X21/X19</f>
         <v>0.85</v>
       </c>
-      <c r="AD36" t="s">
+      <c r="Y36" s="5">
+        <f t="shared" si="29"/>
+        <v>0.85</v>
+      </c>
+      <c r="Z36" s="5">
+        <f t="shared" si="29"/>
+        <v>0.85</v>
+      </c>
+      <c r="AA36" s="5">
+        <f t="shared" si="29"/>
+        <v>0.85</v>
+      </c>
+      <c r="AB36" s="5">
+        <f t="shared" si="29"/>
+        <v>0.85</v>
+      </c>
+      <c r="AC36" s="5">
+        <f t="shared" si="29"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="AD36" s="5">
+        <f t="shared" si="29"/>
+        <v>0.85</v>
+      </c>
+      <c r="AE36" s="5">
+        <f t="shared" si="29"/>
+        <v>0.85</v>
+      </c>
+      <c r="AG36" t="s">
         <v>63</v>
       </c>
-      <c r="AE36" s="12">
-        <f>NPV(AE34,U31:HE31)</f>
+      <c r="AH36" s="9">
+        <f>NPV(AH34,X31:HH31)</f>
         <v>5378.1260581526622</v>
       </c>
-      <c r="AG36" t="s">
+      <c r="AJ36" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -4376,101 +4610,191 @@
         <v>-1.0165977169341684</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" ref="I37:P37" si="22">I26/I19</f>
+        <f t="shared" ref="I37:W37" si="30">I26/I19</f>
         <v>-1.5087193831454138</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>-1.6443464994066794</v>
       </c>
-      <c r="K37" s="5" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+      <c r="K37" s="5">
+        <f t="shared" si="30"/>
+        <v>-1.6852787373625324</v>
       </c>
       <c r="L37" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>-0.86942320155541153</v>
       </c>
       <c r="M37" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>-0.93406438120001123</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>-0.10664881749219106</v>
       </c>
       <c r="O37" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0.12329740861148014</v>
       </c>
       <c r="P37" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0.20101382488479264</v>
       </c>
-      <c r="T37" s="5">
-        <f>T26/T19</f>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="U37" s="5">
+        <f t="shared" si="30"/>
+        <v>0.47303160228549834</v>
+      </c>
+      <c r="V37" s="5">
+        <f t="shared" si="30"/>
+        <v>-0.58631885110659554</v>
+      </c>
+      <c r="W37" s="5">
+        <f t="shared" si="30"/>
         <v>-3.44584616275577E-3</v>
       </c>
-      <c r="U37" s="5">
-        <f t="shared" ref="U37" si="23">U26/U19</f>
+      <c r="X37" s="5">
+        <f t="shared" ref="X37:AE37" si="31">X26/X19</f>
         <v>0.17</v>
       </c>
-      <c r="AD37" t="s">
+      <c r="Y37" s="5">
+        <f t="shared" si="31"/>
+        <v>0.17</v>
+      </c>
+      <c r="Z37" s="5">
+        <f t="shared" si="31"/>
+        <v>0.17</v>
+      </c>
+      <c r="AA37" s="5">
+        <f t="shared" si="31"/>
+        <v>0.17</v>
+      </c>
+      <c r="AB37" s="5">
+        <f t="shared" si="31"/>
+        <v>0.17</v>
+      </c>
+      <c r="AC37" s="5">
+        <f t="shared" si="31"/>
+        <v>0.17</v>
+      </c>
+      <c r="AD37" s="5">
+        <f t="shared" si="31"/>
+        <v>0.17</v>
+      </c>
+      <c r="AE37" s="5">
+        <f t="shared" si="31"/>
+        <v>0.17</v>
+      </c>
+      <c r="AG37" t="s">
         <v>64</v>
       </c>
-      <c r="AE37" s="3">
-        <f>AE36/Main!J2</f>
+      <c r="AH37" s="3">
+        <f>AH36/Main!J2</f>
         <v>22.205309901538655</v>
       </c>
     </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="N38" s="5">
+        <f>N31/N19</f>
+        <v>8.3296147553175055E-3</v>
+      </c>
+      <c r="O38" s="5">
+        <f t="shared" ref="O38:P38" si="32">O31/O19</f>
+        <v>0.28691343570659522</v>
+      </c>
+      <c r="P38" s="5">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="W38" s="5">
+        <f t="shared" ref="W38:AE38" si="33">W31/W19</f>
+        <v>7.9080721600725976E-2</v>
+      </c>
+      <c r="X38" s="5">
+        <f t="shared" si="33"/>
+        <v>0.17</v>
+      </c>
+      <c r="Y38" s="5">
+        <f t="shared" si="33"/>
+        <v>0.17</v>
+      </c>
+      <c r="Z38" s="5">
+        <f t="shared" si="33"/>
+        <v>0.17</v>
+      </c>
+      <c r="AA38" s="5">
+        <f t="shared" si="33"/>
+        <v>0.17</v>
+      </c>
+      <c r="AB38" s="5">
+        <f t="shared" si="33"/>
+        <v>0.17</v>
+      </c>
+      <c r="AC38" s="5">
+        <f t="shared" si="33"/>
+        <v>0.17</v>
+      </c>
+      <c r="AD38" s="5">
+        <f t="shared" si="33"/>
+        <v>0.17</v>
+      </c>
+      <c r="AE38" s="5">
+        <f t="shared" si="33"/>
+        <v>0.17</v>
+      </c>
+      <c r="AG38" t="s">
         <v>65</v>
       </c>
-      <c r="AE38" s="5">
-        <f>AE37/Main!J1-1</f>
+      <c r="AH38" s="5">
+        <f>AH37/Main!J1-1</f>
         <v>-0.88312994788663868</v>
       </c>
     </row>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>36</v>
       </c>
-      <c r="S40" s="5">
-        <f>S19/R19-1</f>
+      <c r="V40" s="5">
+        <f>V19/U19-1</f>
         <v>-0.5925457233648721</v>
       </c>
-      <c r="T40" s="5">
-        <f>T19/S19-1</f>
+      <c r="W40" s="5">
+        <f>W19/V19-1</f>
         <v>-2.6906447340820261E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>59</v>
       </c>
-      <c r="S41" s="5">
-        <f>S15/R15-1</f>
+      <c r="V41" s="5">
+        <f>V15/U15-1</f>
         <v>-0.65538020505769978</v>
       </c>
-      <c r="T41" s="5">
-        <f>T15/S15-1</f>
+      <c r="W41" s="5">
+        <f>W15/V15-1</f>
         <v>-0.35508021390374334</v>
       </c>
     </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>60</v>
       </c>
-      <c r="S42" s="5">
-        <f>S16/R16-1</f>
+      <c r="V42" s="5">
+        <f>V16/U16-1</f>
         <v>0.53217324052590897</v>
       </c>
-      <c r="T42" s="5">
-        <f>T16/S16-1</f>
+      <c r="W42" s="5">
+        <f>W16/V16-1</f>
         <v>0.77518802685376786</v>
       </c>
     </row>
@@ -4509,7 +4833,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>38</v>
       </c>
       <c r="B2">

--- a/COIN.xlsx
+++ b/COIN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobgarza/repos/Stock_Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980B78AB-777B-614E-8A46-C80029488F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A904825-DECD-0F40-BD58-56C96CC48E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18460" yWindow="500" windowWidth="17380" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1948,10 +1948,10 @@
   <dimension ref="A1:HH42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S34" sqref="S34"/>
+      <selection pane="bottomRight" activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2512,37 +2512,37 @@
         <f t="shared" si="4"/>
         <v>1519.5600000000002</v>
       </c>
-      <c r="X15">
-        <f>W15*0.95</f>
-        <v>1443.5820000000001</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" ref="Y15:AE15" si="5">X15*0.95</f>
-        <v>1371.4029</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="5"/>
-        <v>1302.8327549999999</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="5"/>
-        <v>1237.6911172499999</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="5"/>
-        <v>1175.8065613874999</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="5"/>
-        <v>1117.0162333181249</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" si="5"/>
-        <v>1061.1654216522186</v>
-      </c>
-      <c r="AE15">
-        <f t="shared" si="5"/>
-        <v>1008.1071505696076</v>
+      <c r="X15" s="2">
+        <f>W15*1.5</f>
+        <v>2279.34</v>
+      </c>
+      <c r="Y15" s="2">
+        <f>X15*1.1</f>
+        <v>2507.2740000000003</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" ref="Z15" si="5">Y15*1.1</f>
+        <v>2758.0014000000006</v>
+      </c>
+      <c r="AA15" s="2">
+        <f t="shared" ref="Z15:AE15" si="6">Z15*0.9</f>
+        <v>2482.2012600000007</v>
+      </c>
+      <c r="AB15" s="2">
+        <f t="shared" si="6"/>
+        <v>2233.9811340000006</v>
+      </c>
+      <c r="AC15" s="2">
+        <f t="shared" si="6"/>
+        <v>2010.5830206000005</v>
+      </c>
+      <c r="AD15" s="2">
+        <f t="shared" si="6"/>
+        <v>1809.5247185400005</v>
+      </c>
+      <c r="AE15" s="2">
+        <f t="shared" si="6"/>
+        <v>1628.5722466860004</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
@@ -2604,37 +2604,37 @@
         <f>SUM(W9:W13)</f>
         <v>1406.73</v>
       </c>
-      <c r="X16">
-        <f>W16*1.1</f>
-        <v>1547.4030000000002</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" ref="Y16:AE16" si="6">X16*1.1</f>
-        <v>1702.1433000000004</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="6"/>
-        <v>1872.3576300000007</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" si="6"/>
-        <v>2059.593393000001</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" si="6"/>
-        <v>2265.5527323000015</v>
-      </c>
-      <c r="AC16">
-        <f t="shared" si="6"/>
-        <v>2492.1080055300017</v>
-      </c>
-      <c r="AD16">
-        <f t="shared" si="6"/>
-        <v>2741.3188060830021</v>
-      </c>
-      <c r="AE16">
-        <f t="shared" si="6"/>
-        <v>3015.4506866913025</v>
+      <c r="X16" s="2">
+        <f>W16*1.2</f>
+        <v>1688.076</v>
+      </c>
+      <c r="Y16" s="2">
+        <f t="shared" ref="Y16:AE16" si="7">X16*1.2</f>
+        <v>2025.6912</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="7"/>
+        <v>2430.82944</v>
+      </c>
+      <c r="AA16" s="2">
+        <f t="shared" si="7"/>
+        <v>2916.995328</v>
+      </c>
+      <c r="AB16" s="2">
+        <f t="shared" si="7"/>
+        <v>3500.3943936000001</v>
+      </c>
+      <c r="AC16" s="2">
+        <f t="shared" si="7"/>
+        <v>4200.4732723199995</v>
+      </c>
+      <c r="AD16" s="2">
+        <f t="shared" si="7"/>
+        <v>5040.5679267839996</v>
+      </c>
+      <c r="AE16" s="2">
+        <f t="shared" si="7"/>
+        <v>6048.681512140799</v>
       </c>
     </row>
     <row r="17" spans="1:216" x14ac:dyDescent="0.2">
@@ -2695,43 +2695,43 @@
         <v>21</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" ref="D19:M19" si="7">SUM(D15:D17)</f>
+        <f t="shared" ref="D19:M19" si="8">SUM(D15:D17)</f>
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1165.0999999999999</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>807.97</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>589.9</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>631.06000000000029</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>771.5</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>707.66</v>
       </c>
       <c r="N19" s="2">
@@ -2749,11 +2749,11 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2">
-        <f t="shared" ref="S19:U19" si="8">SUM(S15:S17)</f>
+        <f t="shared" ref="S19:U19" si="9">SUM(S15:S17)</f>
         <v>522.69999999999993</v>
       </c>
       <c r="T19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1273.9000000000001</v>
       </c>
       <c r="U19" s="2">
@@ -2769,36 +2769,36 @@
         <v>3108.09</v>
       </c>
       <c r="X19" s="2">
-        <f t="shared" ref="X19:AE19" si="9">SUM(X15:X17)</f>
-        <v>2990.9850000000006</v>
+        <f t="shared" ref="X19:AE19" si="10">SUM(X15:X17)</f>
+        <v>3967.4160000000002</v>
       </c>
       <c r="Y19" s="2">
-        <f t="shared" si="9"/>
-        <v>3073.5462000000007</v>
+        <f t="shared" si="10"/>
+        <v>4532.9652000000006</v>
       </c>
       <c r="Z19" s="2">
-        <f t="shared" si="9"/>
-        <v>3175.1903850000008</v>
+        <f t="shared" si="10"/>
+        <v>5188.8308400000005</v>
       </c>
       <c r="AA19" s="2">
-        <f t="shared" si="9"/>
-        <v>3297.2845102500009</v>
+        <f t="shared" si="10"/>
+        <v>5399.1965880000007</v>
       </c>
       <c r="AB19" s="2">
-        <f t="shared" si="9"/>
-        <v>3441.3592936875011</v>
+        <f t="shared" si="10"/>
+        <v>5734.3755276000011</v>
       </c>
       <c r="AC19" s="2">
-        <f t="shared" si="9"/>
-        <v>3609.1242388481269</v>
+        <f t="shared" si="10"/>
+        <v>6211.0562929200005</v>
       </c>
       <c r="AD19" s="2">
-        <f t="shared" si="9"/>
-        <v>3802.4842277352209</v>
+        <f t="shared" si="10"/>
+        <v>6850.0926453239999</v>
       </c>
       <c r="AE19" s="2">
-        <f t="shared" si="9"/>
-        <v>4023.5578372609102</v>
+        <f t="shared" si="10"/>
+        <v>7677.2537588267996</v>
       </c>
     </row>
     <row r="20" spans="1:216" x14ac:dyDescent="0.2">
@@ -2815,7 +2815,7 @@
         <v>101</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" ref="K20:K24" si="10">V20-J20-I20-H20</f>
+        <f t="shared" ref="K20:K24" si="11">V20-J20-I20-H20</f>
         <v>83.979999999999961</v>
       </c>
       <c r="L20" s="4">
@@ -2828,7 +2828,7 @@
         <v>90.5</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" ref="O20:O24" si="11">W20-N20-M20-L20</f>
+        <f t="shared" ref="O20:O24" si="12">W20-N20-M20-L20</f>
         <v>125.83999999999999</v>
       </c>
       <c r="P20">
@@ -2860,23 +2860,23 @@
         <v>887.28</v>
       </c>
       <c r="I21" s="7">
-        <f t="shared" ref="I21:M21" si="12">I19-I20</f>
+        <f t="shared" ref="I21:M21" si="13">I19-I20</f>
         <v>640.97</v>
       </c>
       <c r="J21" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>488.9</v>
       </c>
       <c r="K21" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>547.08000000000038</v>
       </c>
       <c r="L21" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>675.14</v>
       </c>
       <c r="M21" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>599.66</v>
       </c>
       <c r="N21" s="8">
@@ -2894,11 +2894,11 @@
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8">
-        <f t="shared" ref="S21:T21" si="13">S19-S20</f>
+        <f t="shared" ref="S21:T21" si="14">S19-S20</f>
         <v>440.69999999999993</v>
       </c>
       <c r="T21" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1138.9000000000001</v>
       </c>
       <c r="U21" s="8">
@@ -2913,37 +2913,37 @@
         <f>W19-W20</f>
         <v>2687.3900000000003</v>
       </c>
-      <c r="X21" s="6">
-        <f>X19*0.85</f>
-        <v>2542.3372500000005</v>
-      </c>
-      <c r="Y21" s="6">
-        <f t="shared" ref="Y21:AE21" si="14">Y19*0.85</f>
-        <v>2612.5142700000006</v>
-      </c>
-      <c r="Z21" s="6">
-        <f t="shared" si="14"/>
-        <v>2698.9118272500004</v>
-      </c>
-      <c r="AA21" s="6">
-        <f t="shared" si="14"/>
-        <v>2802.6918337125007</v>
-      </c>
-      <c r="AB21" s="6">
-        <f t="shared" si="14"/>
-        <v>2925.155399634376</v>
-      </c>
-      <c r="AC21" s="6">
-        <f t="shared" si="14"/>
-        <v>3067.755603020908</v>
-      </c>
-      <c r="AD21" s="6">
-        <f t="shared" si="14"/>
-        <v>3232.1115935749376</v>
-      </c>
-      <c r="AE21" s="6">
-        <f t="shared" si="14"/>
-        <v>3420.0241616717735</v>
+      <c r="X21" s="8">
+        <f>X19*0.87</f>
+        <v>3451.6519200000002</v>
+      </c>
+      <c r="Y21" s="8">
+        <f t="shared" ref="Y21:AE21" si="15">Y19*0.87</f>
+        <v>3943.6797240000005</v>
+      </c>
+      <c r="Z21" s="8">
+        <f t="shared" si="15"/>
+        <v>4514.2828308000007</v>
+      </c>
+      <c r="AA21" s="8">
+        <f t="shared" si="15"/>
+        <v>4697.3010315600004</v>
+      </c>
+      <c r="AB21" s="8">
+        <f t="shared" si="15"/>
+        <v>4988.9067090120006</v>
+      </c>
+      <c r="AC21" s="8">
+        <f t="shared" si="15"/>
+        <v>5403.6189748404004</v>
+      </c>
+      <c r="AD21" s="8">
+        <f t="shared" si="15"/>
+        <v>5959.5806014318796</v>
+      </c>
+      <c r="AE21" s="8">
+        <f t="shared" si="15"/>
+        <v>6679.2107701793157</v>
       </c>
     </row>
     <row r="22" spans="1:216" x14ac:dyDescent="0.2">
@@ -2960,7 +2960,7 @@
         <v>556</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>590.68999999999994</v>
       </c>
       <c r="L22" s="4">
@@ -2973,7 +2973,7 @@
         <v>322.7</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>323.77</v>
       </c>
       <c r="P22">
@@ -2996,28 +2996,36 @@
         <v>1324.5</v>
       </c>
       <c r="X22" s="2">
-        <v>1324.5</v>
+        <f>W22*1.05</f>
+        <v>1390.7250000000001</v>
       </c>
       <c r="Y22" s="2">
-        <v>1324.5</v>
+        <f t="shared" ref="Y22:AE22" si="16">X22*1.05</f>
+        <v>1460.2612500000002</v>
       </c>
       <c r="Z22" s="2">
-        <v>1324.5</v>
+        <f t="shared" si="16"/>
+        <v>1533.2743125000004</v>
       </c>
       <c r="AA22" s="2">
-        <v>1324.5</v>
+        <f t="shared" si="16"/>
+        <v>1609.9380281250005</v>
       </c>
       <c r="AB22" s="2">
-        <v>1324.5</v>
+        <f t="shared" si="16"/>
+        <v>1690.4349295312506</v>
       </c>
       <c r="AC22" s="2">
-        <v>1324.5</v>
+        <f t="shared" si="16"/>
+        <v>1774.9566760078133</v>
       </c>
       <c r="AD22" s="2">
-        <v>1324.5</v>
+        <f t="shared" si="16"/>
+        <v>1863.704509808204</v>
       </c>
       <c r="AE22" s="2">
-        <v>1324.5</v>
+        <f t="shared" si="16"/>
+        <v>1956.8897352986141</v>
       </c>
     </row>
     <row r="23" spans="1:216" x14ac:dyDescent="0.2">
@@ -3034,7 +3042,7 @@
         <v>75</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>94.800000000000011</v>
       </c>
       <c r="L23" s="4">
@@ -3047,7 +3055,7 @@
         <v>78.17</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>107.16</v>
       </c>
       <c r="P23">
@@ -3069,28 +3077,36 @@
         <v>332.3</v>
       </c>
       <c r="X23" s="2">
-        <v>332.3</v>
+        <f t="shared" ref="X23:AE24" si="17">W23*1.05</f>
+        <v>348.91500000000002</v>
       </c>
       <c r="Y23" s="2">
-        <v>332.3</v>
+        <f t="shared" si="17"/>
+        <v>366.36075000000005</v>
       </c>
       <c r="Z23" s="2">
-        <v>332.3</v>
+        <f t="shared" si="17"/>
+        <v>384.67878750000006</v>
       </c>
       <c r="AA23" s="2">
-        <v>332.3</v>
+        <f t="shared" si="17"/>
+        <v>403.91272687500009</v>
       </c>
       <c r="AB23" s="2">
-        <v>332.3</v>
+        <f t="shared" si="17"/>
+        <v>424.10836321875013</v>
       </c>
       <c r="AC23" s="2">
-        <v>332.3</v>
+        <f t="shared" si="17"/>
+        <v>445.31378137968767</v>
       </c>
       <c r="AD23" s="2">
-        <v>332.3</v>
+        <f t="shared" si="17"/>
+        <v>467.57947044867205</v>
       </c>
       <c r="AE23" s="2">
-        <v>332.3</v>
+        <f t="shared" si="17"/>
+        <v>490.95844397110568</v>
       </c>
     </row>
     <row r="24" spans="1:216" x14ac:dyDescent="0.2">
@@ -3107,7 +3123,7 @@
         <v>339</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>378.02199999999993</v>
       </c>
       <c r="L24" s="4">
@@ -3120,7 +3136,7 @@
         <v>252.63</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>281.90999999999997</v>
       </c>
       <c r="P24">
@@ -3142,28 +3158,36 @@
         <v>1041.3</v>
       </c>
       <c r="X24" s="2">
-        <v>1041.3</v>
+        <f t="shared" si="17"/>
+        <v>1093.365</v>
       </c>
       <c r="Y24" s="2">
-        <v>1041.3</v>
+        <f t="shared" si="17"/>
+        <v>1148.03325</v>
       </c>
       <c r="Z24" s="2">
-        <v>1041.3</v>
+        <f t="shared" si="17"/>
+        <v>1205.4349125000001</v>
       </c>
       <c r="AA24" s="2">
-        <v>1041.3</v>
+        <f t="shared" si="17"/>
+        <v>1265.7066581250001</v>
       </c>
       <c r="AB24" s="2">
-        <v>1041.3</v>
+        <f t="shared" si="17"/>
+        <v>1328.9919910312501</v>
       </c>
       <c r="AC24" s="2">
-        <v>1041.3</v>
+        <f t="shared" si="17"/>
+        <v>1395.4415905828128</v>
       </c>
       <c r="AD24" s="2">
-        <v>1041.3</v>
+        <f t="shared" si="17"/>
+        <v>1465.2136701119534</v>
       </c>
       <c r="AE24" s="2">
-        <v>1041.3</v>
+        <f t="shared" si="17"/>
+        <v>1538.4743536175511</v>
       </c>
     </row>
     <row r="25" spans="1:216" x14ac:dyDescent="0.2">
@@ -3209,11 +3233,11 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2">
-        <f t="shared" ref="S25:T25" si="15">SUM(S22:S24)</f>
+        <f t="shared" ref="S25:T25" si="18">SUM(S22:S24)</f>
         <v>441</v>
       </c>
       <c r="T25" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>608</v>
       </c>
       <c r="U25" s="2">
@@ -3229,36 +3253,36 @@
         <v>2698.1</v>
       </c>
       <c r="X25" s="2">
-        <f t="shared" ref="X25:AE25" si="16">SUM(X22:X24)</f>
-        <v>2698.1</v>
+        <f t="shared" ref="X25:AE25" si="19">SUM(X22:X24)</f>
+        <v>2833.0050000000001</v>
       </c>
       <c r="Y25" s="2">
-        <f t="shared" si="16"/>
-        <v>2698.1</v>
+        <f t="shared" si="19"/>
+        <v>2974.6552500000003</v>
       </c>
       <c r="Z25" s="2">
-        <f t="shared" si="16"/>
-        <v>2698.1</v>
+        <f t="shared" si="19"/>
+        <v>3123.3880125000005</v>
       </c>
       <c r="AA25" s="2">
-        <f t="shared" si="16"/>
-        <v>2698.1</v>
+        <f t="shared" si="19"/>
+        <v>3279.5574131250005</v>
       </c>
       <c r="AB25" s="2">
-        <f t="shared" si="16"/>
-        <v>2698.1</v>
+        <f t="shared" si="19"/>
+        <v>3443.5352837812507</v>
       </c>
       <c r="AC25" s="2">
-        <f t="shared" si="16"/>
-        <v>2698.1</v>
+        <f t="shared" si="19"/>
+        <v>3615.7120479703135</v>
       </c>
       <c r="AD25" s="2">
-        <f t="shared" si="16"/>
-        <v>2698.1</v>
+        <f t="shared" si="19"/>
+        <v>3796.4976503688295</v>
       </c>
       <c r="AE25" s="2">
-        <f t="shared" si="16"/>
-        <v>2698.1</v>
+        <f t="shared" si="19"/>
+        <v>3986.3225328872709</v>
       </c>
     </row>
     <row r="26" spans="1:216" x14ac:dyDescent="0.2">
@@ -3308,7 +3332,7 @@
         <v>-0.30000000000006821</v>
       </c>
       <c r="T26" s="2">
-        <f t="shared" ref="S26:T26" si="17">T21-T25</f>
+        <f t="shared" ref="S26:T26" si="20">T21-T25</f>
         <v>530.90000000000009</v>
       </c>
       <c r="U26" s="2">
@@ -3324,36 +3348,36 @@
         <v>-10.709999999999582</v>
       </c>
       <c r="X26" s="2">
-        <f>X21*0.2</f>
-        <v>508.4674500000001</v>
+        <f t="shared" ref="X26:AE26" si="21">X21-X25</f>
+        <v>618.64692000000014</v>
       </c>
       <c r="Y26" s="2">
-        <f t="shared" ref="Y26:AE26" si="18">Y21*0.2</f>
-        <v>522.50285400000018</v>
+        <f t="shared" si="21"/>
+        <v>969.02447400000028</v>
       </c>
       <c r="Z26" s="2">
-        <f t="shared" si="18"/>
-        <v>539.78236545000016</v>
+        <f t="shared" si="21"/>
+        <v>1390.8948183000002</v>
       </c>
       <c r="AA26" s="2">
-        <f t="shared" si="18"/>
-        <v>560.53836674250022</v>
+        <f t="shared" si="21"/>
+        <v>1417.7436184349999</v>
       </c>
       <c r="AB26" s="2">
-        <f t="shared" si="18"/>
-        <v>585.03107992687524</v>
+        <f t="shared" si="21"/>
+        <v>1545.37142523075</v>
       </c>
       <c r="AC26" s="2">
-        <f t="shared" si="18"/>
-        <v>613.55112060418162</v>
+        <f t="shared" si="21"/>
+        <v>1787.9069268700869</v>
       </c>
       <c r="AD26" s="2">
-        <f t="shared" si="18"/>
-        <v>646.42231871498757</v>
+        <f t="shared" si="21"/>
+        <v>2163.0829510630501</v>
       </c>
       <c r="AE26" s="2">
-        <f t="shared" si="18"/>
-        <v>684.00483233435477</v>
+        <f t="shared" si="21"/>
+        <v>2692.8882372920448</v>
       </c>
     </row>
     <row r="27" spans="1:216" x14ac:dyDescent="0.2">
@@ -3370,7 +3394,7 @@
         <v>21</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" ref="K27:K30" si="19">V27-J27-I27-H27</f>
+        <f t="shared" ref="K27:K30" si="22">V27-J27-I27-H27</f>
         <v>22.300000000000004</v>
       </c>
       <c r="L27" s="4">
@@ -3383,8 +3407,14 @@
         <v>20.8</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" ref="O27:O30" si="20">W27-N27-M27-L27</f>
+        <f t="shared" ref="O27:O30" si="23">W27-N27-M27-L27</f>
         <v>19.300000000000004</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
       </c>
       <c r="U27" s="2">
         <v>29.1</v>
@@ -3394,6 +3424,38 @@
       </c>
       <c r="W27" s="2">
         <v>82.7</v>
+      </c>
+      <c r="X27" s="4">
+        <f>W27*1.05</f>
+        <v>86.835000000000008</v>
+      </c>
+      <c r="Y27" s="4">
+        <f>X27*1.01</f>
+        <v>87.703350000000015</v>
+      </c>
+      <c r="Z27" s="4">
+        <f t="shared" ref="Z27:AE27" si="24">Y27*1.01</f>
+        <v>88.580383500000011</v>
+      </c>
+      <c r="AA27" s="4">
+        <f t="shared" si="24"/>
+        <v>89.466187335000015</v>
+      </c>
+      <c r="AB27" s="4">
+        <f t="shared" si="24"/>
+        <v>90.360849208350018</v>
+      </c>
+      <c r="AC27" s="4">
+        <f t="shared" si="24"/>
+        <v>91.264457700433525</v>
+      </c>
+      <c r="AD27" s="4">
+        <f t="shared" si="24"/>
+        <v>92.177102277437854</v>
+      </c>
+      <c r="AE27" s="4">
+        <f t="shared" si="24"/>
+        <v>93.098873300212233</v>
       </c>
     </row>
     <row r="28" spans="1:216" x14ac:dyDescent="0.2">
@@ -3410,7 +3472,7 @@
         <v>-65.599999999999994</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4.2000000000000171</v>
       </c>
       <c r="L28" s="4">
@@ -3423,8 +3485,14 @@
         <v>135</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>36</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
       </c>
       <c r="U28" s="2">
         <v>-20.399999999999999</v>
@@ -3441,43 +3509,43 @@
         <v>28</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" ref="D29:M29" si="21">D26-D27+D28</f>
+        <f t="shared" ref="D29:M29" si="25">D26-D27+D28</f>
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-1238.4379999999996</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-1414.6</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-1056.6000000000001</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-1081.6120000000001</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-711.76</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-666.09999999999991</v>
       </c>
       <c r="N29" s="2">
@@ -3488,6 +3556,14 @@
         <f>O26-O27+O28</f>
         <v>134.65000000000026</v>
       </c>
+      <c r="S29" s="2">
+        <f t="shared" ref="S29:T29" si="26">S26-S27+S28</f>
+        <v>-0.30000000000006821</v>
+      </c>
+      <c r="T29" s="2">
+        <f t="shared" si="26"/>
+        <v>530.90000000000009</v>
+      </c>
       <c r="U29" s="2">
         <f>U26-U27+U28</f>
         <v>3658.5899999999983</v>
@@ -3501,36 +3577,36 @@
         <v>74.090000000000416</v>
       </c>
       <c r="X29" s="2">
-        <f t="shared" ref="X29:AE29" si="22">X26-X27+X28</f>
-        <v>508.4674500000001</v>
+        <f t="shared" ref="X29:AE29" si="27">X26-X27+X28</f>
+        <v>531.8119200000001</v>
       </c>
       <c r="Y29" s="2">
-        <f t="shared" si="22"/>
-        <v>522.50285400000018</v>
+        <f t="shared" si="27"/>
+        <v>881.32112400000028</v>
       </c>
       <c r="Z29" s="2">
-        <f t="shared" si="22"/>
-        <v>539.78236545000016</v>
+        <f t="shared" si="27"/>
+        <v>1302.3144348000003</v>
       </c>
       <c r="AA29" s="2">
-        <f t="shared" si="22"/>
-        <v>560.53836674250022</v>
+        <f t="shared" si="27"/>
+        <v>1328.2774310999998</v>
       </c>
       <c r="AB29" s="2">
-        <f t="shared" si="22"/>
-        <v>585.03107992687524</v>
+        <f t="shared" si="27"/>
+        <v>1455.0105760224001</v>
       </c>
       <c r="AC29" s="2">
-        <f t="shared" si="22"/>
-        <v>613.55112060418162</v>
+        <f t="shared" si="27"/>
+        <v>1696.6424691696534</v>
       </c>
       <c r="AD29" s="2">
-        <f t="shared" si="22"/>
-        <v>646.42231871498757</v>
+        <f t="shared" si="27"/>
+        <v>2070.9058487856123</v>
       </c>
       <c r="AE29" s="2">
-        <f t="shared" si="22"/>
-        <v>684.00483233435477</v>
+        <f t="shared" si="27"/>
+        <v>2599.7893639918325</v>
       </c>
     </row>
     <row r="30" spans="1:216" x14ac:dyDescent="0.2">
@@ -3547,7 +3623,7 @@
         <v>-99</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-14.600000000000023</v>
       </c>
       <c r="L30" s="4">
@@ -3560,8 +3636,14 @@
         <v>36.9</v>
       </c>
       <c r="O30" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-139.82</v>
+      </c>
+      <c r="S30">
+        <v>-15</v>
+      </c>
+      <c r="T30">
+        <v>87</v>
       </c>
       <c r="U30" s="2">
         <v>-597</v>
@@ -3571,6 +3653,38 @@
       </c>
       <c r="W30" s="2">
         <v>-171.7</v>
+      </c>
+      <c r="X30" s="4">
+        <f>X29*0.18</f>
+        <v>95.726145600000009</v>
+      </c>
+      <c r="Y30" s="4">
+        <f t="shared" ref="Y30:AE30" si="28">Y29*0.18</f>
+        <v>158.63780232000005</v>
+      </c>
+      <c r="Z30" s="4">
+        <f t="shared" si="28"/>
+        <v>234.41659826400004</v>
+      </c>
+      <c r="AA30" s="4">
+        <f t="shared" si="28"/>
+        <v>239.08993759799995</v>
+      </c>
+      <c r="AB30" s="4">
+        <f t="shared" si="28"/>
+        <v>261.90190368403199</v>
+      </c>
+      <c r="AC30" s="4">
+        <f t="shared" si="28"/>
+        <v>305.39564445053759</v>
+      </c>
+      <c r="AD30" s="4">
+        <f t="shared" si="28"/>
+        <v>372.76305278141018</v>
+      </c>
+      <c r="AE30" s="4">
+        <f t="shared" si="28"/>
+        <v>467.96208551852982</v>
       </c>
     </row>
     <row r="31" spans="1:216" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3609,6 +3723,14 @@
         <f>O29-O30</f>
         <v>274.47000000000025</v>
       </c>
+      <c r="S31" s="8">
+        <f t="shared" ref="S31:T31" si="29">S29-S30</f>
+        <v>14.699999999999932</v>
+      </c>
+      <c r="T31" s="8">
+        <f t="shared" si="29"/>
+        <v>443.90000000000009</v>
+      </c>
       <c r="U31" s="8">
         <f>U29-U30</f>
         <v>4255.5899999999983</v>
@@ -3622,776 +3744,776 @@
         <v>245.79000000000042</v>
       </c>
       <c r="X31" s="8">
-        <f t="shared" ref="X31:AE31" si="23">X29-X30</f>
-        <v>508.4674500000001</v>
+        <f t="shared" ref="X31:AE31" si="30">X29-X30</f>
+        <v>436.0857744000001</v>
       </c>
       <c r="Y31" s="8">
-        <f t="shared" si="23"/>
-        <v>522.50285400000018</v>
+        <f t="shared" si="30"/>
+        <v>722.68332168000029</v>
       </c>
       <c r="Z31" s="8">
-        <f t="shared" si="23"/>
-        <v>539.78236545000016</v>
+        <f t="shared" si="30"/>
+        <v>1067.8978365360003</v>
       </c>
       <c r="AA31" s="8">
-        <f t="shared" si="23"/>
-        <v>560.53836674250022</v>
+        <f t="shared" si="30"/>
+        <v>1089.1874935019998</v>
       </c>
       <c r="AB31" s="8">
-        <f t="shared" si="23"/>
-        <v>585.03107992687524</v>
+        <f t="shared" si="30"/>
+        <v>1193.108672338368</v>
       </c>
       <c r="AC31" s="8">
-        <f t="shared" si="23"/>
-        <v>613.55112060418162</v>
+        <f t="shared" si="30"/>
+        <v>1391.2468247191159</v>
       </c>
       <c r="AD31" s="8">
-        <f t="shared" si="23"/>
-        <v>646.42231871498757</v>
+        <f t="shared" si="30"/>
+        <v>1698.1427960042022</v>
       </c>
       <c r="AE31" s="8">
-        <f t="shared" si="23"/>
-        <v>684.00483233435477</v>
+        <f t="shared" si="30"/>
+        <v>2131.8272784733026</v>
       </c>
       <c r="AF31" s="6">
         <f>AE31*(1+$AH$35)</f>
-        <v>677.16478401101119</v>
+        <v>2110.5090056885697</v>
       </c>
       <c r="AG31" s="6">
         <f>AF31*(1+$AH$35)</f>
-        <v>670.39313617090113</v>
+        <v>2089.403915631684</v>
       </c>
       <c r="AH31" s="6">
-        <f t="shared" ref="AH31:CS31" si="24">AG31*(1+$AH$35)</f>
-        <v>663.68920480919212</v>
+        <f t="shared" ref="AH31:CS31" si="31">AG31*(1+$AH$35)</f>
+        <v>2068.509876475367</v>
       </c>
       <c r="AI31" s="6">
-        <f t="shared" si="24"/>
-        <v>657.05231276110021</v>
+        <f t="shared" si="31"/>
+        <v>2047.8247777106133</v>
       </c>
       <c r="AJ31" s="6">
-        <f t="shared" si="24"/>
-        <v>650.48178963348926</v>
+        <f t="shared" si="31"/>
+        <v>2027.3465299335071</v>
       </c>
       <c r="AK31" s="6">
-        <f t="shared" si="24"/>
-        <v>643.97697173715437</v>
+        <f t="shared" si="31"/>
+        <v>2007.0730646341719</v>
       </c>
       <c r="AL31" s="6">
-        <f t="shared" si="24"/>
-        <v>637.53720201978285</v>
+        <f t="shared" si="31"/>
+        <v>1987.0023339878303</v>
       </c>
       <c r="AM31" s="6">
-        <f t="shared" si="24"/>
-        <v>631.16182999958505</v>
+        <f t="shared" si="31"/>
+        <v>1967.132310647952</v>
       </c>
       <c r="AN31" s="6">
-        <f t="shared" si="24"/>
-        <v>624.85021169958918</v>
+        <f t="shared" si="31"/>
+        <v>1947.4609875414724</v>
       </c>
       <c r="AO31" s="6">
-        <f t="shared" si="24"/>
-        <v>618.60170958259323</v>
+        <f t="shared" si="31"/>
+        <v>1927.9863776660577</v>
       </c>
       <c r="AP31" s="6">
-        <f t="shared" si="24"/>
-        <v>612.41569248676728</v>
+        <f t="shared" si="31"/>
+        <v>1908.706513889397</v>
       </c>
       <c r="AQ31" s="6">
-        <f t="shared" si="24"/>
-        <v>606.29153556189965</v>
+        <f t="shared" si="31"/>
+        <v>1889.6194487505031</v>
       </c>
       <c r="AR31" s="6">
-        <f t="shared" si="24"/>
-        <v>600.22862020628065</v>
+        <f t="shared" si="31"/>
+        <v>1870.7232542629981</v>
       </c>
       <c r="AS31" s="6">
-        <f t="shared" si="24"/>
-        <v>594.22633400421785</v>
+        <f t="shared" si="31"/>
+        <v>1852.0160217203681</v>
       </c>
       <c r="AT31" s="6">
-        <f t="shared" si="24"/>
-        <v>588.28407066417572</v>
+        <f t="shared" si="31"/>
+        <v>1833.4958615031644</v>
       </c>
       <c r="AU31" s="6">
-        <f t="shared" si="24"/>
-        <v>582.40122995753393</v>
+        <f t="shared" si="31"/>
+        <v>1815.1609028881328</v>
       </c>
       <c r="AV31" s="6">
-        <f t="shared" si="24"/>
-        <v>576.57721765795861</v>
+        <f t="shared" si="31"/>
+        <v>1797.0092938592516</v>
       </c>
       <c r="AW31" s="6">
-        <f t="shared" si="24"/>
-        <v>570.811445481379</v>
+        <f t="shared" si="31"/>
+        <v>1779.0392009206589</v>
       </c>
       <c r="AX31" s="6">
-        <f t="shared" si="24"/>
-        <v>565.10333102656523</v>
+        <f t="shared" si="31"/>
+        <v>1761.2488089114522</v>
       </c>
       <c r="AY31" s="6">
-        <f t="shared" si="24"/>
-        <v>559.45229771629954</v>
+        <f t="shared" si="31"/>
+        <v>1743.6363208223377</v>
       </c>
       <c r="AZ31" s="6">
-        <f t="shared" si="24"/>
-        <v>553.85777473913652</v>
+        <f t="shared" si="31"/>
+        <v>1726.1999576141143</v>
       </c>
       <c r="BA31" s="6">
-        <f t="shared" si="24"/>
-        <v>548.31919699174512</v>
+        <f t="shared" si="31"/>
+        <v>1708.9379580379732</v>
       </c>
       <c r="BB31" s="6">
-        <f t="shared" si="24"/>
-        <v>542.83600502182765</v>
+        <f t="shared" si="31"/>
+        <v>1691.8485784575935</v>
       </c>
       <c r="BC31" s="6">
-        <f t="shared" si="24"/>
-        <v>537.40764497160933</v>
+        <f t="shared" si="31"/>
+        <v>1674.9300926730175</v>
       </c>
       <c r="BD31" s="6">
-        <f t="shared" si="24"/>
-        <v>532.03356852189324</v>
+        <f t="shared" si="31"/>
+        <v>1658.1807917462872</v>
       </c>
       <c r="BE31" s="6">
-        <f t="shared" si="24"/>
-        <v>526.71323283667425</v>
+        <f t="shared" si="31"/>
+        <v>1641.5989838288244</v>
       </c>
       <c r="BF31" s="6">
-        <f t="shared" si="24"/>
-        <v>521.4461005083075</v>
+        <f t="shared" si="31"/>
+        <v>1625.1829939905363</v>
       </c>
       <c r="BG31" s="6">
-        <f t="shared" si="24"/>
-        <v>516.23163950322441</v>
+        <f t="shared" si="31"/>
+        <v>1608.931164050631</v>
       </c>
       <c r="BH31" s="6">
-        <f t="shared" si="24"/>
-        <v>511.06932310819218</v>
+        <f t="shared" si="31"/>
+        <v>1592.8418524101246</v>
       </c>
       <c r="BI31" s="6">
-        <f t="shared" si="24"/>
-        <v>505.95862987711024</v>
+        <f t="shared" si="31"/>
+        <v>1576.9134338860233</v>
       </c>
       <c r="BJ31" s="6">
-        <f t="shared" si="24"/>
-        <v>500.89904357833916</v>
+        <f t="shared" si="31"/>
+        <v>1561.144299547163</v>
       </c>
       <c r="BK31" s="6">
-        <f t="shared" si="24"/>
-        <v>495.89005314255576</v>
+        <f t="shared" si="31"/>
+        <v>1545.5328565516913</v>
       </c>
       <c r="BL31" s="6">
-        <f t="shared" si="24"/>
-        <v>490.93115261113019</v>
+        <f t="shared" si="31"/>
+        <v>1530.0775279861743</v>
       </c>
       <c r="BM31" s="6">
-        <f t="shared" si="24"/>
-        <v>486.02184108501888</v>
+        <f t="shared" si="31"/>
+        <v>1514.7767527063127</v>
       </c>
       <c r="BN31" s="6">
-        <f t="shared" si="24"/>
-        <v>481.16162267416871</v>
+        <f t="shared" si="31"/>
+        <v>1499.6289851792494</v>
       </c>
       <c r="BO31" s="6">
-        <f t="shared" si="24"/>
-        <v>476.35000644742701</v>
+        <f t="shared" si="31"/>
+        <v>1484.632695327457</v>
       </c>
       <c r="BP31" s="6">
-        <f t="shared" si="24"/>
-        <v>471.58650638295273</v>
+        <f t="shared" si="31"/>
+        <v>1469.7863683741823</v>
       </c>
       <c r="BQ31" s="6">
-        <f t="shared" si="24"/>
-        <v>466.87064131912319</v>
+        <f t="shared" si="31"/>
+        <v>1455.0885046904405</v>
       </c>
       <c r="BR31" s="6">
-        <f t="shared" si="24"/>
-        <v>462.20193490593198</v>
+        <f t="shared" si="31"/>
+        <v>1440.5376196435361</v>
       </c>
       <c r="BS31" s="6">
-        <f t="shared" si="24"/>
-        <v>457.57991555687266</v>
+        <f t="shared" si="31"/>
+        <v>1426.1322434471008</v>
       </c>
       <c r="BT31" s="6">
-        <f t="shared" si="24"/>
-        <v>453.00411640130392</v>
+        <f t="shared" si="31"/>
+        <v>1411.8709210126299</v>
       </c>
       <c r="BU31" s="6">
-        <f t="shared" si="24"/>
-        <v>448.47407523729089</v>
+        <f t="shared" si="31"/>
+        <v>1397.7522118025036</v>
       </c>
       <c r="BV31" s="6">
-        <f t="shared" si="24"/>
-        <v>443.989334484918</v>
+        <f t="shared" si="31"/>
+        <v>1383.7746896844785</v>
       </c>
       <c r="BW31" s="6">
-        <f t="shared" si="24"/>
-        <v>439.54944114006884</v>
+        <f t="shared" si="31"/>
+        <v>1369.9369427876338</v>
       </c>
       <c r="BX31" s="6">
-        <f t="shared" si="24"/>
-        <v>435.15394672866813</v>
+        <f t="shared" si="31"/>
+        <v>1356.2375733597576</v>
       </c>
       <c r="BY31" s="6">
-        <f t="shared" si="24"/>
-        <v>430.80240726138146</v>
+        <f t="shared" si="31"/>
+        <v>1342.6751976261601</v>
       </c>
       <c r="BZ31" s="6">
-        <f t="shared" si="24"/>
-        <v>426.49438318876764</v>
+        <f t="shared" si="31"/>
+        <v>1329.2484456498985</v>
       </c>
       <c r="CA31" s="6">
-        <f t="shared" si="24"/>
-        <v>422.22943935687994</v>
+        <f t="shared" si="31"/>
+        <v>1315.9559611933994</v>
       </c>
       <c r="CB31" s="6">
-        <f t="shared" si="24"/>
-        <v>418.00714496331113</v>
+        <f t="shared" si="31"/>
+        <v>1302.7964015814655</v>
       </c>
       <c r="CC31" s="6">
-        <f t="shared" si="24"/>
-        <v>413.82707351367804</v>
+        <f t="shared" si="31"/>
+        <v>1289.7684375656509</v>
       </c>
       <c r="CD31" s="6">
-        <f t="shared" si="24"/>
-        <v>409.68880277854129</v>
+        <f t="shared" si="31"/>
+        <v>1276.8707531899943</v>
       </c>
       <c r="CE31" s="6">
-        <f t="shared" si="24"/>
-        <v>405.59191475075585</v>
+        <f t="shared" si="31"/>
+        <v>1264.1020456580943</v>
       </c>
       <c r="CF31" s="6">
-        <f t="shared" si="24"/>
-        <v>401.5359956032483</v>
+        <f t="shared" si="31"/>
+        <v>1251.4610252015134</v>
       </c>
       <c r="CG31" s="6">
-        <f t="shared" si="24"/>
-        <v>397.52063564721578</v>
+        <f t="shared" si="31"/>
+        <v>1238.9464149494981</v>
       </c>
       <c r="CH31" s="6">
-        <f t="shared" si="24"/>
-        <v>393.54542929074364</v>
+        <f t="shared" si="31"/>
+        <v>1226.5569508000031</v>
       </c>
       <c r="CI31" s="6">
-        <f t="shared" si="24"/>
-        <v>389.60997499783622</v>
+        <f t="shared" si="31"/>
+        <v>1214.2913812920031</v>
       </c>
       <c r="CJ31" s="6">
-        <f t="shared" si="24"/>
-        <v>385.71387524785786</v>
+        <f t="shared" si="31"/>
+        <v>1202.1484674790829</v>
       </c>
       <c r="CK31" s="6">
-        <f t="shared" si="24"/>
-        <v>381.85673649537927</v>
+        <f t="shared" si="31"/>
+        <v>1190.1269828042921</v>
       </c>
       <c r="CL31" s="6">
-        <f t="shared" si="24"/>
-        <v>378.03816913042544</v>
+        <f t="shared" si="31"/>
+        <v>1178.225712976249</v>
       </c>
       <c r="CM31" s="6">
-        <f t="shared" si="24"/>
-        <v>374.25778743912116</v>
+        <f t="shared" si="31"/>
+        <v>1166.4434558464866</v>
       </c>
       <c r="CN31" s="6">
-        <f t="shared" si="24"/>
-        <v>370.51520956472996</v>
+        <f t="shared" si="31"/>
+        <v>1154.7790212880218</v>
       </c>
       <c r="CO31" s="6">
-        <f t="shared" si="24"/>
-        <v>366.81005746908266</v>
+        <f t="shared" si="31"/>
+        <v>1143.2312310751415</v>
       </c>
       <c r="CP31" s="6">
-        <f t="shared" si="24"/>
-        <v>363.14195689439185</v>
+        <f t="shared" si="31"/>
+        <v>1131.79891876439</v>
       </c>
       <c r="CQ31" s="6">
-        <f t="shared" si="24"/>
-        <v>359.51053732544796</v>
+        <f t="shared" si="31"/>
+        <v>1120.4809295767461</v>
       </c>
       <c r="CR31" s="6">
-        <f t="shared" si="24"/>
-        <v>355.9154319521935</v>
+        <f t="shared" si="31"/>
+        <v>1109.2761202809786</v>
       </c>
       <c r="CS31" s="6">
-        <f t="shared" si="24"/>
-        <v>352.35627763267155</v>
+        <f t="shared" si="31"/>
+        <v>1098.1833590781689</v>
       </c>
       <c r="CT31" s="6">
-        <f t="shared" ref="CT31:FE31" si="25">CS31*(1+$AH$35)</f>
-        <v>348.83271485634481</v>
+        <f t="shared" ref="CT31:FE31" si="32">CS31*(1+$AH$35)</f>
+        <v>1087.2015254873872</v>
       </c>
       <c r="CU31" s="6">
-        <f t="shared" si="25"/>
-        <v>345.34438770778138</v>
+        <f t="shared" si="32"/>
+        <v>1076.3295102325133</v>
       </c>
       <c r="CV31" s="6">
-        <f t="shared" si="25"/>
-        <v>341.89094383070358</v>
+        <f t="shared" si="32"/>
+        <v>1065.5662151301881</v>
       </c>
       <c r="CW31" s="6">
-        <f t="shared" si="25"/>
-        <v>338.47203439239655</v>
+        <f t="shared" si="32"/>
+        <v>1054.9105529788862</v>
       </c>
       <c r="CX31" s="6">
-        <f t="shared" si="25"/>
-        <v>335.08731404847259</v>
+        <f t="shared" si="32"/>
+        <v>1044.3614474490973</v>
       </c>
       <c r="CY31" s="6">
-        <f t="shared" si="25"/>
-        <v>331.73644090798786</v>
+        <f t="shared" si="32"/>
+        <v>1033.9178329746064</v>
       </c>
       <c r="CZ31" s="6">
-        <f t="shared" si="25"/>
-        <v>328.419076498908</v>
+        <f t="shared" si="32"/>
+        <v>1023.5786546448603</v>
       </c>
       <c r="DA31" s="6">
-        <f t="shared" si="25"/>
-        <v>325.13488573391891</v>
+        <f t="shared" si="32"/>
+        <v>1013.3428680984117</v>
       </c>
       <c r="DB31" s="6">
-        <f t="shared" si="25"/>
-        <v>321.88353687657974</v>
+        <f t="shared" si="32"/>
+        <v>1003.2094394174276</v>
       </c>
       <c r="DC31" s="6">
-        <f t="shared" si="25"/>
-        <v>318.66470150781396</v>
+        <f t="shared" si="32"/>
+        <v>993.17734502325334</v>
       </c>
       <c r="DD31" s="6">
-        <f t="shared" si="25"/>
-        <v>315.47805449273579</v>
+        <f t="shared" si="32"/>
+        <v>983.24557157302081</v>
       </c>
       <c r="DE31" s="6">
-        <f t="shared" si="25"/>
-        <v>312.32327394780845</v>
+        <f t="shared" si="32"/>
+        <v>973.41311585729056</v>
       </c>
       <c r="DF31" s="6">
-        <f t="shared" si="25"/>
-        <v>309.20004120833033</v>
+        <f t="shared" si="32"/>
+        <v>963.67898469871761</v>
       </c>
       <c r="DG31" s="6">
-        <f t="shared" si="25"/>
-        <v>306.10804079624705</v>
+        <f t="shared" si="32"/>
+        <v>954.04219485173041</v>
       </c>
       <c r="DH31" s="6">
-        <f t="shared" si="25"/>
-        <v>303.04696038828456</v>
+        <f t="shared" si="32"/>
+        <v>944.50177290321312</v>
       </c>
       <c r="DI31" s="6">
-        <f t="shared" si="25"/>
-        <v>300.0164907844017</v>
+        <f t="shared" si="32"/>
+        <v>935.05675517418103</v>
       </c>
       <c r="DJ31" s="6">
-        <f t="shared" si="25"/>
-        <v>297.01632587655769</v>
+        <f t="shared" si="32"/>
+        <v>925.70618762243919</v>
       </c>
       <c r="DK31" s="6">
-        <f t="shared" si="25"/>
-        <v>294.04616261779211</v>
+        <f t="shared" si="32"/>
+        <v>916.4491257462148</v>
       </c>
       <c r="DL31" s="6">
-        <f t="shared" si="25"/>
-        <v>291.10570099161419</v>
+        <f t="shared" si="32"/>
+        <v>907.28463448875266</v>
       </c>
       <c r="DM31" s="6">
-        <f t="shared" si="25"/>
-        <v>288.19464398169805</v>
+        <f t="shared" si="32"/>
+        <v>898.21178814386508</v>
       </c>
       <c r="DN31" s="6">
-        <f t="shared" si="25"/>
-        <v>285.31269754188105</v>
+        <f t="shared" si="32"/>
+        <v>889.22967026242645</v>
       </c>
       <c r="DO31" s="6">
-        <f t="shared" si="25"/>
-        <v>282.45957056646222</v>
+        <f t="shared" si="32"/>
+        <v>880.33737355980213</v>
       </c>
       <c r="DP31" s="6">
-        <f t="shared" si="25"/>
-        <v>279.63497486079757</v>
+        <f t="shared" si="32"/>
+        <v>871.5339998242041</v>
       </c>
       <c r="DQ31" s="6">
-        <f t="shared" si="25"/>
-        <v>276.83862511218962</v>
+        <f t="shared" si="32"/>
+        <v>862.81865982596207</v>
       </c>
       <c r="DR31" s="6">
-        <f t="shared" si="25"/>
-        <v>274.07023886106771</v>
+        <f t="shared" si="32"/>
+        <v>854.19047322770246</v>
       </c>
       <c r="DS31" s="6">
-        <f t="shared" si="25"/>
-        <v>271.32953647245705</v>
+        <f t="shared" si="32"/>
+        <v>845.64856849542548</v>
       </c>
       <c r="DT31" s="6">
-        <f t="shared" si="25"/>
-        <v>268.61624110773249</v>
+        <f t="shared" si="32"/>
+        <v>837.19208281047122</v>
       </c>
       <c r="DU31" s="6">
-        <f t="shared" si="25"/>
-        <v>265.93007869665519</v>
+        <f t="shared" si="32"/>
+        <v>828.82016198236647</v>
       </c>
       <c r="DV31" s="6">
-        <f t="shared" si="25"/>
-        <v>263.2707779096886</v>
+        <f t="shared" si="32"/>
+        <v>820.5319603625428</v>
       </c>
       <c r="DW31" s="6">
-        <f t="shared" si="25"/>
-        <v>260.6380701305917</v>
+        <f t="shared" si="32"/>
+        <v>812.32664075891739</v>
       </c>
       <c r="DX31" s="6">
-        <f t="shared" si="25"/>
-        <v>258.03168942928579</v>
+        <f t="shared" si="32"/>
+        <v>804.20337435132819</v>
       </c>
       <c r="DY31" s="6">
-        <f t="shared" si="25"/>
-        <v>255.45137253499294</v>
+        <f t="shared" si="32"/>
+        <v>796.16134060781485</v>
       </c>
       <c r="DZ31" s="6">
-        <f t="shared" si="25"/>
-        <v>252.89685880964302</v>
+        <f t="shared" si="32"/>
+        <v>788.19972720173666</v>
       </c>
       <c r="EA31" s="6">
-        <f t="shared" si="25"/>
-        <v>250.36789022154659</v>
+        <f t="shared" si="32"/>
+        <v>780.31772992971923</v>
       </c>
       <c r="EB31" s="6">
-        <f t="shared" si="25"/>
-        <v>247.86421131933113</v>
+        <f t="shared" si="32"/>
+        <v>772.51455263042203</v>
       </c>
       <c r="EC31" s="6">
-        <f t="shared" si="25"/>
-        <v>245.38556920613783</v>
+        <f t="shared" si="32"/>
+        <v>764.7894071041178</v>
       </c>
       <c r="ED31" s="6">
-        <f t="shared" si="25"/>
-        <v>242.93171351407645</v>
+        <f t="shared" si="32"/>
+        <v>757.14151303307665</v>
       </c>
       <c r="EE31" s="6">
-        <f t="shared" si="25"/>
-        <v>240.50239637893569</v>
+        <f t="shared" si="32"/>
+        <v>749.57009790274583</v>
       </c>
       <c r="EF31" s="6">
-        <f t="shared" si="25"/>
-        <v>238.09737241514634</v>
+        <f t="shared" si="32"/>
+        <v>742.07439692371838</v>
       </c>
       <c r="EG31" s="6">
-        <f t="shared" si="25"/>
-        <v>235.71639869099488</v>
+        <f t="shared" si="32"/>
+        <v>734.65365295448123</v>
       </c>
       <c r="EH31" s="6">
-        <f t="shared" si="25"/>
-        <v>233.35923470408494</v>
+        <f t="shared" si="32"/>
+        <v>727.30711642493645</v>
       </c>
       <c r="EI31" s="6">
-        <f t="shared" si="25"/>
-        <v>231.02564235704409</v>
+        <f t="shared" si="32"/>
+        <v>720.03404526068709</v>
       </c>
       <c r="EJ31" s="6">
-        <f t="shared" si="25"/>
-        <v>228.71538593347364</v>
+        <f t="shared" si="32"/>
+        <v>712.83370480808026</v>
       </c>
       <c r="EK31" s="6">
-        <f t="shared" si="25"/>
-        <v>226.42823207413889</v>
+        <f t="shared" si="32"/>
+        <v>705.70536775999949</v>
       </c>
       <c r="EL31" s="6">
-        <f t="shared" si="25"/>
-        <v>224.1639497533975</v>
+        <f t="shared" si="32"/>
+        <v>698.64831408239945</v>
       </c>
       <c r="EM31" s="6">
-        <f t="shared" si="25"/>
-        <v>221.92231025586352</v>
+        <f t="shared" si="32"/>
+        <v>691.66183094157543</v>
       </c>
       <c r="EN31" s="6">
-        <f t="shared" si="25"/>
-        <v>219.70308715330489</v>
+        <f t="shared" si="32"/>
+        <v>684.74521263215968</v>
       </c>
       <c r="EO31" s="6">
-        <f t="shared" si="25"/>
-        <v>217.50605628177183</v>
+        <f t="shared" si="32"/>
+        <v>677.89776050583805</v>
       </c>
       <c r="EP31" s="6">
-        <f t="shared" si="25"/>
-        <v>215.33099571895411</v>
+        <f t="shared" si="32"/>
+        <v>671.11878290077971</v>
       </c>
       <c r="EQ31" s="6">
-        <f t="shared" si="25"/>
-        <v>213.17768576176456</v>
+        <f t="shared" si="32"/>
+        <v>664.40759507177188</v>
       </c>
       <c r="ER31" s="6">
-        <f t="shared" si="25"/>
-        <v>211.04590890414693</v>
+        <f t="shared" si="32"/>
+        <v>657.76351912105417</v>
       </c>
       <c r="ES31" s="6">
-        <f t="shared" si="25"/>
-        <v>208.93544981510544</v>
+        <f t="shared" si="32"/>
+        <v>651.18588392984361</v>
       </c>
       <c r="ET31" s="6">
-        <f t="shared" si="25"/>
-        <v>206.84609531695438</v>
+        <f t="shared" si="32"/>
+        <v>644.67402509054511</v>
       </c>
       <c r="EU31" s="6">
-        <f t="shared" si="25"/>
-        <v>204.77763436378484</v>
+        <f t="shared" si="32"/>
+        <v>638.22728483963965</v>
       </c>
       <c r="EV31" s="6">
-        <f t="shared" si="25"/>
-        <v>202.72985802014699</v>
+        <f t="shared" si="32"/>
+        <v>631.84501199124327</v>
       </c>
       <c r="EW31" s="6">
-        <f t="shared" si="25"/>
-        <v>200.70255943994553</v>
+        <f t="shared" si="32"/>
+        <v>625.52656187133084</v>
       </c>
       <c r="EX31" s="6">
-        <f t="shared" si="25"/>
-        <v>198.69553384554607</v>
+        <f t="shared" si="32"/>
+        <v>619.2712962526175</v>
       </c>
       <c r="EY31" s="6">
-        <f t="shared" si="25"/>
-        <v>196.70857850709061</v>
+        <f t="shared" si="32"/>
+        <v>613.07858329009127</v>
       </c>
       <c r="EZ31" s="6">
-        <f t="shared" si="25"/>
-        <v>194.7414927220197</v>
+        <f t="shared" si="32"/>
+        <v>606.9477974571904</v>
       </c>
       <c r="FA31" s="6">
-        <f t="shared" si="25"/>
-        <v>192.79407779479951</v>
+        <f t="shared" si="32"/>
+        <v>600.87831948261851</v>
       </c>
       <c r="FB31" s="6">
-        <f t="shared" si="25"/>
-        <v>190.8661370168515</v>
+        <f t="shared" si="32"/>
+        <v>594.86953628779236</v>
       </c>
       <c r="FC31" s="6">
-        <f t="shared" si="25"/>
-        <v>188.95747564668298</v>
+        <f t="shared" si="32"/>
+        <v>588.92084092491439</v>
       </c>
       <c r="FD31" s="6">
-        <f t="shared" si="25"/>
-        <v>187.06790089021615</v>
+        <f t="shared" si="32"/>
+        <v>583.03163251566525</v>
       </c>
       <c r="FE31" s="6">
-        <f t="shared" si="25"/>
-        <v>185.19722188131399</v>
+        <f t="shared" si="32"/>
+        <v>577.20131619050858</v>
       </c>
       <c r="FF31" s="6">
-        <f t="shared" ref="FF31:HH31" si="26">FE31*(1+$AH$35)</f>
-        <v>183.34524966250086</v>
+        <f t="shared" ref="FF31:HH31" si="33">FE31*(1+$AH$35)</f>
+        <v>571.4293030286035</v>
       </c>
       <c r="FG31" s="6">
-        <f t="shared" si="26"/>
-        <v>181.51179716587586</v>
+        <f t="shared" si="33"/>
+        <v>565.71500999831744</v>
       </c>
       <c r="FH31" s="6">
-        <f t="shared" si="26"/>
-        <v>179.6966791942171</v>
+        <f t="shared" si="33"/>
+        <v>560.0578598983343</v>
       </c>
       <c r="FI31" s="6">
-        <f t="shared" si="26"/>
-        <v>177.89971240227493</v>
+        <f t="shared" si="33"/>
+        <v>554.45728129935094</v>
       </c>
       <c r="FJ31" s="6">
-        <f t="shared" si="26"/>
-        <v>176.12071527825219</v>
+        <f t="shared" si="33"/>
+        <v>548.91270848635747</v>
       </c>
       <c r="FK31" s="6">
-        <f t="shared" si="26"/>
-        <v>174.35950812546966</v>
+        <f t="shared" si="33"/>
+        <v>543.42358140149395</v>
       </c>
       <c r="FL31" s="6">
-        <f t="shared" si="26"/>
-        <v>172.61591304421495</v>
+        <f t="shared" si="33"/>
+        <v>537.98934558747897</v>
       </c>
       <c r="FM31" s="6">
-        <f t="shared" si="26"/>
-        <v>170.88975391377281</v>
+        <f t="shared" si="33"/>
+        <v>532.60945213160414</v>
       </c>
       <c r="FN31" s="6">
-        <f t="shared" si="26"/>
-        <v>169.18085637463508</v>
+        <f t="shared" si="33"/>
+        <v>527.28335761028814</v>
       </c>
       <c r="FO31" s="6">
-        <f t="shared" si="26"/>
-        <v>167.48904781088874</v>
+        <f t="shared" si="33"/>
+        <v>522.01052403418521</v>
       </c>
       <c r="FP31" s="6">
-        <f t="shared" si="26"/>
-        <v>165.81415733277984</v>
+        <f t="shared" si="33"/>
+        <v>516.7904187938434</v>
       </c>
       <c r="FQ31" s="6">
-        <f t="shared" si="26"/>
-        <v>164.15601575945203</v>
+        <f t="shared" si="33"/>
+        <v>511.62251460590494</v>
       </c>
       <c r="FR31" s="6">
-        <f t="shared" si="26"/>
-        <v>162.51445560185752</v>
+        <f t="shared" si="33"/>
+        <v>506.5062894598459</v>
       </c>
       <c r="FS31" s="6">
-        <f t="shared" si="26"/>
-        <v>160.88931104583895</v>
+        <f t="shared" si="33"/>
+        <v>501.44122656524746</v>
       </c>
       <c r="FT31" s="6">
-        <f t="shared" si="26"/>
-        <v>159.28041793538057</v>
+        <f t="shared" si="33"/>
+        <v>496.42681429959498</v>
       </c>
       <c r="FU31" s="6">
-        <f t="shared" si="26"/>
-        <v>157.68761375602676</v>
+        <f t="shared" si="33"/>
+        <v>491.46254615659905</v>
       </c>
       <c r="FV31" s="6">
-        <f t="shared" si="26"/>
-        <v>156.11073761846649</v>
+        <f t="shared" si="33"/>
+        <v>486.54792069503304</v>
       </c>
       <c r="FW31" s="6">
-        <f t="shared" si="26"/>
-        <v>154.54963024228181</v>
+        <f t="shared" si="33"/>
+        <v>481.6824414880827</v>
       </c>
       <c r="FX31" s="6">
-        <f t="shared" si="26"/>
-        <v>153.00413393985897</v>
+        <f t="shared" si="33"/>
+        <v>476.86561707320186</v>
       </c>
       <c r="FY31" s="6">
-        <f t="shared" si="26"/>
-        <v>151.47409260046038</v>
+        <f t="shared" si="33"/>
+        <v>472.09696090246985</v>
       </c>
       <c r="FZ31" s="6">
-        <f t="shared" si="26"/>
-        <v>149.95935167445577</v>
+        <f t="shared" si="33"/>
+        <v>467.37599129344517</v>
       </c>
       <c r="GA31" s="6">
-        <f t="shared" si="26"/>
-        <v>148.45975815771121</v>
+        <f t="shared" si="33"/>
+        <v>462.70223138051074</v>
       </c>
       <c r="GB31" s="6">
-        <f t="shared" si="26"/>
-        <v>146.9751605761341</v>
+        <f t="shared" si="33"/>
+        <v>458.07520906670561</v>
       </c>
       <c r="GC31" s="6">
-        <f t="shared" si="26"/>
-        <v>145.50540897037277</v>
+        <f t="shared" si="33"/>
+        <v>453.49445697603858</v>
       </c>
       <c r="GD31" s="6">
-        <f t="shared" si="26"/>
-        <v>144.05035488066903</v>
+        <f t="shared" si="33"/>
+        <v>448.95951240627818</v>
       </c>
       <c r="GE31" s="6">
-        <f t="shared" si="26"/>
-        <v>142.60985133186233</v>
+        <f t="shared" si="33"/>
+        <v>444.46991728221542</v>
       </c>
       <c r="GF31" s="6">
-        <f t="shared" si="26"/>
-        <v>141.1837528185437</v>
+        <f t="shared" si="33"/>
+        <v>440.02521810939328</v>
       </c>
       <c r="GG31" s="6">
-        <f t="shared" si="26"/>
-        <v>139.77191529035827</v>
+        <f t="shared" si="33"/>
+        <v>435.62496592829933</v>
       </c>
       <c r="GH31" s="6">
-        <f t="shared" si="26"/>
-        <v>138.37419613745467</v>
+        <f t="shared" si="33"/>
+        <v>431.26871626901635</v>
       </c>
       <c r="GI31" s="6">
-        <f t="shared" si="26"/>
-        <v>136.99045417608014</v>
+        <f t="shared" si="33"/>
+        <v>426.95602910632618</v>
       </c>
       <c r="GJ31" s="6">
-        <f t="shared" si="26"/>
-        <v>135.62054963431933</v>
+        <f t="shared" si="33"/>
+        <v>422.68646881526291</v>
       </c>
       <c r="GK31" s="6">
-        <f t="shared" si="26"/>
-        <v>134.26434413797614</v>
+        <f t="shared" si="33"/>
+        <v>418.45960412711025</v>
       </c>
       <c r="GL31" s="6">
-        <f t="shared" si="26"/>
-        <v>132.92170069659639</v>
+        <f t="shared" si="33"/>
+        <v>414.27500808583915</v>
       </c>
       <c r="GM31" s="6">
-        <f t="shared" si="26"/>
-        <v>131.59248368963043</v>
+        <f t="shared" si="33"/>
+        <v>410.13225800498077</v>
       </c>
       <c r="GN31" s="6">
-        <f t="shared" si="26"/>
-        <v>130.27655885273413</v>
+        <f t="shared" si="33"/>
+        <v>406.03093542493093</v>
       </c>
       <c r="GO31" s="6">
-        <f t="shared" si="26"/>
-        <v>128.97379326420679</v>
+        <f t="shared" si="33"/>
+        <v>401.97062607068159</v>
       </c>
       <c r="GP31" s="6">
-        <f t="shared" si="26"/>
-        <v>127.68405533156472</v>
+        <f t="shared" si="33"/>
+        <v>397.95091980997478</v>
       </c>
       <c r="GQ31" s="6">
-        <f t="shared" si="26"/>
-        <v>126.40721477824907</v>
+        <f t="shared" si="33"/>
+        <v>393.971410611875</v>
       </c>
       <c r="GR31" s="6">
-        <f t="shared" si="26"/>
-        <v>125.14314263046658</v>
+        <f t="shared" si="33"/>
+        <v>390.03169650575626</v>
       </c>
       <c r="GS31" s="6">
-        <f t="shared" si="26"/>
-        <v>123.89171120416192</v>
+        <f t="shared" si="33"/>
+        <v>386.13137954069867</v>
       </c>
       <c r="GT31" s="6">
-        <f t="shared" si="26"/>
-        <v>122.6527940921203</v>
+        <f t="shared" si="33"/>
+        <v>382.27006574529167</v>
       </c>
       <c r="GU31" s="6">
-        <f t="shared" si="26"/>
-        <v>121.4262661511991</v>
+        <f t="shared" si="33"/>
+        <v>378.44736508783876</v>
       </c>
       <c r="GV31" s="6">
-        <f t="shared" si="26"/>
-        <v>120.21200348968711</v>
+        <f t="shared" si="33"/>
+        <v>374.66289143696036</v>
       </c>
       <c r="GW31" s="6">
-        <f t="shared" si="26"/>
-        <v>119.00988345479023</v>
+        <f t="shared" si="33"/>
+        <v>370.91626252259078</v>
       </c>
       <c r="GX31" s="6">
-        <f t="shared" si="26"/>
-        <v>117.81978462024233</v>
+        <f t="shared" si="33"/>
+        <v>367.20709989736486</v>
       </c>
       <c r="GY31" s="6">
-        <f t="shared" si="26"/>
-        <v>116.64158677403991</v>
+        <f t="shared" si="33"/>
+        <v>363.5350288983912</v>
       </c>
       <c r="GZ31" s="6">
-        <f t="shared" si="26"/>
-        <v>115.47517090629951</v>
+        <f t="shared" si="33"/>
+        <v>359.89967860940726</v>
       </c>
       <c r="HA31" s="6">
-        <f t="shared" si="26"/>
-        <v>114.32041919723652</v>
+        <f t="shared" si="33"/>
+        <v>356.3006818233132</v>
       </c>
       <c r="HB31" s="6">
-        <f t="shared" si="26"/>
-        <v>113.17721500526415</v>
+        <f t="shared" si="33"/>
+        <v>352.73767500508006</v>
       </c>
       <c r="HC31" s="6">
-        <f t="shared" si="26"/>
-        <v>112.0454428552115</v>
+        <f t="shared" si="33"/>
+        <v>349.21029825502927</v>
       </c>
       <c r="HD31" s="6">
-        <f t="shared" si="26"/>
-        <v>110.92498842665938</v>
+        <f t="shared" si="33"/>
+        <v>345.71819527247897</v>
       </c>
       <c r="HE31" s="6">
-        <f t="shared" si="26"/>
-        <v>109.81573854239279</v>
+        <f t="shared" si="33"/>
+        <v>342.26101331975417</v>
       </c>
       <c r="HF31" s="6">
-        <f t="shared" si="26"/>
-        <v>108.71758115696886</v>
+        <f t="shared" si="33"/>
+        <v>338.8384031865566</v>
       </c>
       <c r="HG31" s="6">
-        <f t="shared" si="26"/>
-        <v>107.63040534539917</v>
+        <f t="shared" si="33"/>
+        <v>335.45001915469106</v>
       </c>
       <c r="HH31" s="6">
-        <f t="shared" si="26"/>
-        <v>106.55410129194517</v>
+        <f t="shared" si="33"/>
+        <v>332.09551896314417</v>
       </c>
     </row>
     <row r="32" spans="1:216" x14ac:dyDescent="0.2">
@@ -4512,46 +4634,46 @@
         <v>0.7615483649472149</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" ref="I36:P36" si="27">I21/I19</f>
+        <f t="shared" ref="I36:P36" si="34">I21/I19</f>
         <v>0.79330915751822473</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0.82878453975250044</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0.86692232117389811</v>
       </c>
       <c r="L36" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0.87510045366169797</v>
       </c>
       <c r="M36" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0.847384337111042</v>
       </c>
       <c r="N36" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0.86538747582924291</v>
       </c>
       <c r="O36" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0.86845488851489083</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0.86</v>
       </c>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="U36" s="5">
-        <f t="shared" ref="U36:V36" si="28">U21/U19</f>
+        <f t="shared" ref="U36:V36" si="35">U21/U19</f>
         <v>0.83825722446386575</v>
       </c>
       <c r="V36" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.80281963538226009</v>
       </c>
       <c r="W36" s="5">
@@ -4559,43 +4681,43 @@
         <v>0.86464355922769298</v>
       </c>
       <c r="X36" s="5">
-        <f t="shared" ref="X36:AE36" si="29">X21/X19</f>
-        <v>0.85</v>
+        <f t="shared" ref="X36:AE36" si="36">X21/X19</f>
+        <v>0.87</v>
       </c>
       <c r="Y36" s="5">
-        <f t="shared" si="29"/>
-        <v>0.85</v>
+        <f t="shared" si="36"/>
+        <v>0.87</v>
       </c>
       <c r="Z36" s="5">
-        <f t="shared" si="29"/>
-        <v>0.85</v>
+        <f t="shared" si="36"/>
+        <v>0.87000000000000011</v>
       </c>
       <c r="AA36" s="5">
-        <f t="shared" si="29"/>
-        <v>0.85</v>
+        <f t="shared" si="36"/>
+        <v>0.87</v>
       </c>
       <c r="AB36" s="5">
-        <f t="shared" si="29"/>
-        <v>0.85</v>
+        <f t="shared" si="36"/>
+        <v>0.87</v>
       </c>
       <c r="AC36" s="5">
-        <f t="shared" si="29"/>
-        <v>0.85000000000000009</v>
+        <f t="shared" si="36"/>
+        <v>0.87</v>
       </c>
       <c r="AD36" s="5">
-        <f t="shared" si="29"/>
-        <v>0.85</v>
+        <f t="shared" si="36"/>
+        <v>0.87</v>
       </c>
       <c r="AE36" s="5">
-        <f t="shared" si="29"/>
-        <v>0.85</v>
+        <f t="shared" si="36"/>
+        <v>0.87</v>
       </c>
       <c r="AG36" t="s">
         <v>63</v>
       </c>
       <c r="AH36" s="9">
         <f>NPV(AH34,X31:HH31)</f>
-        <v>5378.1260581526622</v>
+        <v>13304.300503577379</v>
       </c>
       <c r="AJ36" t="s">
         <v>67</v>
@@ -4610,90 +4732,90 @@
         <v>-1.0165977169341684</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" ref="I37:W37" si="30">I26/I19</f>
+        <f t="shared" ref="I37:W37" si="37">I26/I19</f>
         <v>-1.5087193831454138</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>-1.6443464994066794</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>-1.6852787373625324</v>
       </c>
       <c r="L37" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>-0.86942320155541153</v>
       </c>
       <c r="M37" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>-0.93406438120001123</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>-0.10664881749219106</v>
       </c>
       <c r="O37" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0.12329740861148014</v>
       </c>
       <c r="P37" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0.20101382488479264</v>
       </c>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
       <c r="U37" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0.47303160228549834</v>
       </c>
       <c r="V37" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>-0.58631885110659554</v>
       </c>
       <c r="W37" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>-3.44584616275577E-3</v>
       </c>
       <c r="X37" s="5">
-        <f t="shared" ref="X37:AE37" si="31">X26/X19</f>
-        <v>0.17</v>
+        <f t="shared" ref="X37:AE37" si="38">X26/X19</f>
+        <v>0.15593195167837204</v>
       </c>
       <c r="Y37" s="5">
-        <f t="shared" si="31"/>
-        <v>0.17</v>
+        <f t="shared" si="38"/>
+        <v>0.21377275828192993</v>
       </c>
       <c r="Z37" s="5">
-        <f t="shared" si="31"/>
-        <v>0.17</v>
+        <f t="shared" si="38"/>
+        <v>0.26805553335402238</v>
       </c>
       <c r="AA37" s="5">
-        <f t="shared" si="31"/>
-        <v>0.17</v>
+        <f t="shared" si="38"/>
+        <v>0.26258418179956811</v>
       </c>
       <c r="AB37" s="5">
-        <f t="shared" si="31"/>
-        <v>0.17</v>
+        <f t="shared" si="38"/>
+        <v>0.2694925398228204</v>
       </c>
       <c r="AC37" s="5">
-        <f t="shared" si="31"/>
-        <v>0.17</v>
+        <f t="shared" si="38"/>
+        <v>0.28785875421997492</v>
       </c>
       <c r="AD37" s="5">
-        <f t="shared" si="31"/>
-        <v>0.17</v>
+        <f t="shared" si="38"/>
+        <v>0.31577426219769605</v>
       </c>
       <c r="AE37" s="5">
-        <f t="shared" si="31"/>
-        <v>0.17</v>
+        <f t="shared" si="38"/>
+        <v>0.35076191589941125</v>
       </c>
       <c r="AG37" t="s">
         <v>64</v>
       </c>
       <c r="AH37" s="3">
         <f>AH36/Main!J2</f>
-        <v>22.205309901538655</v>
+        <v>54.931050799245995</v>
       </c>
     </row>
     <row r="38" spans="2:36" x14ac:dyDescent="0.2">
@@ -4705,58 +4827,58 @@
         <v>8.3296147553175055E-3</v>
       </c>
       <c r="O38" s="5">
-        <f t="shared" ref="O38:P38" si="32">O31/O19</f>
+        <f t="shared" ref="O38:P38" si="39">O31/O19</f>
         <v>0.28691343570659522</v>
       </c>
       <c r="P38" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="W38" s="5">
-        <f t="shared" ref="W38:AE38" si="33">W31/W19</f>
+        <f t="shared" ref="W38:AE38" si="40">W31/W19</f>
         <v>7.9080721600725976E-2</v>
       </c>
       <c r="X38" s="5">
-        <f t="shared" si="33"/>
-        <v>0.17</v>
+        <f t="shared" si="40"/>
+        <v>0.10991682606512654</v>
       </c>
       <c r="Y38" s="5">
-        <f t="shared" si="33"/>
-        <v>0.17</v>
+        <f t="shared" si="40"/>
+        <v>0.15942838512856886</v>
       </c>
       <c r="Z38" s="5">
-        <f t="shared" si="33"/>
-        <v>0.17</v>
+        <f t="shared" si="40"/>
+        <v>0.20580702463909967</v>
       </c>
       <c r="AA38" s="5">
-        <f t="shared" si="33"/>
-        <v>0.17</v>
+        <f t="shared" si="40"/>
+        <v>0.20173140128343844</v>
       </c>
       <c r="AB38" s="5">
-        <f t="shared" si="33"/>
-        <v>0.17</v>
+        <f t="shared" si="40"/>
+        <v>0.20806252862161573</v>
       </c>
       <c r="AC38" s="5">
-        <f t="shared" si="33"/>
-        <v>0.17</v>
+        <f t="shared" si="40"/>
+        <v>0.22399520453630437</v>
       </c>
       <c r="AD38" s="5">
-        <f t="shared" si="33"/>
-        <v>0.17</v>
+        <f t="shared" si="40"/>
+        <v>0.24790070498730932</v>
       </c>
       <c r="AE38" s="5">
-        <f t="shared" si="33"/>
-        <v>0.17</v>
+        <f t="shared" si="40"/>
+        <v>0.27768097101418177</v>
       </c>
       <c r="AG38" t="s">
         <v>65</v>
       </c>
       <c r="AH38" s="5">
         <f>AH37/Main!J1-1</f>
-        <v>-0.88312994788663868</v>
+        <v>-0.71088920631975794</v>
       </c>
     </row>
     <row r="40" spans="2:36" x14ac:dyDescent="0.2">
@@ -4771,6 +4893,38 @@
         <f>W19/V19-1</f>
         <v>-2.6906447340820261E-2</v>
       </c>
+      <c r="X40" s="5">
+        <f t="shared" ref="X40:AE40" si="41">X19/W19-1</f>
+        <v>0.27648041079891517</v>
+      </c>
+      <c r="Y40" s="5">
+        <f t="shared" si="41"/>
+        <v>0.14254850008166531</v>
+      </c>
+      <c r="Z40" s="5">
+        <f t="shared" si="41"/>
+        <v>0.14468799363383589</v>
+      </c>
+      <c r="AA40" s="5">
+        <f t="shared" si="41"/>
+        <v>4.0542032393563243E-2</v>
+      </c>
+      <c r="AB40" s="5">
+        <f t="shared" si="41"/>
+        <v>6.2079410174645799E-2</v>
+      </c>
+      <c r="AC40" s="5">
+        <f t="shared" si="41"/>
+        <v>8.3126883306769317E-2</v>
+      </c>
+      <c r="AD40" s="5">
+        <f t="shared" si="41"/>
+        <v>0.10288690397677414</v>
+      </c>
+      <c r="AE40" s="5">
+        <f t="shared" si="41"/>
+        <v>0.12075181407472435</v>
+      </c>
     </row>
     <row r="41" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
@@ -4784,6 +4938,38 @@
         <f>W15/V15-1</f>
         <v>-0.35508021390374334</v>
       </c>
+      <c r="X41" s="5">
+        <f t="shared" ref="X41:AE41" si="42">X15/W15-1</f>
+        <v>0.5</v>
+      </c>
+      <c r="Y41" s="5">
+        <f t="shared" si="42"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Z41" s="5">
+        <f t="shared" si="42"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AA41" s="5">
+        <f t="shared" si="42"/>
+        <v>-9.9999999999999867E-2</v>
+      </c>
+      <c r="AB41" s="5">
+        <f t="shared" si="42"/>
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="AC41" s="5">
+        <f t="shared" si="42"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="AD41" s="5">
+        <f t="shared" si="42"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="AE41" s="5">
+        <f t="shared" si="42"/>
+        <v>-0.10000000000000009</v>
+      </c>
     </row>
     <row r="42" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
@@ -4796,6 +4982,38 @@
       <c r="W42" s="5">
         <f>W16/V16-1</f>
         <v>0.77518802685376786</v>
+      </c>
+      <c r="X42" s="5">
+        <f t="shared" ref="X42:AE42" si="43">X16/W16-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="Y42" s="5">
+        <f t="shared" si="43"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="Z42" s="5">
+        <f t="shared" si="43"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AA42" s="5">
+        <f t="shared" si="43"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AB42" s="5">
+        <f t="shared" si="43"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AC42" s="5">
+        <f t="shared" si="43"/>
+        <v>0.19999999999999973</v>
+      </c>
+      <c r="AD42" s="5">
+        <f t="shared" si="43"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AE42" s="5">
+        <f t="shared" si="43"/>
+        <v>0.19999999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/COIN.xlsx
+++ b/COIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobgarza/repos/Stock_Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A904825-DECD-0F40-BD58-56C96CC48E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96DF294-B786-DC4F-ACAD-82C8251F75F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
